--- a/working_files/fields/compare_DAT/18P-DAT_comparison.xlsx
+++ b/working_files/fields/compare_DAT/18P-DAT_comparison.xlsx
@@ -6359,7 +6359,7 @@
         <v>0.111648638110823</v>
       </c>
       <c r="H3">
-        <v>0.0104208756149178</v>
+        <v>0.0104208756149179</v>
       </c>
       <c r="I3">
         <v>0.111161251087868</v>
@@ -6446,7 +6446,7 @@
         <v>0.121835523187391</v>
       </c>
       <c r="H6">
-        <v>0.0117520418115064</v>
+        <v>0.0117520418115063</v>
       </c>
       <c r="I6">
         <v>0.121267407919877</v>
@@ -6475,7 +6475,7 @@
         <v>0.125499961783009</v>
       </c>
       <c r="H7">
-        <v>0.0122437022099549</v>
+        <v>0.0122437022099548</v>
       </c>
       <c r="I7">
         <v>0.124901289680014</v>
@@ -6504,7 +6504,7 @@
         <v>0.129310113975095</v>
       </c>
       <c r="H8">
-        <v>0.0127620308896685</v>
+        <v>0.0127620308896686</v>
       </c>
       <c r="I8">
         <v>0.128678810003136</v>
@@ -6594,7 +6594,7 @@
         <v>0.0144958390322227</v>
       </c>
       <c r="I11">
-        <v>0.140948371726596</v>
+        <v>0.140948371726595</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -6620,7 +6620,7 @@
         <v>0.146164424982786</v>
       </c>
       <c r="H12">
-        <v>0.0151403976654927</v>
+        <v>0.0151403976654928</v>
       </c>
       <c r="I12">
         <v>0.145378153410611</v>
@@ -6643,7 +6643,7 @@
         <v>3.98687312218516</v>
       </c>
       <c r="F13">
-        <v>0.150662617632995</v>
+        <v>0.150662617632994</v>
       </c>
       <c r="G13">
         <v>0.150825314641024</v>
@@ -6678,7 +6678,7 @@
         <v>0.155684837707355</v>
       </c>
       <c r="H14">
-        <v>0.0165438167771829</v>
+        <v>0.0165438167771828</v>
       </c>
       <c r="I14">
         <v>0.154803329481017</v>
@@ -6765,7 +6765,7 @@
         <v>0.171569980556626</v>
       </c>
       <c r="H17">
-        <v>0.018976927345002</v>
+        <v>0.0189769273450021</v>
       </c>
       <c r="I17">
         <v>0.170517255598205</v>
@@ -6791,7 +6791,7 @@
         <v>0.177098306550808</v>
       </c>
       <c r="G18">
-        <v>0.177343022553992</v>
+        <v>0.177343022553991</v>
       </c>
       <c r="H18">
         <v>0.0198881317326687</v>
@@ -6910,7 +6910,7 @@
         <v>0.203223876725905</v>
       </c>
       <c r="H22">
-        <v>0.0241332455084417</v>
+        <v>0.0241332455084416</v>
       </c>
       <c r="I22">
         <v>0.201785853153126</v>
@@ -6939,7 +6939,7 @@
         <v>0.210478792990889</v>
       </c>
       <c r="H23">
-        <v>0.0253657738529921</v>
+        <v>0.025365773852992</v>
       </c>
       <c r="I23">
         <v>0.208944729092984</v>
@@ -6968,7 +6968,7 @@
         <v>0.218087137767283</v>
       </c>
       <c r="H24">
-        <v>0.0266760092952583</v>
+        <v>0.0266760092952584</v>
       </c>
       <c r="I24">
         <v>0.216449509557322</v>
@@ -6997,7 +6997,7 @@
         <v>0.226071175643708</v>
       </c>
       <c r="H25">
-        <v>0.0280688702853909</v>
+        <v>0.0280688702853908</v>
       </c>
       <c r="I25">
         <v>0.224321900352663</v>
@@ -7055,7 +7055,7 @@
         <v>0.243263158498577</v>
       </c>
       <c r="H27">
-        <v>0.031122725775687</v>
+        <v>0.0311227257756869</v>
       </c>
       <c r="I27">
         <v>0.241264046685359</v>
@@ -7078,13 +7078,13 @@
         <v>5.904777124918</v>
       </c>
       <c r="F28">
-        <v>0.251965713059771</v>
+        <v>0.25196571305977</v>
       </c>
       <c r="G28">
         <v>0.252523570908933</v>
       </c>
       <c r="H28">
-        <v>0.0327939697661147</v>
+        <v>0.0327939697661148</v>
       </c>
       <c r="I28">
         <v>0.250385122184961</v>
@@ -7107,7 +7107,7 @@
         <v>6.07059262738011</v>
       </c>
       <c r="F29">
-        <v>0.261660503166778</v>
+        <v>0.261660503166777</v>
       </c>
       <c r="G29">
         <v>0.262264683513396</v>
@@ -7142,10 +7142,10 @@
         <v>0.272516902884176</v>
       </c>
       <c r="H30">
-        <v>0.0364502351719731</v>
+        <v>0.036450235171973</v>
       </c>
       <c r="I30">
-        <v>0.270068218629093</v>
+        <v>0.270068218629092</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -7165,16 +7165,16 @@
         <v>6.41637765746501</v>
       </c>
       <c r="F31">
-        <v>0.28260593769364</v>
+        <v>0.282605937693639</v>
       </c>
       <c r="G31">
-        <v>0.283312270532161</v>
+        <v>0.28331227053216</v>
       </c>
       <c r="H31">
-        <v>0.0384446651722099</v>
+        <v>0.0384446651722098</v>
       </c>
       <c r="I31">
-        <v>0.28069173545704</v>
+        <v>0.280691735457039</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -7200,7 +7200,7 @@
         <v>0.294684378251907</v>
       </c>
       <c r="H32">
-        <v>0.0405555355976093</v>
+        <v>0.0405555355976091</v>
       </c>
       <c r="I32">
         <v>0.291880337326967</v>
@@ -7229,7 +7229,7 @@
         <v>0.306668225117248</v>
       </c>
       <c r="H33">
-        <v>0.0427862267509647</v>
+        <v>0.0427862267509646</v>
       </c>
       <c r="I33">
         <v>0.303668798359295</v>
@@ -7255,10 +7255,10 @@
         <v>0.318416848762366</v>
       </c>
       <c r="G34">
-        <v>0.319300002355821</v>
+        <v>0.31930000235582</v>
       </c>
       <c r="H34">
-        <v>0.0451392033592443</v>
+        <v>0.0451392033592444</v>
       </c>
       <c r="I34">
         <v>0.316093251785798</v>
@@ -7316,7 +7316,7 @@
         <v>0.346656150428734</v>
       </c>
       <c r="H36">
-        <v>0.0502155836814671</v>
+        <v>0.050215583681467</v>
       </c>
       <c r="I36">
         <v>0.342999827675756</v>
@@ -7345,7 +7345,7 @@
         <v>0.361455591037039</v>
       </c>
       <c r="H37">
-        <v>0.0529366081676056</v>
+        <v>0.0529366081676057</v>
       </c>
       <c r="I37">
         <v>0.357558190799266</v>
@@ -7403,7 +7403,7 @@
         <v>0.393480240188702</v>
       </c>
       <c r="H39">
-        <v>0.0587215991780997</v>
+        <v>0.0587215991780995</v>
       </c>
       <c r="I39">
         <v>0.389073866006091</v>
@@ -7426,13 +7426,13 @@
         <v>8.12215813021046</v>
       </c>
       <c r="F40">
-        <v>0.409469244848668</v>
+        <v>0.409469244848667</v>
       </c>
       <c r="G40">
-        <v>0.410773223143609</v>
+        <v>0.410773223143608</v>
       </c>
       <c r="H40">
-        <v>0.0617677571825633</v>
+        <v>0.0617677571825634</v>
       </c>
       <c r="I40">
         <v>0.406102677933087</v>
@@ -7484,16 +7484,16 @@
         <v>8.49444741432263</v>
       </c>
       <c r="F42">
-        <v>0.446609879123462</v>
+        <v>0.446609879123461</v>
       </c>
       <c r="G42">
-        <v>0.448062547679916</v>
+        <v>0.448062547679915</v>
       </c>
       <c r="H42">
         <v>0.0680944713368564</v>
       </c>
       <c r="I42">
-        <v>0.44285797904833</v>
+        <v>0.442857979048329</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -7522,7 +7522,7 @@
         <v>0.0713319438382718</v>
       </c>
       <c r="I43">
-        <v>0.462631540336782</v>
+        <v>0.462631540336783</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -7542,16 +7542,16 @@
         <v>8.84087651120561</v>
       </c>
       <c r="F44">
-        <v>0.487476576258265</v>
+        <v>0.487476576258264</v>
       </c>
       <c r="G44">
-        <v>0.489074483828497</v>
+        <v>0.489074483828496</v>
       </c>
       <c r="H44">
         <v>0.0745809112057396</v>
       </c>
       <c r="I44">
-        <v>0.483354464565946</v>
+        <v>0.483354464565945</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -7577,7 +7577,7 @@
         <v>0.510986309673676</v>
       </c>
       <c r="H45">
-        <v>0.0778051413647293</v>
+        <v>0.0778051413647295</v>
       </c>
       <c r="I45">
         <v>0.505028086992334</v>
@@ -7606,7 +7606,7 @@
         <v>0.533815787208139</v>
       </c>
       <c r="H46">
-        <v>0.0809615478435313</v>
+        <v>0.0809615478435314</v>
       </c>
       <c r="I46">
         <v>0.527640523882903</v>
@@ -7629,16 +7629,16 @@
         <v>9.28315904049796</v>
       </c>
       <c r="F47">
-        <v>0.55572944322861</v>
+        <v>0.555729443228609</v>
       </c>
       <c r="G47">
-        <v>0.557528030654115</v>
+        <v>0.557528030654114</v>
       </c>
       <c r="H47">
-        <v>0.083999840195528</v>
+        <v>0.0839998401955282</v>
       </c>
       <c r="I47">
-        <v>0.551163797624791</v>
+        <v>0.55116379762479</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -7693,7 +7693,7 @@
         <v>0.607359594773018</v>
       </c>
       <c r="H49">
-        <v>0.0894845527596975</v>
+        <v>0.0894845527596976</v>
       </c>
       <c r="I49">
         <v>0.600731381051666</v>
@@ -7722,7 +7722,7 @@
         <v>0.633297995560722</v>
       </c>
       <c r="H50">
-        <v>0.0917951834424742</v>
+        <v>0.091795183442474</v>
       </c>
       <c r="I50">
         <v>0.626609922900995</v>
@@ -7751,10 +7751,10 @@
         <v>0.659751000275493</v>
       </c>
       <c r="H51">
-        <v>0.0937181813607845</v>
+        <v>0.0937181813607843</v>
       </c>
       <c r="I51">
-        <v>0.653060705330631</v>
+        <v>0.65306070533063</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -7803,13 +7803,13 @@
         <v>9.84984151394137</v>
       </c>
       <c r="F53">
-        <v>0.711399405292981</v>
+        <v>0.71139940529298</v>
       </c>
       <c r="G53">
-        <v>0.713507366695794</v>
+        <v>0.713507366695793</v>
       </c>
       <c r="H53">
-        <v>0.0960861007447201</v>
+        <v>0.0960861007447202</v>
       </c>
       <c r="I53">
         <v>0.707007937418556</v>
@@ -7864,7 +7864,7 @@
         <v>0.764691971438327</v>
       </c>
       <c r="G55">
-        <v>0.76688601879771</v>
+        <v>0.766886018797709</v>
       </c>
       <c r="H55">
         <v>0.0959944123088428</v>
@@ -7890,7 +7890,7 @@
         <v>10.2084471234149</v>
       </c>
       <c r="F56">
-        <v>0.790488564492682</v>
+        <v>0.790488564492681</v>
       </c>
       <c r="G56">
         <v>0.792728089701208</v>
@@ -7925,7 +7925,7 @@
         <v>0.817556610029237</v>
       </c>
       <c r="H57">
-        <v>0.0930645433476433</v>
+        <v>0.0930645433476435</v>
       </c>
       <c r="I57">
         <v>0.812242452334272</v>
@@ -7954,10 +7954,10 @@
         <v>0.840994525805746</v>
       </c>
       <c r="H58">
-        <v>0.0905608538699752</v>
+        <v>0.0905608538699751</v>
       </c>
       <c r="I58">
-        <v>0.836104373975865</v>
+        <v>0.836104373975864</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -7977,13 +7977,13 @@
         <v>11.1250230449494</v>
       </c>
       <c r="F59">
-        <v>0.860223088666197</v>
+        <v>0.860223088666196</v>
       </c>
       <c r="G59">
         <v>0.862638712900608</v>
       </c>
       <c r="H59">
-        <v>0.0874998162179354</v>
+        <v>0.0874998162179353</v>
       </c>
       <c r="I59">
         <v>0.858189565979828</v>
@@ -8006,16 +8006,16 @@
         <v>11.6519872926156</v>
       </c>
       <c r="F60">
-        <v>0.879568755623202</v>
+        <v>0.879568755623201</v>
       </c>
       <c r="G60">
-        <v>0.88206784919434</v>
+        <v>0.882067849194339</v>
       </c>
       <c r="H60">
-        <v>0.0841031049560058</v>
+        <v>0.0841031049560057</v>
       </c>
       <c r="I60">
-        <v>0.87804917761996</v>
+        <v>0.878049177619959</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -8038,10 +8038,10 @@
         <v>0.896250127005689</v>
       </c>
       <c r="G61">
-        <v>0.898852617667089</v>
+        <v>0.898852617667088</v>
       </c>
       <c r="H61">
-        <v>0.080725258681118</v>
+        <v>0.0807252586811182</v>
       </c>
       <c r="I61">
         <v>0.895220342093411</v>
@@ -8064,16 +8064,16 @@
         <v>13.1288428485769</v>
       </c>
       <c r="F62">
-        <v>0.909836477846947</v>
+        <v>0.909836477846946</v>
       </c>
       <c r="G62">
         <v>0.912568193323598</v>
       </c>
       <c r="H62">
-        <v>0.0778758123079704</v>
+        <v>0.0778758123079703</v>
       </c>
       <c r="I62">
-        <v>0.90923927836586</v>
+        <v>0.909239278365859</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -8093,16 +8093,16 @@
         <v>14.0853280865263</v>
       </c>
       <c r="F63">
-        <v>0.919914913566815</v>
+        <v>0.919914913566814</v>
       </c>
       <c r="G63">
-        <v>0.92280880339622</v>
+        <v>0.922808803396219</v>
       </c>
       <c r="H63">
-        <v>0.0762045596122323</v>
+        <v>0.0762045596122322</v>
       </c>
       <c r="I63">
-        <v>0.919656975572887</v>
+        <v>0.919656975572886</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -8125,10 +8125,10 @@
         <v>0.926106301769118</v>
       </c>
       <c r="G64">
-        <v>0.929203970091162</v>
+        <v>0.929203970091161</v>
       </c>
       <c r="H64">
-        <v>0.0764087779642552</v>
+        <v>0.0764087779642553</v>
       </c>
       <c r="I64">
         <v>0.926057080683035</v>
@@ -8157,7 +8157,7 @@
         <v>0.931435865440294</v>
       </c>
       <c r="H65">
-        <v>0.0790497450421352</v>
+        <v>0.0790497450421351</v>
       </c>
       <c r="I65">
         <v>0.928075379070732</v>
@@ -8183,13 +8183,13 @@
         <v>0.925582232248414</v>
       </c>
       <c r="G66">
-        <v>0.92925705012753</v>
+        <v>0.929257050127529</v>
       </c>
       <c r="H66">
-        <v>0.0843587891663567</v>
+        <v>0.0843587891663566</v>
       </c>
       <c r="I66">
-        <v>0.925420045115787</v>
+        <v>0.925420045115786</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -8215,7 +8215,7 @@
         <v>0.922507755503773</v>
       </c>
       <c r="H67">
-        <v>0.0921706317823156</v>
+        <v>0.0921706317823155</v>
       </c>
       <c r="I67">
         <v>0.917891678577303</v>
@@ -8238,16 +8238,16 @@
         <v>20.5164346826426</v>
       </c>
       <c r="F68">
-        <v>0.906550947159431</v>
+        <v>0.90655094715943</v>
       </c>
       <c r="G68">
-        <v>0.911131820650449</v>
+        <v>0.911131820650448</v>
       </c>
       <c r="H68">
         <v>0.102021064171613</v>
       </c>
       <c r="I68">
-        <v>0.905402063763438</v>
+        <v>0.905402063763437</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -8267,10 +8267,10 @@
         <v>21.9572820304684</v>
       </c>
       <c r="F69">
-        <v>0.889980351832575</v>
+        <v>0.889980351832574</v>
       </c>
       <c r="G69">
-        <v>0.89519042657967</v>
+        <v>0.895190426579669</v>
       </c>
       <c r="H69">
         <v>0.113307399065209</v>
@@ -8299,13 +8299,13 @@
         <v>0.868878003959767</v>
       </c>
       <c r="G70">
-        <v>0.874872876302891</v>
+        <v>0.87487287630289</v>
       </c>
       <c r="H70">
         <v>0.12541042404176</v>
       </c>
       <c r="I70">
-        <v>0.865837614817097</v>
+        <v>0.865837614817096</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -8325,7 +8325,7 @@
         <v>24.7513114702612</v>
       </c>
       <c r="F71">
-        <v>0.843532224906578</v>
+        <v>0.843532224906577</v>
       </c>
       <c r="G71">
         <v>0.850503832986239</v>
@@ -8354,7 +8354,7 @@
         <v>26.0438609283948</v>
       </c>
       <c r="F72">
-        <v>0.814363098698897</v>
+        <v>0.814363098698898</v>
       </c>
       <c r="G72">
         <v>0.822546606887057</v>
@@ -8363,7 +8363,7 @@
         <v>0.14983598588308</v>
       </c>
       <c r="I72">
-        <v>0.808784333327405</v>
+        <v>0.808784333327406</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -8383,10 +8383,10 @@
         <v>27.2296823220936</v>
       </c>
       <c r="F73">
-        <v>0.781921774610913</v>
+        <v>0.781921774610912</v>
       </c>
       <c r="G73">
-        <v>0.791602208755616</v>
+        <v>0.791602208755615</v>
       </c>
       <c r="H73">
         <v>0.161216570355406</v>
@@ -8412,7 +8412,7 @@
         <v>28.2847204156803</v>
       </c>
       <c r="F74">
-        <v>0.746886894964818</v>
+        <v>0.746886894964817</v>
       </c>
       <c r="G74">
         <v>0.758403872117097</v>
@@ -8421,7 +8421,7 @@
         <v>0.171536270101457</v>
       </c>
       <c r="I74">
-        <v>0.738750121002959</v>
+        <v>0.738750121002958</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -8441,16 +8441,16 @@
         <v>29.1887494296773</v>
       </c>
       <c r="F75">
-        <v>0.710059089124482</v>
+        <v>0.710059089124481</v>
       </c>
       <c r="G75">
-        <v>0.723806481544262</v>
+        <v>0.723806481544261</v>
       </c>
       <c r="H75">
         <v>0.180507108725011</v>
       </c>
       <c r="I75">
-        <v>0.700937234297923</v>
+        <v>0.700937234297922</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -8473,7 +8473,7 @@
         <v>0.672354730861552</v>
       </c>
       <c r="G76">
-        <v>0.688769730295843</v>
+        <v>0.688769730295842</v>
       </c>
       <c r="H76">
         <v>0.187913966855892</v>
@@ -8502,13 +8502,13 @@
         <v>0.634800053686504</v>
       </c>
       <c r="G77">
-        <v>0.654332850679758</v>
+        <v>0.654332850679759</v>
       </c>
       <c r="H77">
         <v>0.193613601473253</v>
       </c>
       <c r="I77">
-        <v>0.625032201413059</v>
+        <v>0.62503220141306</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -8586,16 +8586,16 @@
         <v>31.0522931764503</v>
       </c>
       <c r="F80">
-        <v>0.534786674270425</v>
+        <v>0.534786674270424</v>
       </c>
       <c r="G80">
-        <v>0.565318426777271</v>
+        <v>0.56531842677727</v>
       </c>
       <c r="H80">
         <v>0.200062548758487</v>
       </c>
       <c r="I80">
-        <v>0.528734243489285</v>
+        <v>0.528734243489284</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -8615,16 +8615,16 @@
         <v>30.8810491241826</v>
       </c>
       <c r="F81">
-        <v>0.509901183193443</v>
+        <v>0.509901183193442</v>
       </c>
       <c r="G81">
-        <v>0.543629035941494</v>
+        <v>0.543629035941493</v>
       </c>
       <c r="H81">
         <v>0.198839024236566</v>
       </c>
       <c r="I81">
-        <v>0.505960048975538</v>
+        <v>0.505960048975537</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -8644,7 +8644,7 @@
         <v>30.5447587890936</v>
       </c>
       <c r="F82">
-        <v>0.491208785006883</v>
+        <v>0.491208785006882</v>
       </c>
       <c r="G82">
         <v>0.527072850871018</v>
@@ -8653,7 +8653,7 @@
         <v>0.196153371691181</v>
       </c>
       <c r="I82">
-        <v>0.489213291826259</v>
+        <v>0.489213291826258</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -8673,7 +8673,7 @@
         <v>30.0578335065221</v>
       </c>
       <c r="F83">
-        <v>0.479371482301497</v>
+        <v>0.479371482301496</v>
       </c>
       <c r="G83">
         <v>0.515882799962241</v>
@@ -8731,10 +8731,10 @@
         <v>28.7031633170491</v>
       </c>
       <c r="F85">
-        <v>0.475362502511676</v>
+        <v>0.475362502511675</v>
       </c>
       <c r="G85">
-        <v>0.508744073946024</v>
+        <v>0.508744073946023</v>
       </c>
       <c r="H85">
         <v>0.181507582133628</v>
@@ -8760,7 +8760,7 @@
         <v>27.8759359074229</v>
       </c>
       <c r="F86">
-        <v>0.481148759518408</v>
+        <v>0.481148759518407</v>
       </c>
       <c r="G86">
         <v>0.511611430138427</v>
@@ -8789,7 +8789,7 @@
         <v>26.9779335437093</v>
       </c>
       <c r="F87">
-        <v>0.490315273930013</v>
+        <v>0.490315273930014</v>
       </c>
       <c r="G87">
         <v>0.517673394584216</v>
@@ -8818,10 +8818,10 @@
         <v>26.0317555595115</v>
       </c>
       <c r="F88">
-        <v>0.501599789994404</v>
+        <v>0.501599789994403</v>
       </c>
       <c r="G88">
-        <v>0.526047415739297</v>
+        <v>0.526047415739296</v>
       </c>
       <c r="H88">
         <v>0.162604000418885</v>
@@ -8905,7 +8905,7 @@
         <v>23.1252829379649</v>
       </c>
       <c r="F91">
-        <v>0.539187569864166</v>
+        <v>0.539187569864165</v>
       </c>
       <c r="G91">
         <v>0.557513416857197</v>
@@ -8937,13 +8937,13 @@
         <v>0.55113608782795</v>
       </c>
       <c r="G92">
-        <v>0.568317532544508</v>
+        <v>0.568317532544507</v>
       </c>
       <c r="H92">
         <v>0.143535082778838</v>
       </c>
       <c r="I92">
-        <v>0.549893169451258</v>
+        <v>0.549893169451257</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -8998,10 +8998,10 @@
         <v>0.588759309713244</v>
       </c>
       <c r="H94">
-        <v>0.139926826611119</v>
+        <v>0.13992682661112</v>
       </c>
       <c r="I94">
-        <v>0.571889856500845</v>
+        <v>0.571889856500846</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -9024,7 +9024,7 @@
         <v>0.582584431311641</v>
       </c>
       <c r="G95">
-        <v>0.598316434873947</v>
+        <v>0.598316434873946</v>
       </c>
       <c r="H95">
         <v>0.139701363942008</v>
@@ -9088,7 +9088,7 @@
         <v>0.141793818352013</v>
       </c>
       <c r="I97">
-        <v>0.600102252648293</v>
+        <v>0.600102252648294</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -9137,7 +9137,7 @@
         <v>17.6947341842798</v>
       </c>
       <c r="F99">
-        <v>0.618971469819926</v>
+        <v>0.618971469819925</v>
       </c>
       <c r="G99">
         <v>0.635256656446372</v>
@@ -9224,7 +9224,7 @@
         <v>16.8642782647247</v>
       </c>
       <c r="F102">
-        <v>0.651246642028526</v>
+        <v>0.651246642028525</v>
       </c>
       <c r="G102">
         <v>0.667874520173097</v>
@@ -9233,7 +9233,7 @@
         <v>0.152754605960975</v>
       </c>
       <c r="I102">
-        <v>0.650171058302469</v>
+        <v>0.650171058302468</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -9256,13 +9256,13 @@
         <v>0.664200600132968</v>
       </c>
       <c r="G103">
-        <v>0.680689405480486</v>
+        <v>0.680689405480487</v>
       </c>
       <c r="H103">
         <v>0.154382446570035</v>
       </c>
       <c r="I103">
-        <v>0.662951074306715</v>
+        <v>0.662951074306716</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -9282,7 +9282,7 @@
         <v>16.5359130195323</v>
       </c>
       <c r="F104">
-        <v>0.678385637955396</v>
+        <v>0.678385637955395</v>
       </c>
       <c r="G104">
         <v>0.694577077914313</v>
@@ -9369,7 +9369,7 @@
         <v>16.2727632299339</v>
       </c>
       <c r="F107">
-        <v>0.727053551034853</v>
+        <v>0.727053551034854</v>
       </c>
       <c r="G107">
         <v>0.741531920493843</v>
@@ -9398,7 +9398,7 @@
         <v>16.2573599355149</v>
       </c>
       <c r="F108">
-        <v>0.744378290833325</v>
+        <v>0.744378290833326</v>
       </c>
       <c r="G108">
         <v>0.758112707600507</v>
@@ -9407,7 +9407,7 @@
         <v>0.152306176442467</v>
       </c>
       <c r="I108">
-        <v>0.742655846299514</v>
+        <v>0.742655846299515</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -9491,7 +9491,7 @@
         <v>0.805052893519165</v>
       </c>
       <c r="H111">
-        <v>0.142069523392362</v>
+        <v>0.142069523392363</v>
       </c>
       <c r="I111">
         <v>0.792418078975137</v>
@@ -9523,7 +9523,7 @@
         <v>0.137830032813254</v>
       </c>
       <c r="I112">
-        <v>0.806433131771887</v>
+        <v>0.806433131771888</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -9572,16 +9572,16 @@
         <v>17.9440765564999</v>
       </c>
       <c r="F114">
-        <v>0.827497180755784</v>
+        <v>0.827497180755783</v>
       </c>
       <c r="G114">
-        <v>0.837407468130166</v>
+        <v>0.837407468130165</v>
       </c>
       <c r="H114">
         <v>0.130018949110671</v>
       </c>
       <c r="I114">
-        <v>0.827252283497804</v>
+        <v>0.827252283497803</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -9601,7 +9601,7 @@
         <v>18.6661937316654</v>
       </c>
       <c r="F115">
-        <v>0.833105410639813</v>
+        <v>0.833105410639814</v>
       </c>
       <c r="G115">
         <v>0.842718023185964</v>
@@ -9610,7 +9610,7 @@
         <v>0.127325367226706</v>
       </c>
       <c r="I115">
-        <v>0.833043766835238</v>
+        <v>0.833043766835239</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -9639,7 +9639,7 @@
         <v>0.126036363595058</v>
       </c>
       <c r="I116">
-        <v>0.835199158108894</v>
+        <v>0.835199158108895</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -9659,16 +9659,16 @@
         <v>20.5008107088583</v>
       </c>
       <c r="F117">
-        <v>0.833515678571871</v>
+        <v>0.833515678571872</v>
       </c>
       <c r="G117">
-        <v>0.842969384488004</v>
+        <v>0.842969384488005</v>
       </c>
       <c r="H117">
         <v>0.126491763776226</v>
       </c>
       <c r="I117">
-        <v>0.833424991754425</v>
+        <v>0.833424991754426</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -9688,7 +9688,7 @@
         <v>21.5737643164184</v>
       </c>
       <c r="F118">
-        <v>0.827902617114356</v>
+        <v>0.827902617114357</v>
       </c>
       <c r="G118">
         <v>0.837523681521191</v>
@@ -9717,7 +9717,7 @@
         <v>22.7127130398928</v>
       </c>
       <c r="F119">
-        <v>0.818335810859939</v>
+        <v>0.81833581085994</v>
       </c>
       <c r="G119">
         <v>0.828311411861477</v>
@@ -9726,7 +9726,7 @@
         <v>0.133016484210492</v>
       </c>
       <c r="I119">
-        <v>0.817561257612072</v>
+        <v>0.817561257612073</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -9781,7 +9781,7 @@
         <v>0.799269182073912</v>
       </c>
       <c r="H121">
-        <v>0.145481263095674</v>
+        <v>0.145481263095673</v>
       </c>
       <c r="I121">
         <v>0.785917570424015</v>
@@ -9813,7 +9813,7 @@
         <v>0.152805625992391</v>
       </c>
       <c r="I122">
-        <v>0.765038602293227</v>
+        <v>0.765038602293228</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -9871,7 +9871,7 @@
         <v>0.167072042231593</v>
       </c>
       <c r="I124">
-        <v>0.716343747133882</v>
+        <v>0.716343747133883</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -9894,13 +9894,13 @@
         <v>0.694436071504544</v>
       </c>
       <c r="G125">
-        <v>0.711628597200049</v>
+        <v>0.71162859720005</v>
       </c>
       <c r="H125">
         <v>0.173128788090144</v>
       </c>
       <c r="I125">
-        <v>0.690247552032854</v>
+        <v>0.690247552032855</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -9923,7 +9923,7 @@
         <v>0.668466489440919</v>
       </c>
       <c r="G126">
-        <v>0.687757552796729</v>
+        <v>0.68775755279673</v>
       </c>
       <c r="H126">
         <v>0.178007219708221</v>
@@ -9949,16 +9949,16 @@
         <v>30.2223774748973</v>
       </c>
       <c r="F127">
-        <v>0.643394240228025</v>
+        <v>0.643394240228026</v>
       </c>
       <c r="G127">
-        <v>0.664890513238319</v>
+        <v>0.66489051323832</v>
       </c>
       <c r="H127">
         <v>0.181467357659293</v>
       </c>
       <c r="I127">
-        <v>0.639647553499949</v>
+        <v>0.63964755349995</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -9981,13 +9981,13 @@
         <v>0.620322404318135</v>
       </c>
       <c r="G128">
-        <v>0.643945066171691</v>
+        <v>0.643945066171692</v>
       </c>
       <c r="H128">
         <v>0.183351513131645</v>
       </c>
       <c r="I128">
-        <v>0.617290426686823</v>
+        <v>0.617290426686824</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -10007,16 +10007,16 @@
         <v>30.7132812000214</v>
       </c>
       <c r="F129">
-        <v>0.600341349118937</v>
+        <v>0.600341349118938</v>
       </c>
       <c r="G129">
-        <v>0.625754940037796</v>
+        <v>0.625754940037797</v>
       </c>
       <c r="H129">
         <v>0.183578551662361</v>
       </c>
       <c r="I129">
-        <v>0.598220829085093</v>
+        <v>0.598220829085094</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -10068,7 +10068,7 @@
         <v>0.573261524721431</v>
       </c>
       <c r="G131">
-        <v>0.600128407106485</v>
+        <v>0.600128407106484</v>
       </c>
       <c r="H131">
         <v>0.17907268730685</v>
@@ -10097,13 +10097,13 @@
         <v>0.567166713749797</v>
       </c>
       <c r="G132">
-        <v>0.593331136260936</v>
+        <v>0.593331136260935</v>
       </c>
       <c r="H132">
         <v>0.17448658112447</v>
       </c>
       <c r="I132">
-        <v>0.567094586699774</v>
+        <v>0.567094586699773</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -10152,7 +10152,7 @@
         <v>28.8310114603917</v>
       </c>
       <c r="F134">
-        <v>0.569060838138234</v>
+        <v>0.569060838138235</v>
       </c>
       <c r="G134">
         <v>0.591290899155071</v>
@@ -10161,7 +10161,7 @@
         <v>0.161338854412349</v>
       </c>
       <c r="I134">
-        <v>0.568853848963442</v>
+        <v>0.568853848963443</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -10181,13 +10181,13 @@
         <v>27.9950049767694</v>
       </c>
       <c r="F135">
-        <v>0.575583023958065</v>
+        <v>0.575583023958066</v>
       </c>
       <c r="G135">
-        <v>0.595121756569587</v>
+        <v>0.595121756569588</v>
       </c>
       <c r="H135">
-        <v>0.15314391420175</v>
+        <v>0.153143914201751</v>
       </c>
       <c r="I135">
         <v>0.575079861137076</v>
@@ -10210,16 +10210,16 @@
         <v>27.0412611135084</v>
       </c>
       <c r="F136">
-        <v>0.584547071042605</v>
+        <v>0.584547071042604</v>
       </c>
       <c r="G136">
-        <v>0.601305021896014</v>
+        <v>0.601305021896013</v>
       </c>
       <c r="H136">
         <v>0.144142706516302</v>
       </c>
       <c r="I136">
-        <v>0.583772737900222</v>
+        <v>0.583772737900221</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -10245,10 +10245,10 @@
         <v>0.609096623110933</v>
       </c>
       <c r="H137">
-        <v>0.134552245723907</v>
+        <v>0.134552245723908</v>
       </c>
       <c r="I137">
-        <v>0.594049147340348</v>
+        <v>0.594049147340349</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -10277,7 +10277,7 @@
         <v>0.124590938256999</v>
       </c>
       <c r="I138">
-        <v>0.605073323275034</v>
+        <v>0.605073323275035</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -10326,7 +10326,7 @@
         <v>22.4134644696197</v>
       </c>
       <c r="F140">
-        <v>0.627300500308148</v>
+        <v>0.627300500308149</v>
       </c>
       <c r="G140">
         <v>0.635171915938672</v>
@@ -10358,10 +10358,10 @@
         <v>0.636445501427784</v>
       </c>
       <c r="G141">
-        <v>0.642859311317088</v>
+        <v>0.642859311317089</v>
       </c>
       <c r="H141">
-        <v>0.0945937977171416</v>
+        <v>0.0945937977171417</v>
       </c>
       <c r="I141">
         <v>0.635861704760186</v>
@@ -10416,10 +10416,10 @@
         <v>0.650119574689623</v>
       </c>
       <c r="G143">
-        <v>0.654371850297717</v>
+        <v>0.654371850297718</v>
       </c>
       <c r="H143">
-        <v>0.0764567820703024</v>
+        <v>0.0764567820703026</v>
       </c>
       <c r="I143">
         <v>0.649889897549972</v>
@@ -10448,7 +10448,7 @@
         <v>0.657755159264828</v>
       </c>
       <c r="H144">
-        <v>0.0684758922809633</v>
+        <v>0.0684758922809634</v>
       </c>
       <c r="I144">
         <v>0.654181092447516</v>
@@ -10477,7 +10477,7 @@
         <v>0.659398884088396</v>
       </c>
       <c r="H145">
-        <v>0.0614244848075621</v>
+        <v>0.0614244848075623</v>
       </c>
       <c r="I145">
         <v>0.656531736478251</v>
@@ -10564,7 +10564,7 @@
         <v>0.653802550730753</v>
       </c>
       <c r="H148">
-        <v>0.0469146051998192</v>
+        <v>0.0469146051998193</v>
       </c>
       <c r="I148">
         <v>0.652117163676117</v>
@@ -10593,7 +10593,7 @@
         <v>0.648617219346136</v>
       </c>
       <c r="H149">
-        <v>0.0443869319126433</v>
+        <v>0.0443869319126431</v>
       </c>
       <c r="I149">
         <v>0.647096667823051</v>
@@ -10619,10 +10619,10 @@
         <v>0.640823775866325</v>
       </c>
       <c r="G150">
-        <v>0.641941350591417</v>
+        <v>0.641941350591418</v>
       </c>
       <c r="H150">
-        <v>0.0428757970277512</v>
+        <v>0.0428757970277513</v>
       </c>
       <c r="I150">
         <v>0.640507895055454</v>
@@ -10677,13 +10677,13 @@
         <v>0.6238437597211</v>
       </c>
       <c r="G152">
-        <v>0.624643598257839</v>
+        <v>0.624643598257838</v>
       </c>
       <c r="H152">
-        <v>0.0421235284103169</v>
+        <v>0.042123528410317</v>
       </c>
       <c r="I152">
-        <v>0.623221656554685</v>
+        <v>0.623221656554684</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -10738,7 +10738,7 @@
         <v>0.603021834554691</v>
       </c>
       <c r="H154">
-        <v>0.0430014682476722</v>
+        <v>0.0430014682476724</v>
       </c>
       <c r="I154">
         <v>0.601486663757601</v>
@@ -10767,7 +10767,7 @@
         <v>0.590941634874853</v>
       </c>
       <c r="H155">
-        <v>0.0436278926336572</v>
+        <v>0.0436278926336571</v>
       </c>
       <c r="I155">
         <v>0.589328959760939</v>
@@ -10793,7 +10793,7 @@
         <v>0.577754618084835</v>
       </c>
       <c r="G156">
-        <v>0.578194848346745</v>
+        <v>0.578194848346746</v>
       </c>
       <c r="H156">
         <v>0.044231239502014</v>
@@ -10822,7 +10822,7 @@
         <v>0.564522626913505</v>
       </c>
       <c r="G157">
-        <v>0.564907438115146</v>
+        <v>0.564907438115147</v>
       </c>
       <c r="H157">
         <v>0.0447438848532018</v>
@@ -10854,7 +10854,7 @@
         <v>0.551196836123454</v>
       </c>
       <c r="H158">
-        <v>0.0451243331937652</v>
+        <v>0.0451243331937651</v>
       </c>
       <c r="I158">
         <v>0.549346654405326</v>
@@ -10883,7 +10883,7 @@
         <v>0.53717121956325</v>
       </c>
       <c r="H159">
-        <v>0.045350412629864</v>
+        <v>0.0453504126298638</v>
       </c>
       <c r="I159">
         <v>0.535253453236287</v>
@@ -10912,7 +10912,7 @@
         <v>0.522929156544763</v>
       </c>
       <c r="H160">
-        <v>0.0454137099949097</v>
+        <v>0.0454137099949099</v>
       </c>
       <c r="I160">
         <v>0.520953450616382</v>
@@ -10967,7 +10967,7 @@
         <v>0.493928859393909</v>
       </c>
       <c r="G162">
-        <v>0.494141772865298</v>
+        <v>0.494141772865299</v>
       </c>
       <c r="H162">
         <v>0.0450624910012952</v>
@@ -10996,13 +10996,13 @@
         <v>0.479554117875718</v>
       </c>
       <c r="G163">
-        <v>0.479746059288915</v>
+        <v>0.479746059288916</v>
       </c>
       <c r="H163">
         <v>0.0446666291586624</v>
       </c>
       <c r="I163">
-        <v>0.477662196162566</v>
+        <v>0.477662196162567</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -11025,10 +11025,10 @@
         <v>0.465260114101247</v>
       </c>
       <c r="G164">
-        <v>0.465433901983909</v>
+        <v>0.46543390198391</v>
       </c>
       <c r="H164">
-        <v>0.0441412956905958</v>
+        <v>0.0441412956905959</v>
       </c>
       <c r="I164">
         <v>0.463336015361123</v>
@@ -11057,7 +11057,7 @@
         <v>0.451258618838997</v>
       </c>
       <c r="H165">
-        <v>0.0435011856651435</v>
+        <v>0.0435011856651436</v>
       </c>
       <c r="I165">
         <v>0.449156974700611</v>
@@ -11115,7 +11115,7 @@
         <v>0.423494599297263</v>
       </c>
       <c r="H167">
-        <v>0.0419362107965135</v>
+        <v>0.0419362107965134</v>
       </c>
       <c r="I167">
         <v>0.421413134415599</v>
@@ -11202,7 +11202,7 @@
         <v>0.383804394775668</v>
       </c>
       <c r="H170">
-        <v>0.0390856037078556</v>
+        <v>0.0390856037078555</v>
       </c>
       <c r="I170">
         <v>0.381809021674331</v>
@@ -11225,13 +11225,13 @@
         <v>3.87146201143722</v>
       </c>
       <c r="F171">
-        <v>0.371091798524593</v>
+        <v>0.371091798524594</v>
       </c>
       <c r="G171">
-        <v>0.371187749085514</v>
+        <v>0.371187749085515</v>
       </c>
       <c r="H171">
-        <v>0.0380503870355953</v>
+        <v>0.0380503870355954</v>
       </c>
       <c r="I171">
         <v>0.369232329458855</v>
@@ -11254,13 +11254,13 @@
         <v>3.87485203435344</v>
       </c>
       <c r="F172">
-        <v>0.358813445612131</v>
+        <v>0.358813445612132</v>
       </c>
       <c r="G172">
         <v>0.358902638754023</v>
       </c>
       <c r="H172">
-        <v>0.0369899917862132</v>
+        <v>0.0369899917862134</v>
       </c>
       <c r="I172">
         <v>0.356991378904668</v>
@@ -11289,7 +11289,7 @@
         <v>0.346958285815983</v>
       </c>
       <c r="H173">
-        <v>0.0359131678270091</v>
+        <v>0.0359131678270092</v>
       </c>
       <c r="I173">
         <v>0.345094619594386</v>
@@ -11315,10 +11315,10 @@
         <v>0.335283173317159</v>
       </c>
       <c r="G174">
-        <v>0.335360780473446</v>
+        <v>0.335360780473447</v>
       </c>
       <c r="H174">
-        <v>0.0348276212238815</v>
+        <v>0.0348276212238816</v>
       </c>
       <c r="I174">
         <v>0.333547432728308</v>
@@ -11376,7 +11376,7 @@
         <v>0.313217452360245</v>
       </c>
       <c r="H176">
-        <v>0.0326563486755639</v>
+        <v>0.032656348675564</v>
       </c>
       <c r="I176">
         <v>0.311510409704431</v>
@@ -11399,7 +11399,7 @@
         <v>3.86465424841304</v>
       </c>
       <c r="F177">
-        <v>0.302607743872683</v>
+        <v>0.302607743872684</v>
       </c>
       <c r="G177">
         <v>0.302671676348492</v>
@@ -11463,7 +11463,7 @@
         <v>0.282618755599263</v>
       </c>
       <c r="H179">
-        <v>0.0294741448891795</v>
+        <v>0.0294741448891796</v>
       </c>
       <c r="I179">
         <v>0.281077633047398</v>
@@ -11486,7 +11486,7 @@
         <v>3.8221565281873</v>
       </c>
       <c r="F180">
-        <v>0.273048744745199</v>
+        <v>0.273048744745198</v>
       </c>
       <c r="G180">
         <v>0.273102186808594</v>
@@ -11521,7 +11521,7 @@
         <v>0.263917487710365</v>
       </c>
       <c r="H181">
-        <v>0.027444256853757</v>
+        <v>0.0274442568537571</v>
       </c>
       <c r="I181">
         <v>0.262486672204696</v>
@@ -11608,7 +11608,7 @@
         <v>0.238280776658698</v>
       </c>
       <c r="H184">
-        <v>0.0245803769028561</v>
+        <v>0.024580376902856</v>
       </c>
       <c r="I184">
         <v>0.237009564356348</v>
@@ -11666,10 +11666,10 @@
         <v>0.222704957512063</v>
       </c>
       <c r="H186">
-        <v>0.0228050696537837</v>
+        <v>0.0228050696537836</v>
       </c>
       <c r="I186">
-        <v>0.221534256715605</v>
+        <v>0.221534256715606</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -11695,7 +11695,7 @@
         <v>0.21534528943922</v>
       </c>
       <c r="H187">
-        <v>0.0219591937723758</v>
+        <v>0.0219591937723757</v>
       </c>
       <c r="I187">
         <v>0.214222752042188</v>
@@ -11727,7 +11727,7 @@
         <v>0.0211413381055308</v>
       </c>
       <c r="I188">
-        <v>0.207183186257076</v>
+        <v>0.207183186257075</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -11750,7 +11750,7 @@
         <v>0.20140393001194</v>
       </c>
       <c r="G189">
-        <v>0.201437118778312</v>
+        <v>0.201437118778311</v>
       </c>
       <c r="H189">
         <v>0.0203514069897151</v>
@@ -11811,7 +11811,7 @@
         <v>0.188550065260964</v>
       </c>
       <c r="H191">
-        <v>0.0188542401025822</v>
+        <v>0.0188542401025823</v>
       </c>
       <c r="I191">
         <v>0.187605023227172</v>
@@ -11869,7 +11869,7 @@
         <v>0.17661281834301</v>
       </c>
       <c r="H193">
-        <v>0.0174644624783721</v>
+        <v>0.0174644624783722</v>
       </c>
       <c r="I193">
         <v>0.175747205250617</v>
@@ -12043,7 +12043,7 @@
         <v>0.145826768669743</v>
       </c>
       <c r="H199">
-        <v>0.0138904094922586</v>
+        <v>0.0138904094922585</v>
       </c>
       <c r="I199">
         <v>0.145163710977627</v>
@@ -12130,7 +12130,7 @@
         <v>0.132879224429744</v>
       </c>
       <c r="H202">
-        <v>0.0124026460040135</v>
+        <v>0.0124026460040136</v>
       </c>
       <c r="I202">
         <v>0.132299140802763</v>
@@ -12195,16 +12195,16 @@
         <v>-0.000259471419905122</v>
       </c>
       <c r="F2">
-        <v>-0.00056887225903951</v>
+        <v>-0.000568872259039552</v>
       </c>
       <c r="G2">
-        <v>-0.000498814395355748</v>
+        <v>-0.00049881439535579</v>
       </c>
       <c r="H2">
-        <v>2.0264734357938e-05</v>
+        <v>2.02647343578739e-05</v>
       </c>
       <c r="I2">
-        <v>3.75007683297152e-05</v>
+        <v>3.75007683296735e-05</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -12224,13 +12224,13 @@
         <v>0.000433578477642804</v>
       </c>
       <c r="F3">
-        <v>-0.000426706891296327</v>
+        <v>-0.000426706891296313</v>
       </c>
       <c r="G3">
         <v>-0.000351361889176768</v>
       </c>
       <c r="H3">
-        <v>0.000420875614917778</v>
+        <v>0.000420875614917859</v>
       </c>
       <c r="I3">
         <v>0.000161251087867756</v>
@@ -12253,13 +12253,13 @@
         <v>0.000398909772944211</v>
       </c>
       <c r="F4">
-        <v>-0.000164858918341906</v>
+        <v>-0.00016485891834192</v>
       </c>
       <c r="G4">
         <v>-8.37619951794266e-05</v>
       </c>
       <c r="H4">
-        <v>-0.000157869706462423</v>
+        <v>-0.000157869706462421</v>
       </c>
       <c r="I4">
         <v>-0.000596372575523099</v>
@@ -12282,16 +12282,16 @@
         <v>-0.000260673531779165</v>
       </c>
       <c r="F5">
-        <v>0.000222447707975096</v>
+        <v>0.000222447707975068</v>
       </c>
       <c r="G5">
-        <v>0.000309805774777044</v>
+        <v>0.000309805774777017</v>
       </c>
       <c r="H5">
-        <v>0.000285370486501697</v>
+        <v>0.000285370486501664</v>
       </c>
       <c r="I5">
-        <v>-0.000229670309335281</v>
+        <v>-0.000229670309335309</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -12311,16 +12311,16 @@
         <v>-0.000437622917981884</v>
       </c>
       <c r="F6">
-        <v>-0.000258653968609343</v>
+        <v>-0.000258653968609288</v>
       </c>
       <c r="G6">
-        <v>-0.000164476812608824</v>
+        <v>-0.000164476812608769</v>
       </c>
       <c r="H6">
-        <v>-0.000247958188493646</v>
+        <v>-0.000247958188493705</v>
       </c>
       <c r="I6">
-        <v>0.00026740791987738</v>
+        <v>0.000267407919877449</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -12346,10 +12346,10 @@
         <v>-0.000500038216991072</v>
       </c>
       <c r="H7">
-        <v>0.000243702209954915</v>
+        <v>0.000243702209954767</v>
       </c>
       <c r="I7">
-        <v>-9.87103199864836e-05</v>
+        <v>-9.87103199864697e-05</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -12372,13 +12372,13 @@
         <v>0.000200406312749507</v>
       </c>
       <c r="G8">
-        <v>0.000310113975094978</v>
+        <v>0.00031011397509495</v>
       </c>
       <c r="H8">
-        <v>-0.0002379691103315</v>
+        <v>-0.000237969110331443</v>
       </c>
       <c r="I8">
-        <v>-0.000321189996863896</v>
+        <v>-0.000321189996863924</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -12398,16 +12398,16 @@
         <v>7.49453366415409e-05</v>
       </c>
       <c r="F9">
-        <v>0.000154885717611769</v>
+        <v>0.000154885717611714</v>
       </c>
       <c r="G9">
-        <v>0.000273426977646207</v>
+        <v>0.000273426977646152</v>
       </c>
       <c r="H9">
-        <v>0.000308837764368396</v>
+        <v>0.000308837764368413</v>
       </c>
       <c r="I9">
-        <v>-0.000392755945507556</v>
+        <v>-0.000392755945507611</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -12433,7 +12433,7 @@
         <v>-0.000602160208706737</v>
       </c>
       <c r="H10">
-        <v>-0.000113926652717597</v>
+        <v>-0.000113926652717587</v>
       </c>
       <c r="I10">
         <v>-0.000305657226395112</v>
@@ -12456,16 +12456,16 @@
         <v>1.71916100097924e-05</v>
       </c>
       <c r="F11">
-        <v>-0.000446869963799862</v>
+        <v>-0.000446869963800028</v>
       </c>
       <c r="G11">
-        <v>-0.000308176518097253</v>
+        <v>-0.000308176518097419</v>
       </c>
       <c r="H11">
-        <v>-0.000504160967777258</v>
+        <v>-0.000504160967777346</v>
       </c>
       <c r="I11">
-        <v>-5.16282734044082e-05</v>
+        <v>-5.1628273404547e-05</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -12485,16 +12485,16 @@
         <v>0.000261758606314277</v>
       </c>
       <c r="F12">
-        <v>1.42548999797487e-05</v>
+        <v>1.42548999798875e-05</v>
       </c>
       <c r="G12">
-        <v>0.000164424982785571</v>
+        <v>0.00016442498278571</v>
       </c>
       <c r="H12">
-        <v>0.000140397665492689</v>
+        <v>0.000140397665492765</v>
       </c>
       <c r="I12">
-        <v>-0.000621846589389186</v>
+        <v>-0.000621846589389047</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -12514,16 +12514,16 @@
         <v>-0.000126877814836668</v>
       </c>
       <c r="F13">
-        <v>-0.000337382367005368</v>
+        <v>-0.000337382367005562</v>
       </c>
       <c r="G13">
-        <v>-0.000174685358975718</v>
+        <v>-0.000174685358975912</v>
       </c>
       <c r="H13">
-        <v>-0.000177815725054917</v>
+        <v>-0.000177815725054896</v>
       </c>
       <c r="I13">
-        <v>-6.88675364574065e-06</v>
+        <v>-6.88675364593494e-06</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -12543,16 +12543,16 @@
         <v>-5.98737958945605e-06</v>
       </c>
       <c r="F14">
-        <v>-0.000491532826400853</v>
+        <v>-0.000491532826400909</v>
       </c>
       <c r="G14">
-        <v>-0.000315162292645277</v>
+        <v>-0.000315162292645332</v>
       </c>
       <c r="H14">
-        <v>-0.000456183222817114</v>
+        <v>-0.000456183222817198</v>
       </c>
       <c r="I14">
-        <v>-0.000196670518982756</v>
+        <v>-0.000196670518982811</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -12572,16 +12572,16 @@
         <v>-0.000230123215698264</v>
       </c>
       <c r="F15">
-        <v>-0.000437224400814062</v>
+        <v>-0.000437224400814146</v>
       </c>
       <c r="G15">
-        <v>-0.000245930065750966</v>
+        <v>-0.000245930065751021</v>
       </c>
       <c r="H15">
-        <v>0.00030810642890804</v>
+        <v>0.00030810642890796</v>
       </c>
       <c r="I15">
-        <v>-0.000180412801587343</v>
+        <v>-0.000180412801587426</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -12604,13 +12604,13 @@
         <v>-0.000162702168312823</v>
       </c>
       <c r="G16">
-        <v>4.48773943671488e-05</v>
+        <v>4.48773943671765e-05</v>
       </c>
       <c r="H16">
-        <v>0.000118067722264026</v>
+        <v>0.000118067722264005</v>
       </c>
       <c r="I16">
-        <v>5.34365922802427e-05</v>
+        <v>5.34365922802704e-05</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -12630,16 +12630,16 @@
         <v>-0.000123435207334488</v>
       </c>
       <c r="F17">
-        <v>-0.000655364268656256</v>
+        <v>-0.000655364268656228</v>
       </c>
       <c r="G17">
-        <v>-0.000430019443373564</v>
+        <v>-0.000430019443373508</v>
       </c>
       <c r="H17">
-        <v>-2.30726549980478e-05</v>
+        <v>-2.30726549979091e-05</v>
       </c>
       <c r="I17">
-        <v>-0.000482744401794688</v>
+        <v>-0.00048274440179466</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -12659,16 +12659,16 @@
         <v>-0.000496935192932035</v>
       </c>
       <c r="F18">
-        <v>9.83065508083081e-05</v>
+        <v>9.83065508081693e-05</v>
       </c>
       <c r="G18">
-        <v>-0.000656977446008428</v>
+        <v>-0.000656977446008566</v>
       </c>
       <c r="H18">
-        <v>-0.00011186826733129</v>
+        <v>-0.000111868267331314</v>
       </c>
       <c r="I18">
-        <v>-0.000775683105964126</v>
+        <v>-0.000775683105964264</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -12688,16 +12688,16 @@
         <v>0.000372941448364195</v>
       </c>
       <c r="F19">
-        <v>0.000112815589522086</v>
+        <v>0.000112815589521975</v>
       </c>
       <c r="G19">
-        <v>-0.000621358561055246</v>
+        <v>-0.000621358561055357</v>
       </c>
       <c r="H19">
-        <v>-0.000144647370185502</v>
+        <v>-0.000144647370185512</v>
       </c>
       <c r="I19">
-        <v>-0.000811140838197361</v>
+        <v>-0.000811140838197472</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -12717,13 +12717,13 @@
         <v>-0.000372511098686523</v>
       </c>
       <c r="F20">
-        <v>-0.000596267286843172</v>
+        <v>-0.000596267286843144</v>
       </c>
       <c r="G20">
         <v>-0.000307453958571624</v>
       </c>
       <c r="H20">
-        <v>-0.000117510051504132</v>
+        <v>-0.000117510051504104</v>
       </c>
       <c r="I20">
         <v>-0.000573837651632353</v>
@@ -12746,16 +12746,16 @@
         <v>0.000401522172645663</v>
       </c>
       <c r="F21">
-        <v>-1.22278248493868e-05</v>
+        <v>-1.22278248494423e-05</v>
       </c>
       <c r="G21">
-        <v>-0.000698405189355072</v>
+        <v>-0.000698405189355156</v>
       </c>
       <c r="H21">
-        <v>-2.63289369358231e-05</v>
+        <v>-2.6328936935844e-05</v>
       </c>
       <c r="I21">
-        <v>-4.73735414453502e-05</v>
+        <v>-4.73735414454057e-05</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -12775,16 +12775,16 @@
         <v>-0.000179428792534075</v>
       </c>
       <c r="F22">
-        <v>-0.000117125114098116</v>
+        <v>-0.000117125114098171</v>
       </c>
       <c r="G22">
-        <v>-0.000776123274095347</v>
+        <v>-0.000776123274095403</v>
       </c>
       <c r="H22">
-        <v>0.000133245508441675</v>
+        <v>0.000133245508441626</v>
       </c>
       <c r="I22">
-        <v>-0.00021414684687393</v>
+        <v>-0.000214146846873986</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -12804,16 +12804,16 @@
         <v>-2.43258535181923e-06</v>
       </c>
       <c r="F23">
-        <v>-0.000891708092516097</v>
+        <v>-0.00089170809251618</v>
       </c>
       <c r="G23">
-        <v>-0.000521207009110652</v>
+        <v>-0.000521207009110736</v>
       </c>
       <c r="H23">
-        <v>0.000365773852992114</v>
+        <v>0.000365773852992003</v>
       </c>
       <c r="I23">
-        <v>-5.5270907015903e-05</v>
+        <v>-5.52709070159862e-05</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -12833,16 +12833,16 @@
         <v>2.89592300433128e-05</v>
       </c>
       <c r="F24">
-        <v>-0.000315332506067217</v>
+        <v>-0.000315332506067356</v>
       </c>
       <c r="G24">
-        <v>-0.000912862232716805</v>
+        <v>-0.000912862232716971</v>
       </c>
       <c r="H24">
-        <v>-0.000323990704741674</v>
+        <v>-0.000323990704741598</v>
       </c>
       <c r="I24">
-        <v>-0.000550490442677937</v>
+        <v>-0.000550490442678103</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -12862,16 +12862,16 @@
         <v>-9.80928604210618e-06</v>
       </c>
       <c r="F25">
-        <v>-0.000365880565824095</v>
+        <v>-0.000365880565824289</v>
       </c>
       <c r="G25">
-        <v>-0.000928824356292213</v>
+        <v>-0.000928824356292379</v>
       </c>
       <c r="H25">
-        <v>6.88702853908971e-05</v>
+        <v>6.88702853907895e-05</v>
       </c>
       <c r="I25">
-        <v>-0.000678099647336977</v>
+        <v>-0.000678099647337144</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -12891,16 +12891,16 @@
         <v>-6.95237032610763e-05</v>
       </c>
       <c r="F26">
-        <v>-0.00101968622925078</v>
+        <v>-0.00101968622925069</v>
       </c>
       <c r="G26">
-        <v>-0.000545287140192058</v>
+        <v>-0.000545287140191975</v>
       </c>
       <c r="H26">
-        <v>-0.000450597802912896</v>
+        <v>-0.000450597802912883</v>
       </c>
       <c r="I26">
-        <v>-0.000414864593693859</v>
+        <v>-0.000414864593693776</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -12920,16 +12920,16 @@
         <v>-0.000133193498736972</v>
       </c>
       <c r="F27">
-        <v>-0.000251469853361636</v>
+        <v>-0.000251469853361608</v>
       </c>
       <c r="G27">
         <v>-0.000736841501423058</v>
       </c>
       <c r="H27">
-        <v>0.000122725775686956</v>
+        <v>0.000122725775686852</v>
       </c>
       <c r="I27">
-        <v>-0.000735953314640853</v>
+        <v>-0.000735953314640825</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -12949,16 +12949,16 @@
         <v>-0.000222875081999696</v>
       </c>
       <c r="F28">
-        <v>-0.00103428694022945</v>
+        <v>-0.00103428694022961</v>
       </c>
       <c r="G28">
-        <v>-0.000476429091067043</v>
+        <v>-0.00047642909106721</v>
       </c>
       <c r="H28">
-        <v>-0.000206030233885324</v>
+        <v>-0.000206030233885234</v>
       </c>
       <c r="I28">
-        <v>-0.000614877815038606</v>
+        <v>-0.000614877815038772</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -12978,16 +12978,16 @@
         <v>-0.000407372619892321</v>
       </c>
       <c r="F29">
-        <v>-0.000339496833222375</v>
+        <v>-0.000339496833222541</v>
       </c>
       <c r="G29">
-        <v>-0.000735316486604243</v>
+        <v>-0.000735316486604409</v>
       </c>
       <c r="H29">
-        <v>-0.000431815213250385</v>
+        <v>-0.000431815213250357</v>
       </c>
       <c r="I29">
-        <v>-0.00102345332909204</v>
+        <v>-0.00102345332909221</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -13007,16 +13007,16 @@
         <v>0.000189152143089899</v>
       </c>
       <c r="F30">
-        <v>-0.000136758534718839</v>
+        <v>-0.000136758534719117</v>
       </c>
       <c r="G30">
-        <v>-0.000483097115823783</v>
+        <v>-0.000483097115823949</v>
       </c>
       <c r="H30">
-        <v>0.00045023517197311</v>
+        <v>0.000450235171973047</v>
       </c>
       <c r="I30">
-        <v>-0.000931781370907325</v>
+        <v>-0.000931781370907547</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -13036,16 +13036,16 @@
         <v>0.000377657465010728</v>
       </c>
       <c r="F31">
-        <v>-0.000394062306360243</v>
+        <v>-0.000394062306360632</v>
       </c>
       <c r="G31">
-        <v>-0.000687729467839404</v>
+        <v>-0.000687729467839793</v>
       </c>
       <c r="H31">
-        <v>0.000444665172209868</v>
+        <v>0.000444665172209799</v>
       </c>
       <c r="I31">
-        <v>-0.000308264542960235</v>
+        <v>-0.000308264542960623</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -13065,16 +13065,16 @@
         <v>-0.000106176385365586</v>
       </c>
       <c r="F32">
-        <v>-0.00107780737613855</v>
+        <v>-0.00107780737613877</v>
       </c>
       <c r="G32">
-        <v>-0.000315621748093076</v>
+        <v>-0.000315621748093298</v>
       </c>
       <c r="H32">
-        <v>-0.000444464402390751</v>
+        <v>-0.000444464402390876</v>
       </c>
       <c r="I32">
-        <v>-0.00111966267303304</v>
+        <v>-0.00111966267303326</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -13094,16 +13094,16 @@
         <v>0.00038687425279349</v>
       </c>
       <c r="F33">
-        <v>-0.00115293789606319</v>
+        <v>-0.00115293789606341</v>
       </c>
       <c r="G33">
-        <v>-0.000331774882751823</v>
+        <v>-0.000331774882752045</v>
       </c>
       <c r="H33">
-        <v>-0.000213773249035328</v>
+        <v>-0.000213773249035425</v>
       </c>
       <c r="I33">
-        <v>-0.000331201640704881</v>
+        <v>-0.000331201640705103</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -13123,16 +13123,16 @@
         <v>0.000407792780039884</v>
       </c>
       <c r="F34">
-        <v>-0.000583151237633528</v>
+        <v>-0.000583151237633694</v>
       </c>
       <c r="G34">
-        <v>-0.00069999764417944</v>
+        <v>-0.000699997644179662</v>
       </c>
       <c r="H34">
-        <v>0.000139203359244285</v>
+        <v>0.000139203359244354</v>
       </c>
       <c r="I34">
-        <v>-0.000906748214202169</v>
+        <v>-0.000906748214202335</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -13158,7 +13158,7 @@
         <v>-0.000383209605766321</v>
       </c>
       <c r="H35">
-        <v>-0.000384262762183715</v>
+        <v>-0.000384262762183681</v>
       </c>
       <c r="I35">
         <v>-0.00080906631642963</v>
@@ -13181,16 +13181,16 @@
         <v>-0.000326535588617283</v>
       </c>
       <c r="F36">
-        <v>-0.000359268942271562</v>
+        <v>-0.000359268942271507</v>
       </c>
       <c r="G36">
-        <v>-0.000343849571266208</v>
+        <v>-0.000343849571266153</v>
       </c>
       <c r="H36">
-        <v>0.000215583681467076</v>
+        <v>0.000215583681466971</v>
       </c>
       <c r="I36">
-        <v>-0.00100017232424376</v>
+        <v>-0.00100017232424365</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -13210,16 +13210,16 @@
         <v>0.000421267478191822</v>
       </c>
       <c r="F37">
-        <v>-0.000629557567466632</v>
+        <v>-0.000629557567466688</v>
       </c>
       <c r="G37">
-        <v>-0.000544408962961096</v>
+        <v>-0.000544408962961151</v>
       </c>
       <c r="H37">
-        <v>-6.33918323943647e-05</v>
+        <v>-6.33918323943439e-05</v>
       </c>
       <c r="I37">
-        <v>-0.000441809200733723</v>
+        <v>-0.000441809200733778</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -13245,10 +13245,10 @@
         <v>-0.000948111262946083</v>
       </c>
       <c r="H38">
-        <v>-0.000225638998905625</v>
+        <v>-0.00022563899890557</v>
       </c>
       <c r="I38">
-        <v>-0.00109606135748674</v>
+        <v>-0.0010960613574868</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -13268,16 +13268,16 @@
         <v>0.000347948316777646</v>
       </c>
       <c r="F39">
-        <v>-0.000749668146539761</v>
+        <v>-0.000749668146540039</v>
       </c>
       <c r="G39">
-        <v>-0.000519759811297704</v>
+        <v>-0.000519759811297982</v>
       </c>
       <c r="H39">
-        <v>-0.000278400821900338</v>
+        <v>-0.000278400821900469</v>
       </c>
       <c r="I39">
-        <v>-0.000926133993909228</v>
+        <v>-0.000926133993909506</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -13297,16 +13297,16 @@
         <v>0.000158130210463625</v>
       </c>
       <c r="F40">
-        <v>-0.000530755151332163</v>
+        <v>-0.000530755151332496</v>
       </c>
       <c r="G40">
-        <v>-0.00122677685639128</v>
+        <v>-0.00122677685639161</v>
       </c>
       <c r="H40">
-        <v>-0.000232242817436695</v>
+        <v>-0.000232242817436598</v>
       </c>
       <c r="I40">
-        <v>-0.000897322066912676</v>
+        <v>-0.000897322066913009</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -13332,7 +13332,7 @@
         <v>-0.00104045645642847</v>
       </c>
       <c r="H41">
-        <v>-0.000101628126064235</v>
+        <v>-0.000101628126064221</v>
       </c>
       <c r="I41">
         <v>-0.000978194752650041</v>
@@ -13355,16 +13355,16 @@
         <v>0.000447414322627182</v>
       </c>
       <c r="F42">
-        <v>-0.00139012087653839</v>
+        <v>-0.00139012087653873</v>
       </c>
       <c r="G42">
-        <v>-0.000937452320084131</v>
+        <v>-0.00093745232008452</v>
       </c>
       <c r="H42">
-        <v>9.44713368563749e-05</v>
+        <v>9.44713368564026e-05</v>
       </c>
       <c r="I42">
-        <v>-0.00114202095167021</v>
+        <v>-0.00114202095167054</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -13384,16 +13384,16 @@
         <v>-0.000260463620904261</v>
       </c>
       <c r="F43">
-        <v>-0.00142755828848451</v>
+        <v>-0.00142755828848434</v>
       </c>
       <c r="G43">
-        <v>-0.000901518560324333</v>
+        <v>-0.00090151856032411</v>
       </c>
       <c r="H43">
-        <v>0.000331943838271842</v>
+        <v>0.000331943838271828</v>
       </c>
       <c r="I43">
-        <v>-0.00136845966321752</v>
+        <v>-0.0013684596632173</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -13413,16 +13413,16 @@
         <v>-0.000123488794386617</v>
       </c>
       <c r="F44">
-        <v>-0.00152342374173542</v>
+        <v>-0.0015234237417357</v>
       </c>
       <c r="G44">
-        <v>-0.000925516171503327</v>
+        <v>-0.000925516171503549</v>
       </c>
       <c r="H44">
-        <v>-0.000419088794260405</v>
+        <v>-0.000419088794260419</v>
       </c>
       <c r="I44">
-        <v>-0.000645535434054267</v>
+        <v>-0.000645535434054545</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -13442,16 +13442,16 @@
         <v>0.000166024625858796</v>
       </c>
       <c r="F45">
-        <v>-0.000681342837885457</v>
+        <v>-0.000681342837885346</v>
       </c>
       <c r="G45">
-        <v>-0.00101369032632426</v>
+        <v>-0.00101369032632415</v>
       </c>
       <c r="H45">
-        <v>-0.000194858635270675</v>
+        <v>-0.000194858635270453</v>
       </c>
       <c r="I45">
-        <v>-0.000971913007666414</v>
+        <v>-0.000971913007666303</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -13471,16 +13471,16 @@
         <v>3.18314776972528e-05</v>
       </c>
       <c r="F46">
-        <v>-0.000918919574704247</v>
+        <v>-0.000918919574704358</v>
       </c>
       <c r="G46">
-        <v>-0.00118421279186121</v>
+        <v>-0.00118421279186132</v>
       </c>
       <c r="H46">
-        <v>-3.84521564687074e-05</v>
+        <v>-3.8452156468638e-05</v>
       </c>
       <c r="I46">
-        <v>-0.00135947611709686</v>
+        <v>-0.00135947611709697</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -13500,16 +13500,16 @@
         <v>0.000159040497960561</v>
       </c>
       <c r="F47">
-        <v>-0.00127055677139021</v>
+        <v>-0.00127055677139065</v>
       </c>
       <c r="G47">
-        <v>-0.00147196934588545</v>
+        <v>-0.00147196934588589</v>
       </c>
       <c r="H47">
-        <v>-1.59804472016356e-07</v>
+        <v>-1.59804471849823e-07</v>
       </c>
       <c r="I47">
-        <v>-0.000836202375209427</v>
+        <v>-0.000836202375209982</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -13558,16 +13558,16 @@
         <v>0.000494073790216376</v>
       </c>
       <c r="F49">
-        <v>-0.00155593876783489</v>
+        <v>-0.00155593876783522</v>
       </c>
       <c r="G49">
-        <v>-0.00164040522698172</v>
+        <v>-0.00164040522698206</v>
       </c>
       <c r="H49">
-        <v>0.000484552759697485</v>
+        <v>0.000484552759697623</v>
       </c>
       <c r="I49">
-        <v>-0.00126861894833408</v>
+        <v>-0.00126861894833441</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -13587,16 +13587,16 @@
         <v>0.000485746248250152</v>
       </c>
       <c r="F50">
-        <v>-0.00167038580595535</v>
+        <v>-0.00167038580595547</v>
       </c>
       <c r="G50">
         <v>-0.000702004439278148</v>
       </c>
       <c r="H50">
-        <v>-0.000204816557525828</v>
+        <v>-0.000204816557526008</v>
       </c>
       <c r="I50">
-        <v>-0.00139007709900518</v>
+        <v>-0.00139007709900529</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -13616,16 +13616,16 @@
         <v>5.68280105230912e-05</v>
       </c>
       <c r="F51">
-        <v>-0.00126669404517221</v>
+        <v>-0.00126669404517243</v>
       </c>
       <c r="G51">
-        <v>-0.00124899972450698</v>
+        <v>-0.00124899972450732</v>
       </c>
       <c r="H51">
-        <v>-0.000281818639215489</v>
+        <v>-0.000281818639215739</v>
       </c>
       <c r="I51">
-        <v>-0.000939294669369484</v>
+        <v>-0.000939294669369706</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -13645,16 +13645,16 @@
         <v>-0.00044178026677244</v>
       </c>
       <c r="F52">
-        <v>-0.00151007237920098</v>
+        <v>-0.00151007237920109</v>
       </c>
       <c r="G52">
-        <v>-0.00144611392971572</v>
+        <v>-0.00144611392971583</v>
       </c>
       <c r="H52">
-        <v>0.000174615483479496</v>
+        <v>0.000174615483479454</v>
       </c>
       <c r="I52">
-        <v>-0.00107498130618799</v>
+        <v>-0.00107498130618811</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -13674,16 +13674,16 @@
         <v>-0.000158486058634111</v>
       </c>
       <c r="F53">
-        <v>-0.00160059470701912</v>
+        <v>-0.00160059470701956</v>
       </c>
       <c r="G53">
-        <v>-0.00149263330420613</v>
+        <v>-0.00149263330420657</v>
       </c>
       <c r="H53">
-        <v>8.61007447201245e-05</v>
+        <v>8.61007447202355e-05</v>
       </c>
       <c r="I53">
-        <v>-0.000992062581443465</v>
+        <v>-0.000992062581443909</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -13703,16 +13703,16 @@
         <v>-0.000212812315030675</v>
       </c>
       <c r="F54">
-        <v>-0.000775074818147869</v>
+        <v>-0.000775074818147536</v>
       </c>
       <c r="G54">
-        <v>-0.00162424831360175</v>
+        <v>-0.00162424831360153</v>
       </c>
       <c r="H54">
-        <v>0.000379640938220904</v>
+        <v>0.000379640938220877</v>
       </c>
       <c r="I54">
-        <v>-0.000924241990093444</v>
+        <v>-0.000924241990093222</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -13732,16 +13732,16 @@
         <v>-0.000292640045921999</v>
       </c>
       <c r="F55">
-        <v>-0.001308028561673</v>
+        <v>-0.00130802856167345</v>
       </c>
       <c r="G55">
-        <v>-0.00111398120229012</v>
+        <v>-0.00111398120229056</v>
       </c>
       <c r="H55">
-        <v>-5.58769115724389e-06</v>
+        <v>-5.58769115721613e-06</v>
       </c>
       <c r="I55">
-        <v>-0.00114571787175877</v>
+        <v>-0.00114571787175921</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -13761,16 +13761,16 @@
         <v>0.000447123414909711</v>
       </c>
       <c r="F56">
-        <v>-0.00151143550731825</v>
+        <v>-0.00151143550731858</v>
       </c>
       <c r="G56">
-        <v>-0.0012719102987917</v>
+        <v>-0.00127191029879214</v>
       </c>
       <c r="H56">
         <v>-0.000108906971176423</v>
       </c>
       <c r="I56">
-        <v>-0.000971725625360964</v>
+        <v>-0.000971725625361408</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -13790,16 +13790,16 @@
         <v>-3.76948801470434e-05</v>
       </c>
       <c r="F57">
-        <v>-0.00173300240915497</v>
+        <v>-0.00173300240915508</v>
       </c>
       <c r="G57">
-        <v>-0.00144338997076288</v>
+        <v>-0.00144338997076299</v>
       </c>
       <c r="H57">
-        <v>6.4543347643331e-05</v>
+        <v>6.45433476434837e-05</v>
       </c>
       <c r="I57">
-        <v>-0.00175754766572767</v>
+        <v>-0.00175754766572778</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -13819,16 +13819,16 @@
         <v>0.000171546482164331</v>
       </c>
       <c r="F58">
-        <v>-0.00135264121885181</v>
+        <v>-0.00135264121885237</v>
       </c>
       <c r="G58">
-        <v>-0.00100547419425401</v>
+        <v>-0.00100547419425445</v>
       </c>
       <c r="H58">
-        <v>-0.000439146130024812</v>
+        <v>-0.000439146130024923</v>
       </c>
       <c r="I58">
-        <v>-0.000895626024135288</v>
+        <v>-0.000895626024135732</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -13848,16 +13848,16 @@
         <v>2.30449493585638e-05</v>
       </c>
       <c r="F59">
-        <v>-0.00177691133380331</v>
+        <v>-0.00177691133380364</v>
       </c>
       <c r="G59">
-        <v>-0.00136128709939176</v>
+        <v>-0.00136128709939198</v>
       </c>
       <c r="H59">
-        <v>0.000499816217935392</v>
+        <v>0.000499816217935281</v>
       </c>
       <c r="I59">
-        <v>-0.001810434020172</v>
+        <v>-0.00181043402017222</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -13877,16 +13877,16 @@
         <v>-1.27073844407022e-05</v>
       </c>
       <c r="F60">
-        <v>-0.00143124437679809</v>
+        <v>-0.00143124437679876</v>
       </c>
       <c r="G60">
-        <v>-0.000932150805659782</v>
+        <v>-0.000932150805660559</v>
       </c>
       <c r="H60">
-        <v>0.000103104956005753</v>
+        <v>0.000103104956005712</v>
       </c>
       <c r="I60">
-        <v>-0.000950822380039851</v>
+        <v>-0.000950822380040517</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -13906,16 +13906,16 @@
         <v>0.000480264057390656</v>
       </c>
       <c r="F61">
-        <v>-0.00174987299431084</v>
+        <v>-0.0017498729943114</v>
       </c>
       <c r="G61">
-        <v>-0.00114738233291145</v>
+        <v>-0.00114738233291189</v>
       </c>
       <c r="H61">
-        <v>-0.000274741318881985</v>
+        <v>-0.000274741318881846</v>
       </c>
       <c r="I61">
-        <v>-0.00177965790658896</v>
+        <v>-0.0017796579065894</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -13935,16 +13935,16 @@
         <v>-0.000157151423136881</v>
       </c>
       <c r="F62">
-        <v>-0.00116352215305349</v>
+        <v>-0.00116352215305404</v>
       </c>
       <c r="G62">
-        <v>-0.00143180667640197</v>
+        <v>-0.00143180667640253</v>
       </c>
       <c r="H62">
-        <v>-0.00012418769202964</v>
+        <v>-0.000124187692029709</v>
       </c>
       <c r="I62">
-        <v>-0.00176072163414021</v>
+        <v>-0.00176072163414076</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -13964,16 +13964,16 @@
         <v>0.000328086526259597</v>
       </c>
       <c r="F63">
-        <v>-0.00108508643318528</v>
+        <v>-0.00108508643318594</v>
       </c>
       <c r="G63">
-        <v>-0.00119119660378031</v>
+        <v>-0.00119119660378086</v>
       </c>
       <c r="H63">
-        <v>0.000204559612232313</v>
+        <v>0.000204559612232189</v>
       </c>
       <c r="I63">
-        <v>-0.00134302442711354</v>
+        <v>-0.0013430244271142</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -13993,16 +13993,16 @@
         <v>0.000170320074214914</v>
       </c>
       <c r="F64">
-        <v>-0.000893698230881701</v>
+        <v>-0.000893698230881923</v>
       </c>
       <c r="G64">
-        <v>-0.00179602990883843</v>
+        <v>-0.00179602990883865</v>
       </c>
       <c r="H64">
-        <v>0.00040877796425523</v>
+        <v>0.0004087779642553</v>
       </c>
       <c r="I64">
-        <v>-0.000942919316964885</v>
+        <v>-0.000942919316965107</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -14028,7 +14028,7 @@
         <v>-0.00156413455970628</v>
       </c>
       <c r="H65">
-        <v>4.97450421351742e-05</v>
+        <v>4.97450421351048e-05</v>
       </c>
       <c r="I65">
         <v>-0.000924620929268261</v>
@@ -14051,16 +14051,16 @@
         <v>-0.000477838501534933</v>
       </c>
       <c r="F66">
-        <v>-0.00141776775158597</v>
+        <v>-0.00141776775158653</v>
       </c>
       <c r="G66">
-        <v>-0.00174294987247026</v>
+        <v>-0.00174294987247092</v>
       </c>
       <c r="H66">
-        <v>0.000358789166356691</v>
+        <v>0.00035878916635658</v>
       </c>
       <c r="I66">
-        <v>-0.00157995488421336</v>
+        <v>-0.00157995488421403</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -14080,16 +14080,16 @@
         <v>0.000217651720834766</v>
       </c>
       <c r="F67">
-        <v>-0.00156952351436968</v>
+        <v>-0.00156952351437001</v>
       </c>
       <c r="G67">
-        <v>-0.00149224449622665</v>
+        <v>-0.00149224449622687</v>
       </c>
       <c r="H67">
-        <v>0.000170631782315564</v>
+        <v>0.000170631782315481</v>
       </c>
       <c r="I67">
-        <v>-0.00110832142269723</v>
+        <v>-0.00110832142269746</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -14109,16 +14109,16 @@
         <v>0.000434682642556083</v>
       </c>
       <c r="F68">
-        <v>-0.00144905284056907</v>
+        <v>-0.00144905284057018</v>
       </c>
       <c r="G68">
-        <v>-0.000868179349551079</v>
+        <v>-0.0008681793495523</v>
       </c>
       <c r="H68">
-        <v>2.10641716126003e-05</v>
+        <v>2.10641716125171e-05</v>
       </c>
       <c r="I68">
-        <v>-0.00159793623656157</v>
+        <v>-0.00159793623656268</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -14138,16 +14138,16 @@
         <v>0.000282030468351735</v>
       </c>
       <c r="F69">
-        <v>-0.0010196481674255</v>
+        <v>-0.00101964816742639</v>
       </c>
       <c r="G69">
-        <v>-0.00180957342033039</v>
+        <v>-0.00180957342033128</v>
       </c>
       <c r="H69">
-        <v>0.00030739906520863</v>
+        <v>0.000307399065208561</v>
       </c>
       <c r="I69">
-        <v>-0.00100938453327759</v>
+        <v>-0.00100938453327848</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -14167,16 +14167,16 @@
         <v>0.00025576913024139</v>
       </c>
       <c r="F70">
-        <v>-0.00112199604023255</v>
+        <v>-0.001121996040233</v>
       </c>
       <c r="G70">
-        <v>-0.00112712369710932</v>
+        <v>-0.00112712369710977</v>
       </c>
       <c r="H70">
-        <v>0.000410424041759699</v>
+        <v>0.000410424041759644</v>
       </c>
       <c r="I70">
-        <v>-0.00116238518290324</v>
+        <v>-0.00116238518290368</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -14196,16 +14196,16 @@
         <v>0.000311470261216584</v>
       </c>
       <c r="F71">
-        <v>-0.00146777509342189</v>
+        <v>-0.00146777509342255</v>
       </c>
       <c r="G71">
-        <v>-0.00149616701376065</v>
+        <v>-0.00149616701376132</v>
       </c>
       <c r="H71">
-        <v>-0.000244269885628312</v>
+        <v>-0.000244269885628284</v>
       </c>
       <c r="I71">
-        <v>-0.0017264279479895</v>
+        <v>-0.00172642794799016</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -14225,16 +14225,16 @@
         <v>-0.000139071605211427</v>
       </c>
       <c r="F72">
-        <v>-0.00163690130110261</v>
+        <v>-0.00163690130110206</v>
       </c>
       <c r="G72">
-        <v>-0.00145339311294335</v>
+        <v>-0.00145339311294279</v>
       </c>
       <c r="H72">
-        <v>-0.00016401411691977</v>
+        <v>-0.000164014116919742</v>
       </c>
       <c r="I72">
-        <v>-0.00121566667259476</v>
+        <v>-0.00121566667259421</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -14254,16 +14254,16 @@
         <v>-0.000317677906441105</v>
       </c>
       <c r="F73">
-        <v>-0.00107822538908664</v>
+        <v>-0.00107822538908764</v>
       </c>
       <c r="G73">
-        <v>-0.00139779124438366</v>
+        <v>-0.00139779124438455</v>
       </c>
       <c r="H73">
-        <v>0.000216570355406454</v>
+        <v>0.000216570355406481</v>
       </c>
       <c r="I73">
-        <v>-0.000988210186702587</v>
+        <v>-0.000988210186703475</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -14283,16 +14283,16 @@
         <v>-0.000279584319702764</v>
       </c>
       <c r="F74">
-        <v>-0.00111310503518192</v>
+        <v>-0.00111310503518258</v>
       </c>
       <c r="G74">
-        <v>-0.00159612788290264</v>
+        <v>-0.0015961278829032</v>
       </c>
       <c r="H74">
-        <v>-0.000463729898542486</v>
+        <v>-0.000463729898542514</v>
       </c>
       <c r="I74">
-        <v>-0.0012498789970411</v>
+        <v>-0.00124987899704165</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -14312,16 +14312,16 @@
         <v>-0.000250570322702259</v>
       </c>
       <c r="F75">
-        <v>-0.000940910875517842</v>
+        <v>-0.000940910875518619</v>
       </c>
       <c r="G75">
-        <v>-0.00119351845573823</v>
+        <v>-0.0011935184557389</v>
       </c>
       <c r="H75">
-        <v>0.000507108725010724</v>
+        <v>0.000507108725010641</v>
       </c>
       <c r="I75">
-        <v>-0.00106276570207731</v>
+        <v>-0.00106276570207797</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -14341,16 +14341,16 @@
         <v>-0.000125220759791489</v>
       </c>
       <c r="F76">
-        <v>-0.00164526913844798</v>
+        <v>-0.00164526913844831</v>
       </c>
       <c r="G76">
-        <v>-0.00123026970415729</v>
+        <v>-0.00123026970415752</v>
       </c>
       <c r="H76">
-        <v>-8.60331441084883e-05</v>
+        <v>-8.6033144108405e-05</v>
       </c>
       <c r="I76">
-        <v>-0.0013597639500823</v>
+        <v>-0.00135976395008253</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -14370,16 +14370,16 @@
         <v>-0.000141394221788715</v>
       </c>
       <c r="F77">
-        <v>-0.00119994631349585</v>
+        <v>-0.00119994631349551</v>
       </c>
       <c r="G77">
-        <v>-0.0006671493202417</v>
+        <v>-0.000667149320241367</v>
       </c>
       <c r="H77">
-        <v>-0.000386398526746629</v>
+        <v>-0.00038639852674674</v>
       </c>
       <c r="I77">
-        <v>-0.000967798586940738</v>
+        <v>-0.000967798586940294</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -14399,16 +14399,16 @@
         <v>0.000265175344473789</v>
       </c>
       <c r="F78">
-        <v>-0.00147444985643153</v>
+        <v>-0.00147444985643186</v>
       </c>
       <c r="G78">
-        <v>-0.00142237067755602</v>
+        <v>-0.00142237067755624</v>
       </c>
       <c r="H78">
-        <v>-0.000467405721825104</v>
+        <v>-0.000467405721825243</v>
       </c>
       <c r="I78">
-        <v>-0.000644739166736907</v>
+        <v>-0.000644739166737129</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -14428,16 +14428,16 @@
         <v>0.00043339571320189</v>
       </c>
       <c r="F79">
-        <v>-0.0012433713735549</v>
+        <v>-0.00124337137355468</v>
       </c>
       <c r="G79">
-        <v>-0.000424172870171824</v>
+        <v>-0.000424172870171602</v>
       </c>
       <c r="H79">
-        <v>-0.00033602080145867</v>
+        <v>-0.000336020801458753</v>
       </c>
       <c r="I79">
-        <v>-0.00113713119391345</v>
+        <v>-0.00113713119391323</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -14457,16 +14457,16 @@
         <v>0.000293176450337995</v>
       </c>
       <c r="F80">
-        <v>-0.00121332572957533</v>
+        <v>-0.00121332572957622</v>
       </c>
       <c r="G80">
-        <v>-0.000681573222729437</v>
+        <v>-0.000681573222730325</v>
       </c>
       <c r="H80">
-        <v>6.25487584866857e-05</v>
+        <v>6.2548758486658e-05</v>
       </c>
       <c r="I80">
-        <v>-0.00126575651071525</v>
+        <v>-0.00126575651071614</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -14486,16 +14486,16 @@
         <v>4.91241825955058e-05</v>
       </c>
       <c r="F81">
-        <v>-0.00109881680655721</v>
+        <v>-0.00109881680655788</v>
       </c>
       <c r="G81">
-        <v>-0.000370964058505896</v>
+        <v>-0.000370964058506562</v>
       </c>
       <c r="H81">
-        <v>-0.000160975763434379</v>
+        <v>-0.00016097576343424</v>
       </c>
       <c r="I81">
-        <v>-0.00103995102446208</v>
+        <v>-0.00103995102446286</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -14515,16 +14515,16 @@
         <v>-0.0002412109064025</v>
       </c>
       <c r="F82">
-        <v>-0.000791214993117406</v>
+        <v>-0.00079121499311785</v>
       </c>
       <c r="G82">
-        <v>7.28508710181597e-05</v>
+        <v>7.28508710177156e-05</v>
       </c>
       <c r="H82">
-        <v>0.000153371691180904</v>
+        <v>0.00015337169118082</v>
       </c>
       <c r="I82">
-        <v>-0.000786708173741435</v>
+        <v>-0.000786708173741879</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -14544,16 +14544,16 @@
         <v>-0.000166493477948393</v>
       </c>
       <c r="F83">
-        <v>-0.000628517698503139</v>
+        <v>-0.000628517698503528</v>
       </c>
       <c r="G83">
-        <v>-0.000117200037758836</v>
+        <v>-0.000117200037759169</v>
       </c>
       <c r="H83">
-        <v>0.000207556864777803</v>
+        <v>0.000207556864777553</v>
       </c>
       <c r="I83">
-        <v>-0.000260698938393977</v>
+        <v>-0.00026069893839431</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -14573,16 +14573,16 @@
         <v>0.000488244254679415</v>
       </c>
       <c r="F84">
-        <v>0.000348758385711079</v>
+        <v>0.000348758385710857</v>
       </c>
       <c r="G84">
-        <v>-7.15427531017276e-05</v>
+        <v>-7.15427531019497e-05</v>
       </c>
       <c r="H84">
         <v>0.000237965581826455</v>
       </c>
       <c r="I84">
-        <v>0.000308945472231814</v>
+        <v>0.000308945472231592</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -14602,16 +14602,16 @@
         <v>0.000163317049135969</v>
       </c>
       <c r="F85">
-        <v>0.000362502511675689</v>
+        <v>0.000362502511674745</v>
       </c>
       <c r="G85">
-        <v>-0.000255926053976507</v>
+        <v>-0.000255926053977507</v>
       </c>
       <c r="H85">
-        <v>-0.000492417866371497</v>
+        <v>-0.000492417866371692</v>
       </c>
       <c r="I85">
-        <v>0.00026364304794152</v>
+        <v>0.000263643047940576</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -14631,16 +14631,16 @@
         <v>-6.40925771158152e-05</v>
       </c>
       <c r="F86">
-        <v>0.000148759518407537</v>
+        <v>0.00014875951840726</v>
       </c>
       <c r="G86">
-        <v>0.000611430138427349</v>
+        <v>0.000611430138427127</v>
       </c>
       <c r="H86">
-        <v>0.000297828273521206</v>
+        <v>0.000297828273521178</v>
       </c>
       <c r="I86">
-        <v>0.000642202527903313</v>
+        <v>0.000642202527903035</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -14660,16 +14660,16 @@
         <v>-6.64562906891319e-05</v>
       </c>
       <c r="F87">
-        <v>0.000315273930013349</v>
+        <v>0.000315273930013682</v>
       </c>
       <c r="G87">
-        <v>0.000673394584216003</v>
+        <v>0.000673394584216336</v>
       </c>
       <c r="H87">
-        <v>-0.000100255503045238</v>
+        <v>-0.00010025550304521</v>
       </c>
       <c r="I87">
-        <v>0.000345092720064777</v>
+        <v>0.00034509272006511</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -14689,16 +14689,16 @@
         <v>-0.000244440488533115</v>
       </c>
       <c r="F88">
-        <v>0.000599789994403577</v>
+        <v>0.000599789994403355</v>
       </c>
       <c r="G88">
-        <v>0.00104741573929668</v>
+        <v>0.00104741573929645</v>
       </c>
       <c r="H88">
-        <v>-0.000395999581115331</v>
+        <v>-0.000395999581115247</v>
       </c>
       <c r="I88">
-        <v>0.000285741005845441</v>
+        <v>0.000285741005845108</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -14718,16 +14718,16 @@
         <v>-9.72370150549295e-05</v>
       </c>
       <c r="F89">
-        <v>0.000980116739618841</v>
+        <v>0.00098011673961873</v>
       </c>
       <c r="G89">
-        <v>0.000916009385247718</v>
+        <v>0.000916009385247607</v>
       </c>
       <c r="H89">
-        <v>-0.000310834592191722</v>
+        <v>-0.000310834592191694</v>
       </c>
       <c r="I89">
-        <v>0.000498267859720181</v>
+        <v>0.00049826785972007</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -14747,16 +14747,16 @@
         <v>0.000211053650872373</v>
       </c>
       <c r="F90">
-        <v>0.000688588731593165</v>
+        <v>0.000688588731592943</v>
       </c>
       <c r="G90">
-        <v>0.000585237939703886</v>
+        <v>0.000585237939703664</v>
       </c>
       <c r="H90">
-        <v>0.000407926545048842</v>
+        <v>0.000407926545048731</v>
       </c>
       <c r="I90">
-        <v>0.00119621296514683</v>
+        <v>0.0011962129651466</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -14776,16 +14776,16 @@
         <v>0.000282937964875885</v>
       </c>
       <c r="F91">
-        <v>0.00118756986416568</v>
+        <v>0.00118756986416546</v>
       </c>
       <c r="G91">
-        <v>0.00151341685719697</v>
+        <v>0.00151341685719686</v>
       </c>
       <c r="H91">
-        <v>-2.83248284731752e-05</v>
+        <v>-2.83248284732029e-05</v>
       </c>
       <c r="I91">
-        <v>0.000792280228214093</v>
+        <v>0.000792280228213871</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -14805,16 +14805,16 @@
         <v>-8.64161887825787e-05</v>
       </c>
       <c r="F92">
-        <v>0.00113608782795038</v>
+        <v>0.00113608782794994</v>
       </c>
       <c r="G92">
-        <v>0.00131753254450773</v>
+        <v>0.00131753254450739</v>
       </c>
       <c r="H92">
-        <v>-0.000464917221161903</v>
+        <v>-0.000464917221161876</v>
       </c>
       <c r="I92">
-        <v>0.000893169451257725</v>
+        <v>0.000893169451257281</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -14834,16 +14834,16 @@
         <v>-0.000483063468013967</v>
       </c>
       <c r="F93">
-        <v>0.00135832777315226</v>
+        <v>0.00135832777315215</v>
       </c>
       <c r="G93">
-        <v>0.00076533809485968</v>
+        <v>0.000765338094859569</v>
       </c>
       <c r="H93">
-        <v>0.000183540333146104</v>
+        <v>0.000183540333145993</v>
       </c>
       <c r="I93">
-        <v>0.00128114570066939</v>
+        <v>0.00128114570066928</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -14866,13 +14866,13 @@
         <v>0.00181608586824777</v>
       </c>
       <c r="G94">
-        <v>0.00175930971324434</v>
+        <v>0.00175930971324445</v>
       </c>
       <c r="H94">
-        <v>-7.31733888806319e-05</v>
+        <v>-7.31733888804931e-05</v>
       </c>
       <c r="I94">
-        <v>0.000889856500845498</v>
+        <v>0.000889856500845609</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -14892,16 +14892,16 @@
         <v>0.000139887202045941</v>
       </c>
       <c r="F95">
-        <v>0.00158443131164132</v>
+        <v>0.00158443131164088</v>
       </c>
       <c r="G95">
-        <v>0.00131643487394661</v>
+        <v>0.00131643487394628</v>
       </c>
       <c r="H95">
-        <v>-0.000298636057991686</v>
+        <v>-0.000298636057991714</v>
       </c>
       <c r="I95">
-        <v>0.00177838147615295</v>
+        <v>0.00177838147615261</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -14927,7 +14927,7 @@
         <v>0.00154601083868455</v>
       </c>
       <c r="H96">
-        <v>0.000381021683700994</v>
+        <v>0.000381021683701077</v>
       </c>
       <c r="I96">
         <v>0.00110517172246027</v>
@@ -14950,16 +14950,16 @@
         <v>-5.14961771855837e-05</v>
       </c>
       <c r="F97">
-        <v>0.00178478643877178</v>
+        <v>0.00178478643877222</v>
       </c>
       <c r="G97">
-        <v>0.00162646760936214</v>
+        <v>0.00162646760936236</v>
       </c>
       <c r="H97">
-        <v>-0.00020618164798672</v>
+        <v>-0.000206181647986942</v>
       </c>
       <c r="I97">
-        <v>0.00110225264829322</v>
+        <v>0.00110225264829356</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -14985,7 +14985,7 @@
         <v>0.00178162908158042</v>
       </c>
       <c r="H98">
-        <v>-0.000259514866010918</v>
+        <v>-0.000259514866010779</v>
       </c>
       <c r="I98">
         <v>0.0010495219844131</v>
@@ -15008,16 +15008,16 @@
         <v>-0.000265815720187135</v>
       </c>
       <c r="F99">
-        <v>0.000971469819925574</v>
+        <v>0.00097146981992513</v>
       </c>
       <c r="G99">
-        <v>0.00125665644637185</v>
+        <v>0.00125665644637152</v>
       </c>
       <c r="H99">
-        <v>1.1239632265736e-05</v>
+        <v>1.12396322656527e-05</v>
       </c>
       <c r="I99">
-        <v>0.00124892839411606</v>
+        <v>0.00124892839411572</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -15040,10 +15040,10 @@
         <v>0.00180219762697931</v>
       </c>
       <c r="G100">
-        <v>0.00129404424459234</v>
+        <v>0.00129404424459223</v>
       </c>
       <c r="H100">
-        <v>0.000398687328352937</v>
+        <v>0.000398687328352715</v>
       </c>
       <c r="I100">
         <v>0.000998593260178926</v>
@@ -15066,13 +15066,13 @@
         <v>-3.57977414466859e-06</v>
       </c>
       <c r="F101">
-        <v>0.00149059183965394</v>
+        <v>0.00149059183965405</v>
       </c>
       <c r="G101">
         <v>0.00111033203575617</v>
       </c>
       <c r="H101">
-        <v>-0.00029351156302701</v>
+        <v>-0.000293511563026844</v>
       </c>
       <c r="I101">
         <v>0.00156739828076624</v>
@@ -15095,16 +15095,16 @@
         <v>0.000278264724698829</v>
       </c>
       <c r="F102">
-        <v>0.00124664202852576</v>
+        <v>0.00124664202852531</v>
       </c>
       <c r="G102">
-        <v>0.000874520173097193</v>
+        <v>0.000874520173096638</v>
       </c>
       <c r="H102">
-        <v>-0.000245394039025293</v>
+        <v>-0.000245394039025265</v>
       </c>
       <c r="I102">
-        <v>0.00117105830246866</v>
+        <v>0.00117105830246811</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -15124,16 +15124,16 @@
         <v>7.3512358376604e-05</v>
       </c>
       <c r="F103">
-        <v>0.00120060013296752</v>
+        <v>0.00120060013296786</v>
       </c>
       <c r="G103">
-        <v>0.000689405480486238</v>
+        <v>0.000689405480486571</v>
       </c>
       <c r="H103">
-        <v>0.000382446570035277</v>
+        <v>0.000382446570035305</v>
       </c>
       <c r="I103">
-        <v>0.000951074306715372</v>
+        <v>0.000951074306715705</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -15153,16 +15153,16 @@
         <v>-8.69804676781882e-05</v>
       </c>
       <c r="F104">
-        <v>0.00138563795539548</v>
+        <v>0.00138563795539492</v>
       </c>
       <c r="G104">
-        <v>0.000577077914313384</v>
+        <v>0.00057707791431294</v>
       </c>
       <c r="H104">
-        <v>-0.000548787041044357</v>
+        <v>-0.000548787041044468</v>
       </c>
       <c r="I104">
-        <v>0.000958076658795326</v>
+        <v>0.000958076658794882</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -15182,16 +15182,16 @@
         <v>0.000224801505900984</v>
       </c>
       <c r="F105">
-        <v>0.00072799813177038</v>
+        <v>0.000727998131770269</v>
       </c>
       <c r="G105">
-        <v>0.00146960011324127</v>
+        <v>0.00146960011324104</v>
       </c>
       <c r="H105">
-        <v>-0.000153441334872689</v>
+        <v>-0.000153441334872662</v>
       </c>
       <c r="I105">
-        <v>0.00114085534454578</v>
+        <v>0.00114085534454567</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -15211,7 +15211,7 @@
         <v>0.000256401042207699</v>
       </c>
       <c r="F106">
-        <v>0.00104544794792438</v>
+        <v>0.00104544794792427</v>
       </c>
       <c r="G106">
         <v>0.0012054670145667</v>
@@ -15240,16 +15240,16 @@
         <v>-0.000236770066070591</v>
       </c>
       <c r="F107">
-        <v>0.00105355103485338</v>
+        <v>0.00105355103485383</v>
       </c>
       <c r="G107">
-        <v>0.000531920493842764</v>
+        <v>0.00053192049384343</v>
       </c>
       <c r="H107">
-        <v>0.00030607241654601</v>
+        <v>0.000306072416545955</v>
       </c>
       <c r="I107">
-        <v>0.00129940378209781</v>
+        <v>0.00129940378209836</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -15269,16 +15269,16 @@
         <v>0.000359935514886445</v>
       </c>
       <c r="F108">
-        <v>0.000378290833325079</v>
+        <v>0.000378290833325523</v>
       </c>
       <c r="G108">
-        <v>0.00111270760050663</v>
+        <v>0.00111270760050708</v>
       </c>
       <c r="H108">
-        <v>0.000306176442466777</v>
+        <v>0.000306176442466832</v>
       </c>
       <c r="I108">
-        <v>0.000655846299514096</v>
+        <v>0.00065584629951454</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -15304,7 +15304,7 @@
         <v>0.000540525374516321</v>
       </c>
       <c r="H109">
-        <v>-0.000478609461889934</v>
+        <v>-0.000478609461889906</v>
       </c>
       <c r="I109">
         <v>0.000971301575909411</v>
@@ -15356,16 +15356,16 @@
         <v>0.000313186919456143</v>
       </c>
       <c r="F111">
-        <v>0.000545653030027848</v>
+        <v>0.000545653030028181</v>
       </c>
       <c r="G111">
-        <v>5.28935191644875e-05</v>
+        <v>5.28935191648205e-05</v>
       </c>
       <c r="H111">
-        <v>6.95233923624916e-05</v>
+        <v>6.95233923625749e-05</v>
       </c>
       <c r="I111">
-        <v>0.000418078975136793</v>
+        <v>0.000418078975137126</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -15385,16 +15385,16 @@
         <v>-0.000406128037521825</v>
       </c>
       <c r="F112">
-        <v>0.000253069505089965</v>
+        <v>0.000253069505090298</v>
       </c>
       <c r="G112">
-        <v>0.000126832443916869</v>
+        <v>0.000126832443917202</v>
       </c>
       <c r="H112">
-        <v>-0.000169967186746056</v>
+        <v>-0.000169967186746028</v>
       </c>
       <c r="I112">
-        <v>0.000433131771887196</v>
+        <v>0.000433131771887529</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -15414,16 +15414,16 @@
         <v>-0.000163598130157538</v>
       </c>
       <c r="F113">
-        <v>-0.000265653522892872</v>
+        <v>-0.00026565352289265</v>
       </c>
       <c r="G113">
-        <v>6.99215562598443e-05</v>
+        <v>6.99215562599553e-05</v>
       </c>
       <c r="H113">
-        <v>-0.000325869676826268</v>
+        <v>-0.000325869676826185</v>
       </c>
       <c r="I113">
-        <v>0.000222562455745257</v>
+        <v>0.000222562455745368</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -15443,16 +15443,16 @@
         <v>7.65564999234414e-05</v>
       </c>
       <c r="F114">
-        <v>0.000497180755783644</v>
+        <v>0.000497180755782867</v>
       </c>
       <c r="G114">
-        <v>0.000407468130165678</v>
+        <v>0.000407468130165012</v>
       </c>
       <c r="H114">
-        <v>1.89491106706019e-05</v>
+        <v>1.89491106706297e-05</v>
       </c>
       <c r="I114">
-        <v>0.000252283497804151</v>
+        <v>0.000252283497803374</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -15472,16 +15472,16 @@
         <v>0.000193731665394381</v>
       </c>
       <c r="F115">
-        <v>0.000105410639813286</v>
+        <v>0.000105410639813952</v>
       </c>
       <c r="G115">
-        <v>-0.000281976814036411</v>
+        <v>-0.000281976814035745</v>
       </c>
       <c r="H115">
-        <v>0.00032536722670623</v>
+        <v>0.000325367226706313</v>
       </c>
       <c r="I115">
-        <v>4.37668352382126e-05</v>
+        <v>4.37668352388787e-05</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -15501,16 +15501,16 @@
         <v>-0.000307299042862752</v>
       </c>
       <c r="F116">
-        <v>0.000199523272937929</v>
+        <v>0.000199523272938484</v>
       </c>
       <c r="G116">
-        <v>-0.000344568090590136</v>
+        <v>-0.000344568090589581</v>
       </c>
       <c r="H116">
-        <v>3.63635950577923e-05</v>
+        <v>3.6363595057709e-05</v>
       </c>
       <c r="I116">
-        <v>0.000199158108894482</v>
+        <v>0.000199158108895037</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -15530,16 +15530,16 @@
         <v>-0.000189291141722947</v>
       </c>
       <c r="F117">
-        <v>-0.000484321428128931</v>
+        <v>-0.000484321428127599</v>
       </c>
       <c r="G117">
-        <v>-3.06155119962348e-05</v>
+        <v>-3.06155119949025e-05</v>
       </c>
       <c r="H117">
         <v>0.000491763776226367</v>
       </c>
       <c r="I117">
-        <v>-0.000575008245574993</v>
+        <v>-0.000575008245573772</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -15559,16 +15559,16 @@
         <v>-0.000235683581642832</v>
       </c>
       <c r="F118">
-        <v>-9.73828856436487e-05</v>
+        <v>-9.73828856432046e-05</v>
       </c>
       <c r="G118">
-        <v>-0.000476318478809246</v>
+        <v>-0.000476318478808802</v>
       </c>
       <c r="H118">
         <v>-0.000155286551987571</v>
       </c>
       <c r="I118">
-        <v>-0.000446402385133382</v>
+        <v>-0.000446402385132938</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -15588,16 +15588,16 @@
         <v>-0.00028696010722129</v>
       </c>
       <c r="F119">
-        <v>-0.0006641891400605</v>
+        <v>-0.000664189140060056</v>
       </c>
       <c r="G119">
-        <v>-0.000688588138522905</v>
+        <v>-0.000688588138522572</v>
       </c>
       <c r="H119">
-        <v>1.6484210492218e-05</v>
+        <v>1.64842104923846e-05</v>
       </c>
       <c r="I119">
-        <v>-0.000438742387927626</v>
+        <v>-0.000438742387927293</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -15623,7 +15623,7 @@
         <v>-0.000533741537880661</v>
       </c>
       <c r="H120">
-        <v>-0.000288540503405238</v>
+        <v>-0.00028854050340521</v>
       </c>
       <c r="I120">
         <v>-0.000417801532081929</v>
@@ -15652,7 +15652,7 @@
         <v>-0.000730817926088534</v>
       </c>
       <c r="H121">
-        <v>0.000481263095673562</v>
+        <v>0.000481263095673506</v>
       </c>
       <c r="I121">
         <v>-0.00108242957598481</v>
@@ -15675,16 +15675,16 @@
         <v>0.000432787589403461</v>
       </c>
       <c r="F122">
-        <v>-0.000230061138359217</v>
+        <v>-0.000230061138359106</v>
       </c>
       <c r="G122">
-        <v>-0.000850256467579524</v>
+        <v>-0.000850256467579413</v>
       </c>
       <c r="H122">
-        <v>-0.000194374007608938</v>
+        <v>-0.000194374007608827</v>
       </c>
       <c r="I122">
-        <v>-0.000961397706772615</v>
+        <v>-0.000961397706772504</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -15710,7 +15710,7 @@
         <v>-0.000318741883174711</v>
       </c>
       <c r="H123">
-        <v>0.000161900271702209</v>
+        <v>0.000161900271702126</v>
       </c>
       <c r="I123">
         <v>-0.000416951974301027</v>
@@ -15733,7 +15733,7 @@
         <v>0.000465924771901882</v>
       </c>
       <c r="F124">
-        <v>-0.000743614185217401</v>
+        <v>-0.000743614185217178</v>
       </c>
       <c r="G124">
         <v>-0.000431219155375584</v>
@@ -15742,7 +15742,7 @@
         <v>7.20422315929892e-05</v>
       </c>
       <c r="I124">
-        <v>-0.000656252866117479</v>
+        <v>-0.000656252866117368</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -15762,16 +15762,16 @@
         <v>-7.37817204239377e-05</v>
       </c>
       <c r="F125">
-        <v>-0.000563928495456167</v>
+        <v>-0.000563928495455723</v>
       </c>
       <c r="G125">
-        <v>-0.00137140279995063</v>
+        <v>-0.00137140279995029</v>
       </c>
       <c r="H125">
         <v>0.000128788090144161</v>
       </c>
       <c r="I125">
-        <v>-0.000752447967145575</v>
+        <v>-0.000752447967145131</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -15791,16 +15791,16 @@
         <v>6.82077442739626e-05</v>
       </c>
       <c r="F126">
-        <v>-0.00153351055908146</v>
+        <v>-0.0015335105590808</v>
       </c>
       <c r="G126">
-        <v>-0.0012424472032706</v>
+        <v>-0.00124244720327005</v>
       </c>
       <c r="H126">
         <v>7.21970822095686e-06</v>
       </c>
       <c r="I126">
-        <v>-0.000677878465051407</v>
+        <v>-0.000677878465050741</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -15820,16 +15820,16 @@
         <v>0.00037747489732709</v>
       </c>
       <c r="F127">
-        <v>-0.00160575977197464</v>
+        <v>-0.00160575977197353</v>
       </c>
       <c r="G127">
-        <v>-0.00110948676168088</v>
+        <v>-0.00110948676167977</v>
       </c>
       <c r="H127">
-        <v>0.000467357659293316</v>
+        <v>0.000467357659293344</v>
       </c>
       <c r="I127">
-        <v>-0.0013524465000514</v>
+        <v>-0.00135244650005029</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -15849,16 +15849,16 @@
         <v>-0.000479853908647243</v>
       </c>
       <c r="F128">
-        <v>-0.00167759568186532</v>
+        <v>-0.00167759568186499</v>
       </c>
       <c r="G128">
-        <v>-0.00105493382830857</v>
+        <v>-0.00105493382830824</v>
       </c>
       <c r="H128">
-        <v>0.000351513131644915</v>
+        <v>0.000351513131644943</v>
       </c>
       <c r="I128">
-        <v>-0.00170957331317667</v>
+        <v>-0.00170957331317634</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -15878,16 +15878,16 @@
         <v>0.000281200021412076</v>
       </c>
       <c r="F129">
-        <v>-0.00165865088106321</v>
+        <v>-0.00165865088106243</v>
       </c>
       <c r="G129">
-        <v>-0.00124505996220381</v>
+        <v>-0.00124505996220292</v>
       </c>
       <c r="H129">
-        <v>-0.000421448337638575</v>
+        <v>-0.000421448337638547</v>
       </c>
       <c r="I129">
-        <v>-0.00177917091490731</v>
+        <v>-0.00177917091490642</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -15907,16 +15907,16 @@
         <v>0.000324849666835547</v>
       </c>
       <c r="F130">
-        <v>-0.00158019581235358</v>
+        <v>-0.0015801958123538</v>
       </c>
       <c r="G130">
-        <v>-0.00100217994867857</v>
+        <v>-0.00100217994867879</v>
       </c>
       <c r="H130">
-        <v>0.000136279114002019</v>
+        <v>0.000136279114002102</v>
       </c>
       <c r="I130">
-        <v>-0.00178073425342562</v>
+        <v>-0.00178073425342584</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -15936,16 +15936,16 @@
         <v>-0.000190016112014746</v>
       </c>
       <c r="F131">
-        <v>-0.00173847527856918</v>
+        <v>-0.00173847527856941</v>
       </c>
       <c r="G131">
-        <v>-0.00187159289351546</v>
+        <v>-0.00187159289351557</v>
       </c>
       <c r="H131">
         <v>7.26873068497003e-05</v>
       </c>
       <c r="I131">
-        <v>-0.00121114040436354</v>
+        <v>-0.00121114040436376</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -15965,16 +15965,16 @@
         <v>-0.000105236777940831</v>
       </c>
       <c r="F132">
-        <v>-0.00183328625020263</v>
+        <v>-0.00183328625020285</v>
       </c>
       <c r="G132">
-        <v>-0.00166886373906427</v>
+        <v>-0.0016688637390645</v>
       </c>
       <c r="H132">
-        <v>0.000486581124469587</v>
+        <v>0.000486581124469698</v>
       </c>
       <c r="I132">
-        <v>-0.00190541330022642</v>
+        <v>-0.00190541330022664</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -16000,7 +16000,7 @@
         <v>-0.00149431514936382</v>
       </c>
       <c r="H133">
-        <v>0.000518008382029062</v>
+        <v>0.000518008382029034</v>
       </c>
       <c r="I133">
         <v>-0.00105066950134725</v>
@@ -16023,16 +16023,16 @@
         <v>1.14603917467093e-05</v>
       </c>
       <c r="F134">
-        <v>-0.00193916186176557</v>
+        <v>-0.00193916186176524</v>
       </c>
       <c r="G134">
-        <v>-0.00170910084492903</v>
+        <v>-0.0017091008449287</v>
       </c>
       <c r="H134">
-        <v>0.000338854412349071</v>
+        <v>0.000338854412349099</v>
       </c>
       <c r="I134">
-        <v>-0.00114615103655746</v>
+        <v>-0.00114615103655713</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -16052,16 +16052,16 @@
         <v>4.97676941080272e-06</v>
       </c>
       <c r="F135">
-        <v>-0.0014169760419348</v>
+        <v>-0.00141697604193436</v>
       </c>
       <c r="G135">
-        <v>-0.00187824343041265</v>
+        <v>-0.00187824343041221</v>
       </c>
       <c r="H135">
-        <v>0.000143914201750472</v>
+        <v>0.000143914201750528</v>
       </c>
       <c r="I135">
-        <v>-0.00192013886292441</v>
+        <v>-0.00192013886292397</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -16081,16 +16081,16 @@
         <v>0.000261113508379651</v>
       </c>
       <c r="F136">
-        <v>-0.00145292895739513</v>
+        <v>-0.00145292895739557</v>
       </c>
       <c r="G136">
-        <v>-0.001694978103986</v>
+        <v>-0.00169497810398656</v>
       </c>
       <c r="H136">
-        <v>0.00014270651630191</v>
+        <v>0.000142706516301827</v>
       </c>
       <c r="I136">
-        <v>-0.00122726209977819</v>
+        <v>-0.00122726209977864</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -16113,13 +16113,13 @@
         <v>-0.00100813019721879</v>
       </c>
       <c r="G137">
-        <v>-0.000903376889067165</v>
+        <v>-0.000903376889067053</v>
       </c>
       <c r="H137">
-        <v>-0.000447754276092671</v>
+        <v>-0.000447754276092505</v>
       </c>
       <c r="I137">
-        <v>-0.000950852659651558</v>
+        <v>-0.000950852659651447</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -16139,16 +16139,16 @@
         <v>0.000240233012405611</v>
       </c>
       <c r="F138">
-        <v>-0.00094196775292088</v>
+        <v>-0.000941967752920658</v>
       </c>
       <c r="G138">
-        <v>-0.0012325450180678</v>
+        <v>-0.00123254501806769</v>
       </c>
       <c r="H138">
         <v>-0.000409061743001191</v>
       </c>
       <c r="I138">
-        <v>-0.000926676724965492</v>
+        <v>-0.000926676724965381</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -16168,16 +16168,16 @@
         <v>-0.000179871040344892</v>
       </c>
       <c r="F139">
-        <v>-0.000978304786485307</v>
+        <v>-0.000978304786484974</v>
       </c>
       <c r="G139">
-        <v>-0.00134903343511616</v>
+        <v>-0.00134903343511594</v>
       </c>
       <c r="H139">
-        <v>0.000473719738447342</v>
+        <v>0.000473719738447412</v>
       </c>
       <c r="I139">
-        <v>-0.000893514572402387</v>
+        <v>-0.000893514572402165</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -16197,16 +16197,16 @@
         <v>0.000464469619707586</v>
       </c>
       <c r="F140">
-        <v>-0.00169949969185179</v>
+        <v>-0.00169949969185135</v>
       </c>
       <c r="G140">
-        <v>-0.000828084061328394</v>
+        <v>-0.00082808406132806</v>
       </c>
       <c r="H140">
         <v>0.000408487924042716</v>
       </c>
       <c r="I140">
-        <v>-0.00146809303386797</v>
+        <v>-0.00146809303386763</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -16226,16 +16226,16 @@
         <v>0.000191584072730677</v>
       </c>
       <c r="F141">
-        <v>-0.00155449857221601</v>
+        <v>-0.00155449857221557</v>
       </c>
       <c r="G141">
-        <v>-0.00114068868291162</v>
+        <v>-0.00114068868291117</v>
       </c>
       <c r="H141">
-        <v>-0.000406202282858384</v>
+        <v>-0.000406202282858301</v>
       </c>
       <c r="I141">
-        <v>-0.00113829523981424</v>
+        <v>-0.00113829523981379</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -16258,13 +16258,13 @@
         <v>-0.000872837937012538</v>
       </c>
       <c r="G142">
-        <v>-0.000652162271854495</v>
+        <v>-0.000652162271854273</v>
       </c>
       <c r="H142">
         <v>0.000217631781119332</v>
       </c>
       <c r="I142">
-        <v>-0.00126824717446505</v>
+        <v>-0.00126824717446494</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -16284,16 +16284,16 @@
         <v>0.000112042843607441</v>
       </c>
       <c r="F143">
-        <v>-0.000880425310377242</v>
+        <v>-0.000880425310376909</v>
       </c>
       <c r="G143">
-        <v>-0.000628149702282643</v>
+        <v>-0.00062814970228231</v>
       </c>
       <c r="H143">
-        <v>0.000456782070302378</v>
+        <v>0.000456782070302572</v>
       </c>
       <c r="I143">
-        <v>-0.00111010245002841</v>
+        <v>-0.00111010245002818</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -16319,7 +16319,7 @@
         <v>-0.00124484073517195</v>
       </c>
       <c r="H144">
-        <v>0.000475892280963328</v>
+        <v>0.000475892280963369</v>
       </c>
       <c r="I144">
         <v>-0.000818907552484149</v>
@@ -16342,16 +16342,16 @@
         <v>-6.5732770835325e-06</v>
       </c>
       <c r="F145">
-        <v>-0.0014418856947277</v>
+        <v>-0.00144188569472781</v>
       </c>
       <c r="G145">
-        <v>-0.000601115911604055</v>
+        <v>-0.000601115911604277</v>
       </c>
       <c r="H145">
-        <v>0.000424484807562089</v>
+        <v>0.000424484807562277</v>
       </c>
       <c r="I145">
-        <v>-0.00146826352174922</v>
+        <v>-0.00146826352174934</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -16400,16 +16400,16 @@
         <v>0.000272907926392563</v>
       </c>
       <c r="F147">
-        <v>-0.000543197419912489</v>
+        <v>-0.000543197419912378</v>
       </c>
       <c r="G147">
-        <v>-0.000616512955569304</v>
+        <v>-0.000616512955569193</v>
       </c>
       <c r="H147">
-        <v>-0.000418380487432327</v>
+        <v>-0.000418380487432313</v>
       </c>
       <c r="I147">
-        <v>-0.000565374117158068</v>
+        <v>-0.000565374117157957</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -16429,16 +16429,16 @@
         <v>0.000165933005874308</v>
       </c>
       <c r="F148">
-        <v>-0.000795581489786423</v>
+        <v>-0.000795581489786201</v>
       </c>
       <c r="G148">
-        <v>-0.00119744926924747</v>
+        <v>-0.00119744926924736</v>
       </c>
       <c r="H148">
-        <v>-8.53948001808338e-05</v>
+        <v>-8.5394800180702e-05</v>
       </c>
       <c r="I148">
-        <v>-0.000882836323883196</v>
+        <v>-0.000882836323883085</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -16458,16 +16458,16 @@
         <v>-0.00026914391784949</v>
       </c>
       <c r="F149">
-        <v>-0.000715464132613808</v>
+        <v>-0.000715464132613586</v>
       </c>
       <c r="G149">
-        <v>-0.000382780653863768</v>
+        <v>-0.000382780653863657</v>
       </c>
       <c r="H149">
-        <v>0.000386931912643287</v>
+        <v>0.000386931912643114</v>
       </c>
       <c r="I149">
-        <v>-0.000903332176948934</v>
+        <v>-0.000903332176948712</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -16487,16 +16487,16 @@
         <v>-0.000426853910957092</v>
       </c>
       <c r="F150">
-        <v>-0.00117622413367535</v>
+        <v>-0.00117622413367491</v>
       </c>
       <c r="G150">
-        <v>-0.00105864940858269</v>
+        <v>-0.00105864940858225</v>
       </c>
       <c r="H150">
-        <v>-0.000124202972248778</v>
+        <v>-0.000124202972248716</v>
       </c>
       <c r="I150">
-        <v>-0.000492104944546323</v>
+        <v>-0.000492104944545879</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -16516,16 +16516,16 @@
         <v>0.000236359961732546</v>
       </c>
       <c r="F151">
-        <v>-0.00103857272194041</v>
+        <v>-0.00103857272194019</v>
       </c>
       <c r="G151">
-        <v>-0.00109592537366776</v>
+        <v>-0.00109592537366754</v>
       </c>
       <c r="H151">
-        <v>0.000193861669667242</v>
+        <v>0.0001938616696672</v>
       </c>
       <c r="I151">
-        <v>-0.000501736077269888</v>
+        <v>-0.000501736077269666</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -16545,16 +16545,16 @@
         <v>0.000329563013282907</v>
       </c>
       <c r="F152">
-        <v>-0.00115624027889982</v>
+        <v>-0.00115624027890027</v>
       </c>
       <c r="G152">
-        <v>-0.00035640174216145</v>
+        <v>-0.000356401742161894</v>
       </c>
       <c r="H152">
-        <v>0.000123528410316931</v>
+        <v>0.000123528410317007</v>
       </c>
       <c r="I152">
-        <v>-0.000778343445315466</v>
+        <v>-0.00077834344531591</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -16577,13 +16577,13 @@
         <v>-0.000380623868770025</v>
       </c>
       <c r="G153">
-        <v>-0.00069786699811325</v>
+        <v>-0.000697866998113361</v>
       </c>
       <c r="H153">
-        <v>0.000453108719259104</v>
+        <v>0.000453108719259049</v>
       </c>
       <c r="I153">
-        <v>-0.00116654450761378</v>
+        <v>-0.00116654450761389</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -16603,16 +16603,16 @@
         <v>0.000213871522977804</v>
       </c>
       <c r="F154">
-        <v>-0.000564501766506464</v>
+        <v>-0.000564501766506131</v>
       </c>
       <c r="G154">
-        <v>-0.000978165445309043</v>
+        <v>-0.00097816544530871</v>
       </c>
       <c r="H154">
-        <v>1.46824767223441e-06</v>
+        <v>1.46824767239401e-06</v>
       </c>
       <c r="I154">
-        <v>-0.00051333624239891</v>
+        <v>-0.000513336242398577</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -16632,16 +16632,16 @@
         <v>0.000405867653533676</v>
       </c>
       <c r="F155">
-        <v>-0.000564923385623306</v>
+        <v>-0.000564923385623195</v>
       </c>
       <c r="G155">
         <v>-0.00105836512514701</v>
       </c>
       <c r="H155">
-        <v>-0.000372107366342814</v>
+        <v>-0.000372107366342862</v>
       </c>
       <c r="I155">
-        <v>-0.000671040239061282</v>
+        <v>-0.000671040239061171</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -16661,16 +16661,16 @@
         <v>-0.000135212636982018</v>
       </c>
       <c r="F156">
-        <v>-0.000245381915165099</v>
+        <v>-0.000245381915164766</v>
       </c>
       <c r="G156">
-        <v>-0.000805151653254788</v>
+        <v>-0.000805151653254454</v>
       </c>
       <c r="H156">
-        <v>0.000231239502013959</v>
+        <v>0.000231239502013973</v>
       </c>
       <c r="I156">
-        <v>-0.000499453506910275</v>
+        <v>-0.000499453506909942</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -16690,16 +16690,16 @@
         <v>0.000473844191274608</v>
       </c>
       <c r="F157">
-        <v>-0.000477373086495092</v>
+        <v>-0.00047737308649487</v>
       </c>
       <c r="G157">
-        <v>-0.00109256188485363</v>
+        <v>-0.0010925618848534</v>
       </c>
       <c r="H157">
-        <v>-0.000256115146798165</v>
+        <v>-0.000256115146798228</v>
       </c>
       <c r="I157">
-        <v>-0.000867334985741208</v>
+        <v>-0.000867334985740986</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -16719,16 +16719,16 @@
         <v>0.000241928306416561</v>
       </c>
       <c r="F158">
-        <v>-0.000141437400192679</v>
+        <v>-0.00014143740019279</v>
       </c>
       <c r="G158">
-        <v>-0.000803163876545554</v>
+        <v>-0.000803163876545665</v>
       </c>
       <c r="H158">
-        <v>0.000124333193765189</v>
+        <v>0.000124333193765133</v>
       </c>
       <c r="I158">
-        <v>-0.000653345594674337</v>
+        <v>-0.000653345594674448</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -16748,16 +16748,16 @@
         <v>0.000179357555976978</v>
       </c>
       <c r="F159">
-        <v>-0.000127775462244184</v>
+        <v>-0.000127775462244295</v>
       </c>
       <c r="G159">
-        <v>-0.000828780436750054</v>
+        <v>-0.000828780436750165</v>
       </c>
       <c r="H159">
-        <v>0.000350412629863954</v>
+        <v>0.000350412629863843</v>
       </c>
       <c r="I159">
-        <v>-0.000746546763712774</v>
+        <v>-0.000746546763712885</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -16777,16 +16777,16 @@
         <v>0.000206694959053344</v>
       </c>
       <c r="F160">
-        <v>-0.000336517386752999</v>
+        <v>-0.000336517386752666</v>
       </c>
       <c r="G160">
-        <v>-0.00107084345523711</v>
+        <v>-0.00107084345523689</v>
       </c>
       <c r="H160">
-        <v>0.000413709994909715</v>
+        <v>0.000413709994909854</v>
       </c>
       <c r="I160">
-        <v>-0.00104654938361781</v>
+        <v>-0.00104654938361759</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -16806,16 +16806,16 @@
         <v>0.00015517697908507</v>
       </c>
       <c r="F161">
-        <v>-0.000677718034723496</v>
+        <v>-0.000677718034723385</v>
       </c>
       <c r="G161">
-        <v>-0.000440455781346771</v>
+        <v>-0.00044045578134666</v>
       </c>
       <c r="H161">
         <v>0.000315286962515406</v>
       </c>
       <c r="I161">
-        <v>-0.000463392454810641</v>
+        <v>-0.000463392454810529</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -16835,16 +16835,16 @@
         <v>-9.63696586664398e-05</v>
       </c>
       <c r="F162">
-        <v>-7.11406060907582e-05</v>
+        <v>-7.11406060906472e-05</v>
       </c>
       <c r="G162">
-        <v>-0.000858227134701517</v>
+        <v>-0.00085822713470135</v>
       </c>
       <c r="H162">
-        <v>6.24910012952257e-05</v>
+        <v>6.24910012952187e-05</v>
       </c>
       <c r="I162">
-        <v>-0.000917218757637839</v>
+        <v>-0.000917218757637672</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -16864,16 +16864,16 @@
         <v>-0.000342019391885273</v>
       </c>
       <c r="F163">
-        <v>-0.000445882124281871</v>
+        <v>-0.00044588212428176</v>
       </c>
       <c r="G163">
-        <v>-0.000253940711084533</v>
+        <v>-0.000253940711084422</v>
       </c>
       <c r="H163">
-        <v>-0.000333370841337582</v>
+        <v>-0.000333370841337624</v>
       </c>
       <c r="I163">
-        <v>-0.000337803837433537</v>
+        <v>-0.000337803837433426</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -16893,16 +16893,16 @@
         <v>0.000330756630060769</v>
       </c>
       <c r="F164">
-        <v>-0.000739885898753512</v>
+        <v>-0.000739885898753345</v>
       </c>
       <c r="G164">
-        <v>-0.000566098016090644</v>
+        <v>-0.000566098016090477</v>
       </c>
       <c r="H164">
-        <v>0.000141295690595837</v>
+        <v>0.00014129569059592</v>
       </c>
       <c r="I164">
-        <v>-0.000663984638877124</v>
+        <v>-0.000663984638876902</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -16922,16 +16922,16 @@
         <v>-5.54048938652407e-05</v>
       </c>
       <c r="F165">
-        <v>-0.000899378288783781</v>
+        <v>-0.000899378288783614</v>
       </c>
       <c r="G165">
-        <v>-0.000741381161003418</v>
+        <v>-0.000741381161003307</v>
       </c>
       <c r="H165">
-        <v>-0.000498814334856448</v>
+        <v>-0.000498814334856421</v>
       </c>
       <c r="I165">
-        <v>-0.000843025299388789</v>
+        <v>-0.000843025299388678</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -16951,16 +16951,16 @@
         <v>-1.76323671414735e-05</v>
       </c>
       <c r="F166">
-        <v>-0.000878260118854113</v>
+        <v>-0.00087826011885378</v>
       </c>
       <c r="G166">
-        <v>-0.000734064460959805</v>
+        <v>-0.000734064460959527</v>
       </c>
       <c r="H166">
-        <v>-0.000238733641367186</v>
+        <v>-0.00023873364136718</v>
       </c>
       <c r="I166">
-        <v>-0.000829949925045814</v>
+        <v>-0.000829949925045537</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -16980,16 +16980,16 @@
         <v>-0.000366576627556903</v>
       </c>
       <c r="F167">
-        <v>-0.000637476952842164</v>
+        <v>-0.000637476952842053</v>
       </c>
       <c r="G167">
-        <v>-0.000505400702737246</v>
+        <v>-0.000505400702737135</v>
       </c>
       <c r="H167">
-        <v>-6.37892034865487e-05</v>
+        <v>-6.37892034865833e-05</v>
       </c>
       <c r="I167">
-        <v>-0.000586865584401186</v>
+        <v>-0.000586865584401075</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -17009,16 +17009,16 @@
         <v>-7.77731039853791e-05</v>
       </c>
       <c r="F168">
-        <v>-0.000144387117550937</v>
+        <v>-0.000144387117550993</v>
       </c>
       <c r="G168">
-        <v>-2.30018759608819e-05</v>
+        <v>-2.30018759609374e-05</v>
       </c>
       <c r="H168">
-        <v>4.00227225356778e-05</v>
+        <v>4.00227225356639e-05</v>
       </c>
       <c r="I168">
-        <v>-8.22931941638072e-05</v>
+        <v>-8.22931941638627e-05</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -17038,16 +17038,16 @@
         <v>-0.000265234773614065</v>
       </c>
       <c r="F169">
-        <v>-0.000372141840683793</v>
+        <v>-0.000372141840683848</v>
       </c>
       <c r="G169">
-        <v>-0.000260229436420845</v>
+        <v>-0.000260229436420956</v>
       </c>
       <c r="H169">
-        <v>8.58008274520275e-05</v>
+        <v>8.58008274519997e-05</v>
       </c>
       <c r="I169">
-        <v>-0.000290519345096996</v>
+        <v>-0.000290519345097107</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -17067,16 +17067,16 @@
         <v>-0.000227841636935899</v>
       </c>
       <c r="F170">
-        <v>-0.000299088077571397</v>
+        <v>-0.000299088077571286</v>
       </c>
       <c r="G170">
-        <v>-0.000195605224331818</v>
+        <v>-0.000195605224331707</v>
       </c>
       <c r="H170">
-        <v>8.56037078556041e-05</v>
+        <v>8.5603707855493e-05</v>
       </c>
       <c r="I170">
-        <v>-0.000190978325669444</v>
+        <v>-0.000190978325669333</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -17096,16 +17096,16 @@
         <v>0.000462011437218912</v>
       </c>
       <c r="F171">
-        <v>-0.0009082014754066</v>
+        <v>-0.000908201475406378</v>
       </c>
       <c r="G171">
-        <v>-0.000812250914485502</v>
+        <v>-0.00081225091448528</v>
       </c>
       <c r="H171">
-        <v>5.03870355953104e-05</v>
+        <v>5.03870355954353e-05</v>
       </c>
       <c r="I171">
-        <v>-0.000767670541145238</v>
+        <v>-0.000767670541145016</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -17125,16 +17125,16 @@
         <v>-0.000147965646559722</v>
       </c>
       <c r="F172">
-        <v>-0.000186554387868632</v>
+        <v>-0.000186554387868409</v>
       </c>
       <c r="G172">
-        <v>-9.73612459774786e-05</v>
+        <v>-9.73612459772566e-05</v>
       </c>
       <c r="H172">
-        <v>-1.00082137867788e-05</v>
+        <v>-1.00082137866331e-05</v>
       </c>
       <c r="I172">
-        <v>-8.62109533195099e-06</v>
+        <v>-8.62109533172895e-06</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -17154,16 +17154,16 @@
         <v>-0.00049753162266164</v>
       </c>
       <c r="F173">
-        <v>-0.000124821830380373</v>
+        <v>-0.000124821830380151</v>
       </c>
       <c r="G173">
-        <v>-4.17141840174384e-05</v>
+        <v>-4.17141840172719e-05</v>
       </c>
       <c r="H173">
-        <v>-8.68321729908944e-05</v>
+        <v>-8.68321729908458e-05</v>
       </c>
       <c r="I173">
-        <v>9.46195943861694e-05</v>
+        <v>9.46195943863359e-05</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -17183,13 +17183,13 @@
         <v>0.000386807038786685</v>
       </c>
       <c r="F174">
-        <v>-0.000716826682841232</v>
+        <v>-0.000716826682841287</v>
       </c>
       <c r="G174">
-        <v>-0.000639219526553547</v>
+        <v>-0.000639219526553492</v>
       </c>
       <c r="H174">
-        <v>-0.000172378776118483</v>
+        <v>-0.000172378776118413</v>
       </c>
       <c r="I174">
         <v>-0.000452567271692239</v>
@@ -17218,7 +17218,7 @@
         <v>0.000113493788598429</v>
       </c>
       <c r="H175">
-        <v>-0.000259923335991001</v>
+        <v>-0.000259923335991036</v>
       </c>
       <c r="I175">
         <v>-0.000647453736505099</v>
@@ -17241,16 +17241,16 @@
         <v>0.000311594242599966</v>
       </c>
       <c r="F176">
-        <v>-0.000850625252288295</v>
+        <v>-0.00085062525228824</v>
       </c>
       <c r="G176">
-        <v>-0.000782547639755327</v>
+        <v>-0.000782547639755271</v>
       </c>
       <c r="H176">
-        <v>-0.000343651324436089</v>
+        <v>-0.000343651324436027</v>
       </c>
       <c r="I176">
-        <v>-0.000489590295569498</v>
+        <v>-0.000489590295569442</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -17270,16 +17270,16 @@
         <v>-0.000345751586962706</v>
       </c>
       <c r="F177">
-        <v>-0.000392256127316526</v>
+        <v>-0.000392256127316248</v>
       </c>
       <c r="G177">
-        <v>-0.000328323651507978</v>
+        <v>-0.0003283236515077</v>
       </c>
       <c r="H177">
-        <v>-0.000418582951782639</v>
+        <v>-0.000418582951782563</v>
       </c>
       <c r="I177">
-        <v>1.95305305502602e-05</v>
+        <v>1.95305305504823e-05</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -17299,16 +17299,16 @@
         <v>-0.000272332932114594</v>
       </c>
       <c r="F178">
-        <v>-0.000586654149650756</v>
+        <v>-0.000586654149650812</v>
       </c>
       <c r="G178">
-        <v>-0.000526517316505049</v>
+        <v>-0.00052651731650516</v>
       </c>
       <c r="H178">
-        <v>-0.000480496841068049</v>
+        <v>-0.000480496841068014</v>
       </c>
       <c r="I178">
-        <v>-0.000123225403016125</v>
+        <v>-0.000123225403016236</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -17334,7 +17334,7 @@
         <v>-0.000381244400736613</v>
       </c>
       <c r="H179">
-        <v>0.000474144889179535</v>
+        <v>0.000474144889179597</v>
       </c>
       <c r="I179">
         <v>7.76330473981068e-05</v>
@@ -17357,16 +17357,16 @@
         <v>0.000156528187302385</v>
       </c>
       <c r="F180">
-        <v>4.87447451985035e-05</v>
+        <v>4.87447451982814e-05</v>
       </c>
       <c r="G180">
-        <v>0.000102186808594418</v>
+        <v>0.000102186808594196</v>
       </c>
       <c r="H180">
-        <v>0.000448268558622039</v>
+        <v>0.000448268558622011</v>
       </c>
       <c r="I180">
-        <v>-0.000383541633330098</v>
+        <v>-0.00038354163333032</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -17389,13 +17389,13 @@
         <v>-0.000132991928532833</v>
       </c>
       <c r="G181">
-        <v>-8.25122896350172e-05</v>
+        <v>-8.25122896349062e-05</v>
       </c>
       <c r="H181">
-        <v>0.000444256853757034</v>
+        <v>0.000444256853757079</v>
       </c>
       <c r="I181">
-        <v>-0.00051332779530372</v>
+        <v>-0.000513327795303664</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -17415,16 +17415,16 @@
         <v>0.000428792489383323</v>
       </c>
       <c r="F182">
-        <v>9.83745310267903e-06</v>
+        <v>9.83745310262352e-06</v>
       </c>
       <c r="G182">
-        <v>5.75760204102882e-05</v>
+        <v>5.75760204102327e-05</v>
       </c>
       <c r="H182">
-        <v>0.000464012141539825</v>
+        <v>0.000464012141539849</v>
       </c>
       <c r="I182">
-        <v>-0.000319052456082547</v>
+        <v>-0.000319052456082602</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -17444,16 +17444,16 @@
         <v>0.000451152275533939</v>
       </c>
       <c r="F183">
-        <v>-0.00053045747009281</v>
+        <v>-0.000530457470092782</v>
       </c>
       <c r="G183">
-        <v>-0.000485260837893214</v>
+        <v>-0.000485260837893187</v>
       </c>
       <c r="H183">
-        <v>-0.000490985139304151</v>
+        <v>-0.000490985139304161</v>
       </c>
       <c r="I183">
-        <v>0.00019136768042699</v>
+        <v>0.000191367680427018</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -17473,16 +17473,16 @@
         <v>8.32118739602095e-06</v>
       </c>
       <c r="F184">
-        <v>-0.000762057754025325</v>
+        <v>-0.000762057754025436</v>
       </c>
       <c r="G184">
-        <v>-0.000719223341301506</v>
+        <v>-0.000719223341301617</v>
       </c>
       <c r="H184">
-        <v>-0.000419623097143874</v>
+        <v>-0.000419623097143981</v>
       </c>
       <c r="I184">
-        <v>9.56435634846819e-06</v>
+        <v>9.56435634838493e-06</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -17502,16 +17502,16 @@
         <v>0.00031738720866592</v>
       </c>
       <c r="F185">
-        <v>-0.000693511226946775</v>
+        <v>-0.000693511226946913</v>
       </c>
       <c r="G185">
-        <v>-0.000652876350931281</v>
+        <v>-0.000652876350931447</v>
       </c>
       <c r="H185">
-        <v>-0.000321109948542193</v>
+        <v>-0.000321109948542214</v>
       </c>
       <c r="I185">
-        <v>0.000126837230670834</v>
+        <v>0.000126837230670668</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -17531,16 +17531,16 @@
         <v>-0.000404565187368977</v>
       </c>
       <c r="F186">
-        <v>-0.000333625523036174</v>
+        <v>-0.000333625523036063</v>
       </c>
       <c r="G186">
-        <v>-0.000295042487937214</v>
+        <v>-0.000295042487937075</v>
       </c>
       <c r="H186">
-        <v>-0.000194930346216329</v>
+        <v>-0.000194930346216374</v>
       </c>
       <c r="I186">
-        <v>-0.000465743284394582</v>
+        <v>-0.000465743284394443</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -17560,16 +17560,16 @@
         <v>5.53806121428302e-05</v>
       </c>
       <c r="F187">
-        <v>-0.000691376221748308</v>
+        <v>-0.000691376221748335</v>
       </c>
       <c r="G187">
-        <v>-0.000654710560780231</v>
+        <v>-0.000654710560780258</v>
       </c>
       <c r="H187">
-        <v>-4.08062276242016e-05</v>
+        <v>-4.08062276243196e-05</v>
       </c>
       <c r="I187">
-        <v>0.000222752042187607</v>
+        <v>0.000222752042187579</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -17589,16 +17589,16 @@
         <v>-9.69815352216408e-05</v>
       </c>
       <c r="F188">
-        <v>0.000224171608071144</v>
+        <v>0.000224171608070894</v>
       </c>
       <c r="G188">
-        <v>0.000259042647675872</v>
+        <v>0.00025904264767565</v>
       </c>
       <c r="H188">
-        <v>0.00014133810553078</v>
+        <v>0.000141338105530769</v>
       </c>
       <c r="I188">
-        <v>0.000183186257075668</v>
+        <v>0.000183186257075446</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -17618,16 +17618,16 @@
         <v>0.00033499460708919</v>
       </c>
       <c r="F189">
-        <v>-0.000596069988060194</v>
+        <v>-0.000596069988060277</v>
       </c>
       <c r="G189">
-        <v>-0.000562881221688488</v>
+        <v>-0.000562881221688544</v>
       </c>
       <c r="H189">
-        <v>0.000351406989715135</v>
+        <v>0.000351406989715097</v>
       </c>
       <c r="I189">
-        <v>-0.000593580304306229</v>
+        <v>-0.000593580304306285</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -17647,16 +17647,16 @@
         <v>-0.000462505956149162</v>
       </c>
       <c r="F190">
-        <v>-0.000161155689594489</v>
+        <v>-0.000161155689594378</v>
       </c>
       <c r="G190">
-        <v>-0.000129546118022045</v>
+        <v>-0.000129546118021961</v>
       </c>
       <c r="H190">
         <v>-0.000410839194963576</v>
       </c>
       <c r="I190">
-        <v>-0.000116636672656933</v>
+        <v>-0.00011663667265685</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -17676,16 +17676,16 @@
         <v>-0.000314532778915577</v>
       </c>
       <c r="F191">
-        <v>-0.000480059911102143</v>
+        <v>-0.000480059911102115</v>
       </c>
       <c r="G191">
-        <v>-0.000449934739036206</v>
+        <v>-0.000449934739036179</v>
       </c>
       <c r="H191">
-        <v>-0.000145759897417767</v>
+        <v>-0.000145759897417747</v>
       </c>
       <c r="I191">
-        <v>-0.000394976772827627</v>
+        <v>-0.000394976772827599</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -17708,10 +17708,10 @@
         <v>-0.000561637839604556</v>
       </c>
       <c r="G192">
-        <v>-0.000532909694883232</v>
+        <v>-0.00053290969488326</v>
       </c>
       <c r="H192">
-        <v>0.000146186762670225</v>
+        <v>0.000146186762670159</v>
       </c>
       <c r="I192">
         <v>-0.00043746270116754</v>
@@ -17734,16 +17734,16 @@
         <v>0.000459568275066768</v>
       </c>
       <c r="F193">
-        <v>-0.000414593475210751</v>
+        <v>-0.000414593475210667</v>
       </c>
       <c r="G193">
-        <v>-0.000387181656990199</v>
+        <v>-0.000387181656990115</v>
       </c>
       <c r="H193">
-        <v>0.000464462478372077</v>
+        <v>0.000464462478372188</v>
       </c>
       <c r="I193">
-        <v>-0.000252794749382973</v>
+        <v>-0.00025279474938289</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -17769,7 +17769,7 @@
         <v>-2.1283581409931e-05</v>
       </c>
       <c r="H194">
-        <v>-0.000191535159171589</v>
+        <v>-0.000191535159171568</v>
       </c>
       <c r="I194">
         <v>0.000150512716956791</v>
@@ -17792,16 +17792,16 @@
         <v>-0.000174765536125943</v>
       </c>
       <c r="F195">
-        <v>-0.000468547995204294</v>
+        <v>-0.00046854799520421</v>
       </c>
       <c r="G195">
-        <v>-0.000443550197065989</v>
+        <v>-0.000443550197065851</v>
       </c>
       <c r="H195">
-        <v>0.000177541283325994</v>
+        <v>0.000177541283325984</v>
       </c>
       <c r="I195">
-        <v>-0.000235849683926398</v>
+        <v>-0.000235849683926287</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -17821,16 +17821,16 @@
         <v>-7.9174553949013e-05</v>
       </c>
       <c r="F196">
-        <v>0.000314008209321565</v>
+        <v>0.000314008209321537</v>
       </c>
       <c r="G196">
-        <v>-0.000662102041139978</v>
+        <v>-0.000662102041140006</v>
       </c>
       <c r="H196">
-        <v>-0.000428998879188059</v>
+        <v>-0.000428998879188121</v>
       </c>
       <c r="I196">
-        <v>-0.00041997165697244</v>
+        <v>-0.000419971656972468</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -17850,13 +17850,13 @@
         <v>-0.000227681550009518</v>
       </c>
       <c r="F197">
-        <v>0.000292325029066065</v>
+        <v>0.000292325029066037</v>
       </c>
       <c r="G197">
         <v>0.000315166592870342</v>
       </c>
       <c r="H197">
-        <v>-1.18740987725182e-05</v>
+        <v>-1.18740987724835e-05</v>
       </c>
       <c r="I197">
         <v>-0.000409712285214942</v>
@@ -17879,16 +17879,16 @@
         <v>0.000477996697716865</v>
       </c>
       <c r="F198">
-        <v>-0.000541252816569721</v>
+        <v>-0.000541252816569748</v>
       </c>
       <c r="G198">
-        <v>-0.000519403646237648</v>
+        <v>-0.000519403646237676</v>
       </c>
       <c r="H198">
-        <v>0.000428178265268898</v>
+        <v>0.000428178265268937</v>
       </c>
       <c r="I198">
-        <v>-0.000212692290269212</v>
+        <v>-0.00021269229026924</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -17911,10 +17911,10 @@
         <v>-0.000194140184339997</v>
       </c>
       <c r="G199">
-        <v>-0.000173231330257068</v>
+        <v>-0.000173231330257095</v>
       </c>
       <c r="H199">
-        <v>-0.000109590507741439</v>
+        <v>-0.000109590507741486</v>
       </c>
       <c r="I199">
         <v>0.000163710977627213</v>
@@ -17937,16 +17937,16 @@
         <v>-0.000200007275057423</v>
       </c>
       <c r="F200">
-        <v>0.000326491938608869</v>
+        <v>0.000326491938608925</v>
       </c>
       <c r="G200">
-        <v>-0.000653490844559013</v>
+        <v>-0.000653490844558985</v>
       </c>
       <c r="H200">
-        <v>0.000374065891973809</v>
+        <v>0.000374065891973765</v>
       </c>
       <c r="I200">
-        <v>-0.000287633763246281</v>
+        <v>-0.000287633763246253</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -17966,16 +17966,16 @@
         <v>-0.000430426529186345</v>
       </c>
       <c r="F201">
-        <v>1.37178229124013e-05</v>
+        <v>1.37178229124291e-05</v>
       </c>
       <c r="G201">
         <v>3.28889662870036e-05</v>
       </c>
       <c r="H201">
-        <v>-0.000121605814350792</v>
+        <v>-0.000121605814350832</v>
       </c>
       <c r="I201">
-        <v>-0.000573610977766564</v>
+        <v>-0.000573610977766537</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -17995,16 +17995,16 @@
         <v>-0.000498988506635545</v>
       </c>
       <c r="F202">
-        <v>-0.000139143342238135</v>
+        <v>-0.000139143342238079</v>
       </c>
       <c r="G202">
-        <v>-0.000120775570256387</v>
+        <v>-0.000120775570256304</v>
       </c>
       <c r="H202">
-        <v>0.00040264600401349</v>
+        <v>0.000402646004013575</v>
       </c>
       <c r="I202">
-        <v>0.000299140802762971</v>
+        <v>0.000299140802763054</v>
       </c>
     </row>
   </sheetData>
@@ -18066,16 +18066,16 @@
         <v>-0.0083438286095077</v>
       </c>
       <c r="F2">
-        <v>-0.524639253405658</v>
+        <v>-0.524639253405696</v>
       </c>
       <c r="G2">
-        <v>-0.4597317463178</v>
+        <v>-0.459731746317838</v>
       </c>
       <c r="H2">
-        <v>0.202237514628265</v>
+        <v>0.202237514627626</v>
       </c>
       <c r="I2">
-        <v>0.0347108810024493</v>
+        <v>0.0347108810024108</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -18095,13 +18095,13 @@
         <v>0.0136498518521078</v>
       </c>
       <c r="F3">
-        <v>-0.382445367889783</v>
+        <v>-0.38244536788977</v>
       </c>
       <c r="G3">
         <v>-0.314703246830475</v>
       </c>
       <c r="H3">
-        <v>4.03877400009729</v>
+        <v>4.03877400009804</v>
       </c>
       <c r="I3">
         <v>0.145060519101476</v>
@@ -18124,13 +18124,13 @@
         <v>0.0122915482513711</v>
       </c>
       <c r="F4">
-        <v>-0.143561384423847</v>
+        <v>-0.143561384423859</v>
       </c>
       <c r="G4">
         <v>-0.0728896077993024</v>
       </c>
       <c r="H4">
-        <v>-1.45607645534864</v>
+        <v>-1.45607645534862</v>
       </c>
       <c r="I4">
         <v>-0.521288169745135</v>
@@ -18153,16 +18153,16 @@
         <v>-0.00785933129260235</v>
       </c>
       <c r="F5">
-        <v>0.18816029636315</v>
+        <v>0.188160296363126</v>
       </c>
       <c r="G5">
-        <v>0.261859761114656</v>
+        <v>0.261859761114632</v>
       </c>
       <c r="H5">
-        <v>2.52867627910865</v>
+        <v>2.52867627910836</v>
       </c>
       <c r="I5">
-        <v>-0.195015425310036</v>
+        <v>-0.195015425310059</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -18182,16 +18182,16 @@
         <v>-0.0129070894238645</v>
       </c>
       <c r="F6">
-        <v>-0.212461893219621</v>
+        <v>-0.212461893219576</v>
       </c>
       <c r="G6">
-        <v>-0.134999061280221</v>
+        <v>-0.134999061280175</v>
       </c>
       <c r="H6">
-        <v>-2.10991581267922</v>
+        <v>-2.10991581267973</v>
       </c>
       <c r="I6">
-        <v>0.220510955469634</v>
+        <v>0.220510955469691</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -18217,10 +18217,10 @@
         <v>-0.398436947618872</v>
       </c>
       <c r="H7">
-        <v>1.99042908571207</v>
+        <v>1.99042908571089</v>
       </c>
       <c r="I7">
-        <v>-0.0790306651271344</v>
+        <v>-0.0790306651271233</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -18243,13 +18243,13 @@
         <v>0.155112757358048</v>
       </c>
       <c r="G8">
-        <v>0.239821902217722</v>
+        <v>0.239821902217701</v>
       </c>
       <c r="H8">
-        <v>-1.86466489846963</v>
+        <v>-1.86466489846918</v>
       </c>
       <c r="I8">
-        <v>-0.249605973863194</v>
+        <v>-0.249605973863215</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -18269,16 +18269,16 @@
         <v>0.00206570530572617</v>
       </c>
       <c r="F9">
-        <v>0.116319965863095</v>
+        <v>0.116319965863053</v>
       </c>
       <c r="G9">
-        <v>0.20516241222796</v>
+        <v>0.205162412227918</v>
       </c>
       <c r="H9">
-        <v>2.32054646571201</v>
+        <v>2.32054646571214</v>
       </c>
       <c r="I9">
-        <v>-0.296179856770238</v>
+        <v>-0.29617985677028</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -18304,7 +18304,7 @@
         <v>-0.438260317353909</v>
       </c>
       <c r="H10">
-        <v>-0.820438217978256</v>
+        <v>-0.82043821797818</v>
       </c>
       <c r="I10">
         <v>-0.223606346973222</v>
@@ -18327,16 +18327,16 @@
         <v>0.000452289719913382</v>
       </c>
       <c r="F11">
-        <v>-0.315690627035645</v>
+        <v>-0.315690627035763</v>
       </c>
       <c r="G11">
-        <v>-0.217497743006049</v>
+        <v>-0.217497743006166</v>
       </c>
       <c r="H11">
-        <v>-3.47797024136761</v>
+        <v>-3.47797024136824</v>
       </c>
       <c r="I11">
-        <v>-0.0366292088173634</v>
+        <v>-0.0366292088174619</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -18356,16 +18356,16 @@
         <v>0.00672510284632049</v>
       </c>
       <c r="F12">
-        <v>0.00976267693144986</v>
+        <v>0.00976267693154489</v>
       </c>
       <c r="G12">
-        <v>0.112493161591773</v>
+        <v>0.112493161591868</v>
       </c>
       <c r="H12">
-        <v>0.927305006081031</v>
+        <v>0.92730500608153</v>
       </c>
       <c r="I12">
-        <v>-0.427744179438586</v>
+        <v>-0.42774417943849</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -18385,16 +18385,16 @@
         <v>-0.00318238907906674</v>
       </c>
       <c r="F13">
-        <v>-0.223932367767041</v>
+        <v>-0.22393236776717</v>
       </c>
       <c r="G13">
-        <v>-0.115819654937556</v>
+        <v>-0.115819654937685</v>
       </c>
       <c r="H13">
-        <v>-1.12383803629751</v>
+        <v>-1.12383803629738</v>
       </c>
       <c r="I13">
-        <v>-0.00459137989517531</v>
+        <v>-0.00459137989530485</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -18414,16 +18414,16 @@
         <v>-0.000146570094618457</v>
       </c>
       <c r="F14">
-        <v>-0.316081069625707</v>
+        <v>-0.316081069625743</v>
       </c>
       <c r="G14">
-        <v>-0.202436086446451</v>
+        <v>-0.202436086446486</v>
       </c>
       <c r="H14">
-        <v>-2.75742429308259</v>
+        <v>-2.75742429308311</v>
       </c>
       <c r="I14">
-        <v>-0.127045406350173</v>
+        <v>-0.127045406350209</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -18443,16 +18443,16 @@
         <v>-0.00549643812463398</v>
       </c>
       <c r="F15">
-        <v>-0.272307450579647</v>
+        <v>-0.272307450579699</v>
       </c>
       <c r="G15">
-        <v>-0.152985281089029</v>
+        <v>-0.152985281089064</v>
       </c>
       <c r="H15">
-        <v>1.78012788500907</v>
+        <v>1.78012788500862</v>
       </c>
       <c r="I15">
-        <v>-0.112885288186463</v>
+        <v>-0.112885288186515</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -18475,13 +18475,13 @@
         <v>-0.0981095148317923</v>
       </c>
       <c r="G16">
-        <v>0.0270272682128953</v>
+        <v>0.027027268212912</v>
       </c>
       <c r="H16">
-        <v>0.651657362550537</v>
+        <v>0.651657362550423</v>
       </c>
       <c r="I16">
-        <v>0.0323753284896717</v>
+        <v>0.0323753284896885</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -18501,16 +18501,16 @@
         <v>-0.00280414967384034</v>
       </c>
       <c r="F17">
-        <v>-0.382483096630945</v>
+        <v>-0.382483096630928</v>
       </c>
       <c r="G17">
-        <v>-0.250637927438382</v>
+        <v>-0.25063792743835</v>
       </c>
       <c r="H17">
-        <v>-0.12158267025312</v>
+        <v>-0.121582670252388</v>
       </c>
       <c r="I17">
-        <v>-0.283105894533156</v>
+        <v>-0.28310589453314</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -18530,16 +18530,16 @@
         <v>-0.0110050903697763</v>
       </c>
       <c r="F18">
-        <v>0.0555095939215571</v>
+        <v>0.0555095939214788</v>
       </c>
       <c r="G18">
-        <v>-0.37045576225499</v>
+        <v>-0.370455762255068</v>
       </c>
       <c r="H18">
-        <v>-0.562487562104854</v>
+        <v>-0.562487562104977</v>
       </c>
       <c r="I18">
-        <v>-0.440168031084238</v>
+        <v>-0.440168031084317</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -18559,16 +18559,16 @@
         <v>0.00804902720063832</v>
       </c>
       <c r="F19">
-        <v>0.0616098819511252</v>
+        <v>0.0616098819510646</v>
       </c>
       <c r="G19">
-        <v>-0.338839112439452</v>
+        <v>-0.338839112439513</v>
       </c>
       <c r="H19">
-        <v>-0.693574319998386</v>
+        <v>-0.693574319998437</v>
       </c>
       <c r="I19">
-        <v>-0.445219780138687</v>
+        <v>-0.445219780138749</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -18588,13 +18588,13 @@
         <v>-0.0078330588246428</v>
       </c>
       <c r="F20">
-        <v>-0.314812848882018</v>
+        <v>-0.314812848882003</v>
       </c>
       <c r="G20">
         <v>-0.162080147579693</v>
       </c>
       <c r="H20">
-        <v>-0.537004937649745</v>
+        <v>-0.537004937649618</v>
       </c>
       <c r="I20">
         <v>-0.304542450199365</v>
@@ -18617,16 +18617,16 @@
         <v>0.00822386628429092</v>
       </c>
       <c r="F21">
-        <v>-0.00623907538397804</v>
+        <v>-0.00623907538400636</v>
       </c>
       <c r="G21">
-        <v>-0.355781719465276</v>
+        <v>-0.355781719465319</v>
       </c>
       <c r="H21">
-        <v>-0.114604831171947</v>
+        <v>-0.114604831172038</v>
       </c>
       <c r="I21">
-        <v>-0.0243000272968477</v>
+        <v>-0.0243000272968761</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -18646,16 +18646,16 @@
         <v>-0.00357868395938357</v>
       </c>
       <c r="F22">
-        <v>-0.0577304093132478</v>
+        <v>-0.0577304093132752</v>
       </c>
       <c r="G22">
-        <v>-0.381905554898026</v>
+        <v>-0.381905554898054</v>
       </c>
       <c r="H22">
-        <v>0.552124281813096</v>
+        <v>0.552124281812896</v>
       </c>
       <c r="I22">
-        <v>-0.106125797982193</v>
+        <v>-0.10612579798222</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -18675,16 +18675,16 @@
         <v>-4.72346893367643e-05</v>
       </c>
       <c r="F23">
-        <v>-0.424404046323283</v>
+        <v>-0.424404046323323</v>
       </c>
       <c r="G23">
-        <v>-0.247629227488592</v>
+        <v>-0.247629227488632</v>
       </c>
       <c r="H23">
-        <v>1.44199761108005</v>
+        <v>1.44199761107962</v>
       </c>
       <c r="I23">
-        <v>-0.0264524055025607</v>
+        <v>-0.0264524055026005</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -18704,16 +18704,16 @@
         <v>0.000547326999463767</v>
       </c>
       <c r="F24">
-        <v>-0.144857471909916</v>
+        <v>-0.14485747190998</v>
       </c>
       <c r="G24">
-        <v>-0.418576832206814</v>
+        <v>-0.418576832206891</v>
       </c>
       <c r="H24">
-        <v>-1.21453963055585</v>
+        <v>-1.21453963055556</v>
       </c>
       <c r="I24">
-        <v>-0.254327415111168</v>
+        <v>-0.254327415111245</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -18733,16 +18733,16 @@
         <v>-0.000180417578439995</v>
       </c>
       <c r="F25">
-        <v>-0.162156577534291</v>
+        <v>-0.162156577534378</v>
       </c>
       <c r="G25">
-        <v>-0.410854835273674</v>
+        <v>-0.410854835273747</v>
       </c>
       <c r="H25">
-        <v>0.245361800067679</v>
+        <v>0.245361800067297</v>
       </c>
       <c r="I25">
-        <v>-0.30228865138487</v>
+        <v>-0.302288651384945</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -18762,16 +18762,16 @@
         <v>-0.00124417623941433</v>
       </c>
       <c r="F26">
-        <v>-0.435800009333201</v>
+        <v>-0.435800009333165</v>
       </c>
       <c r="G26">
-        <v>-0.232576745223335</v>
+        <v>-0.2325767452233</v>
       </c>
       <c r="H26">
-        <v>-1.52489651028309</v>
+        <v>-1.52489651028304</v>
       </c>
       <c r="I26">
-        <v>-0.178371069573783</v>
+        <v>-0.178371069573747</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -18791,16 +18791,16 @@
         <v>-0.0023188820915244</v>
       </c>
       <c r="F27">
-        <v>-0.103592739865296</v>
+        <v>-0.103592739865284</v>
       </c>
       <c r="G27">
         <v>-0.302898928868166</v>
       </c>
       <c r="H27">
-        <v>0.394328493498566</v>
+        <v>0.394328493498233</v>
       </c>
       <c r="I27">
-        <v>-0.305040607894899</v>
+        <v>-0.305040607894888</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -18820,16 +18820,16 @@
         <v>-0.00377448762730043</v>
       </c>
       <c r="F28">
-        <v>-0.410487176080221</v>
+        <v>-0.410487176080288</v>
       </c>
       <c r="G28">
-        <v>-0.188667176435128</v>
+        <v>-0.188667176435195</v>
       </c>
       <c r="H28">
-        <v>-0.628256461034524</v>
+        <v>-0.628256461034247</v>
       </c>
       <c r="I28">
-        <v>-0.245572823845496</v>
+        <v>-0.245572823845563</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -18849,16 +18849,16 @@
         <v>-0.006710590627593</v>
       </c>
       <c r="F29">
-        <v>-0.129747068859676</v>
+        <v>-0.12974706885974</v>
       </c>
       <c r="G29">
-        <v>-0.280371903968795</v>
+        <v>-0.280371903968859</v>
       </c>
       <c r="H29">
-        <v>-1.2491694774089</v>
+        <v>-1.24916947740882</v>
       </c>
       <c r="I29">
-        <v>-0.393671406977946</v>
+        <v>-0.39367140697801</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -18878,16 +18878,16 @@
         <v>0.00303070678485923</v>
       </c>
       <c r="F30">
-        <v>-0.0503041654258744</v>
+        <v>-0.0503041654259765</v>
       </c>
       <c r="G30">
-        <v>-0.177272349241803</v>
+        <v>-0.177272349241865</v>
       </c>
       <c r="H30">
-        <v>1.23520512240563</v>
+        <v>1.23520512240546</v>
       </c>
       <c r="I30">
-        <v>-0.345017038893798</v>
+        <v>-0.345017038893881</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -18907,16 +18907,16 @@
         <v>0.00588583598366205</v>
       </c>
       <c r="F31">
-        <v>-0.139438792254757</v>
+        <v>-0.139438792254895</v>
       </c>
       <c r="G31">
-        <v>-0.242746093046943</v>
+        <v>-0.24274609304708</v>
       </c>
       <c r="H31">
-        <v>1.15663687072842</v>
+        <v>1.15663687072824</v>
       </c>
       <c r="I31">
-        <v>-0.109823163285623</v>
+        <v>-0.109823163285762</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -18936,16 +18936,16 @@
         <v>-0.00160973460466348</v>
       </c>
       <c r="F32">
-        <v>-0.36669819536827</v>
+        <v>-0.366698195368346</v>
       </c>
       <c r="G32">
-        <v>-0.107105015191294</v>
+        <v>-0.10710501519137</v>
       </c>
       <c r="H32">
-        <v>-1.09594016166058</v>
+        <v>-1.09594016166089</v>
       </c>
       <c r="I32">
-        <v>-0.383603322953126</v>
+        <v>-0.383603322953203</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -18965,16 +18965,16 @@
         <v>0.00570662598210447</v>
       </c>
       <c r="F33">
-        <v>-0.376965496458286</v>
+        <v>-0.376965496458359</v>
       </c>
       <c r="G33">
-        <v>-0.108186911971391</v>
+        <v>-0.108186911971463</v>
       </c>
       <c r="H33">
-        <v>-0.499630991719801</v>
+        <v>-0.499630991720029</v>
       </c>
       <c r="I33">
-        <v>-0.109066734051817</v>
+        <v>-0.10906673405189</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -18994,16 +18994,16 @@
         <v>0.00585370239827934</v>
       </c>
       <c r="F34">
-        <v>-0.183140823075205</v>
+        <v>-0.183140823075257</v>
       </c>
       <c r="G34">
-        <v>-0.219228825247354</v>
+        <v>-0.219228825247424</v>
       </c>
       <c r="H34">
-        <v>0.308386832032507</v>
+        <v>0.308386832032661</v>
       </c>
       <c r="I34">
-        <v>-0.286860984560541</v>
+        <v>-0.286860984560594</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -19029,7 +19029,7 @@
         <v>-0.115210541630241</v>
       </c>
       <c r="H35">
-        <v>-0.807007902165872</v>
+        <v>-0.807007902165799</v>
       </c>
       <c r="I35">
         <v>-0.245774179554815</v>
@@ -19052,16 +19052,16 @@
         <v>-0.00444346303041834</v>
       </c>
       <c r="F36">
-        <v>-0.103942883459403</v>
+        <v>-0.103942883459387</v>
       </c>
       <c r="G36">
-        <v>-0.0991903852970575</v>
+        <v>-0.0991903852970415</v>
       </c>
       <c r="H36">
-        <v>0.429316291202726</v>
+        <v>0.429316291202519</v>
       </c>
       <c r="I36">
-        <v>-0.291595576307183</v>
+        <v>-0.29159557630715</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -19081,16 +19081,16 @@
         <v>0.00558530826179473</v>
       </c>
       <c r="F37">
-        <v>-0.174697337333512</v>
+        <v>-0.174697337333527</v>
       </c>
       <c r="G37">
-        <v>-0.15061572609768</v>
+        <v>-0.150615726097695</v>
       </c>
       <c r="H37">
-        <v>-0.119750461143366</v>
+        <v>-0.119750461143327</v>
       </c>
       <c r="I37">
-        <v>-0.123562880700936</v>
+        <v>-0.123562880700952</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -19116,10 +19116,10 @@
         <v>-0.251453789588963</v>
       </c>
       <c r="H38">
-        <v>-0.404556851670964</v>
+        <v>-0.404556851670864</v>
       </c>
       <c r="I38">
-        <v>-0.293925926735113</v>
+        <v>-0.293925926735128</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -19139,16 +19139,16 @@
         <v>0.00438755422896039</v>
       </c>
       <c r="F39">
-        <v>-0.191119824678651</v>
+        <v>-0.191119824678722</v>
       </c>
       <c r="G39">
-        <v>-0.132092989230779</v>
+        <v>-0.132092989230849</v>
       </c>
       <c r="H39">
-        <v>-0.474102929410968</v>
+        <v>-0.474102929411194</v>
       </c>
       <c r="I39">
-        <v>-0.238035518400696</v>
+        <v>-0.238035518400768</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -19168,16 +19168,16 @@
         <v>0.00194689893903269</v>
       </c>
       <c r="F40">
-        <v>-0.129620272586851</v>
+        <v>-0.129620272586932</v>
       </c>
       <c r="G40">
-        <v>-0.298650639153854</v>
+        <v>-0.298650639153936</v>
       </c>
       <c r="H40">
-        <v>-0.375993605774399</v>
+        <v>-0.375993605774241</v>
       </c>
       <c r="I40">
-        <v>-0.220959406492888</v>
+        <v>-0.220959406492971</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -19203,7 +19203,7 @@
         <v>-0.24255351631378</v>
       </c>
       <c r="H41">
-        <v>-0.156595802220811</v>
+        <v>-0.15659580222079</v>
       </c>
       <c r="I41">
         <v>-0.230694445555558</v>
@@ -19226,16 +19226,16 @@
         <v>0.00526713864721547</v>
       </c>
       <c r="F42">
-        <v>-0.311260664288643</v>
+        <v>-0.311260664288718</v>
       </c>
       <c r="G42">
-        <v>-0.209223539199671</v>
+        <v>-0.209223539199757</v>
       </c>
       <c r="H42">
-        <v>0.138735693223955</v>
+        <v>0.138735693223995</v>
       </c>
       <c r="I42">
-        <v>-0.257875211851061</v>
+        <v>-0.257875211851137</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -19255,16 +19255,16 @@
         <v>-0.00300359137646584</v>
       </c>
       <c r="F43">
-        <v>-0.305967125543857</v>
+        <v>-0.305967125543821</v>
       </c>
       <c r="G43">
-        <v>-0.192591643867683</v>
+        <v>-0.192591643867636</v>
       </c>
       <c r="H43">
-        <v>0.465350893877847</v>
+        <v>0.465350893877828</v>
       </c>
       <c r="I43">
-        <v>-0.295799041764711</v>
+        <v>-0.295799041764663</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -19284,16 +19284,16 @@
         <v>-0.00139679356713215</v>
       </c>
       <c r="F44">
-        <v>-0.312512193596828</v>
+        <v>-0.312512193596886</v>
       </c>
       <c r="G44">
-        <v>-0.189238286213246</v>
+        <v>-0.189238286213292</v>
       </c>
       <c r="H44">
-        <v>-0.561925012023926</v>
+        <v>-0.561925012023944</v>
       </c>
       <c r="I44">
-        <v>-0.133553216402782</v>
+        <v>-0.13355321640284</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -19313,16 +19313,16 @@
         <v>0.00184468403587808</v>
       </c>
       <c r="F45">
-        <v>-0.133775354251079</v>
+        <v>-0.133775354251057</v>
       </c>
       <c r="G45">
-        <v>-0.198379155592567</v>
+        <v>-0.198379155592545</v>
       </c>
       <c r="H45">
-        <v>-0.2504444203208</v>
+        <v>-0.250444420320514</v>
       </c>
       <c r="I45">
-        <v>-0.192447317822378</v>
+        <v>-0.192447317822356</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -19342,16 +19342,16 @@
         <v>0.000347959848453118</v>
       </c>
       <c r="F46">
-        <v>-0.172702922263229</v>
+        <v>-0.17270292226325</v>
       </c>
       <c r="G46">
-        <v>-0.221839222488089</v>
+        <v>-0.22183922248811</v>
       </c>
       <c r="H46">
-        <v>-0.0474943445288634</v>
+        <v>-0.0474943445287777</v>
       </c>
       <c r="I46">
-        <v>-0.257651953472505</v>
+        <v>-0.257651953472526</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -19371,16 +19371,16 @@
         <v>0.00171321526720315</v>
       </c>
       <c r="F47">
-        <v>-0.228628658580456</v>
+        <v>-0.228628658580536</v>
       </c>
       <c r="G47">
-        <v>-0.264017101374881</v>
+        <v>-0.26401710137496</v>
       </c>
       <c r="H47">
-        <v>-0.000190243780993364</v>
+        <v>-0.000190243780795109</v>
       </c>
       <c r="I47">
-        <v>-0.151715765587833</v>
+        <v>-0.151715765587934</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -19429,16 +19429,16 @@
         <v>0.00519394583990016</v>
       </c>
       <c r="F49">
-        <v>-0.25699133371105</v>
+        <v>-0.256991333711105</v>
       </c>
       <c r="G49">
-        <v>-0.270087974422265</v>
+        <v>-0.27008797442232</v>
       </c>
       <c r="H49">
-        <v>0.541493190448978</v>
+        <v>0.541493190449132</v>
       </c>
       <c r="I49">
-        <v>-0.211179070770896</v>
+        <v>-0.211179070770951</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -19458,16 +19458,16 @@
         <v>0.00505591432638697</v>
       </c>
       <c r="F50">
-        <v>-0.26458220371743</v>
+        <v>-0.264582203717448</v>
       </c>
       <c r="G50">
         <v>-0.110848991185673</v>
       </c>
       <c r="H50">
-        <v>-0.223123425265751</v>
+        <v>-0.223123425265948</v>
       </c>
       <c r="I50">
-        <v>-0.221840901045676</v>
+        <v>-0.221840901045694</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -19487,16 +19487,16 @@
         <v>0.000586335919521803</v>
       </c>
       <c r="F51">
-        <v>-0.192584750339404</v>
+        <v>-0.192584750339438</v>
       </c>
       <c r="G51">
-        <v>-0.189313805357693</v>
+        <v>-0.189313805357744</v>
       </c>
       <c r="H51">
-        <v>-0.300708608642947</v>
+        <v>-0.300708608643215</v>
       </c>
       <c r="I51">
-        <v>-0.143829610586345</v>
+        <v>-0.143829610586379</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -19516,16 +19516,16 @@
         <v>-0.00452154581997366</v>
       </c>
       <c r="F52">
-        <v>-0.220612797685687</v>
+        <v>-0.220612797685703</v>
       </c>
       <c r="G52">
-        <v>-0.210633711214283</v>
+        <v>-0.210633711214299</v>
       </c>
       <c r="H52">
-        <v>0.183468546305612</v>
+        <v>0.183468546305568</v>
       </c>
       <c r="I52">
-        <v>-0.158102919679749</v>
+        <v>-0.158102919679765</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -19545,16 +19545,16 @@
         <v>-0.00160902140821039</v>
       </c>
       <c r="F53">
-        <v>-0.224992415668374</v>
+        <v>-0.224992415668436</v>
       </c>
       <c r="G53">
-        <v>-0.209196621349323</v>
+        <v>-0.209196621349385</v>
       </c>
       <c r="H53">
-        <v>0.0896079079625423</v>
+        <v>0.0896079079626578</v>
       </c>
       <c r="I53">
-        <v>-0.140318450322596</v>
+        <v>-0.140318450322658</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -19574,16 +19574,16 @@
         <v>-0.00214101480255374</v>
       </c>
       <c r="F54">
-        <v>-0.104991689078629</v>
+        <v>-0.104991689078584</v>
       </c>
       <c r="G54">
-        <v>-0.219381619387467</v>
+        <v>-0.219381619387437</v>
       </c>
       <c r="H54">
-        <v>0.393901590133805</v>
+        <v>0.393901590133777</v>
       </c>
       <c r="I54">
-        <v>-0.125905532229954</v>
+        <v>-0.125905532229924</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -19603,16 +19603,16 @@
         <v>-0.00291076749545787</v>
       </c>
       <c r="F55">
-        <v>-0.171053000492826</v>
+        <v>-0.171053000492884</v>
       </c>
       <c r="G55">
-        <v>-0.145260335302053</v>
+        <v>-0.145260335302111</v>
       </c>
       <c r="H55">
-        <v>-0.00582085042540457</v>
+        <v>-0.00582085042537565</v>
       </c>
       <c r="I55">
-        <v>-0.150583087809402</v>
+        <v>-0.150583087809461</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -19632,16 +19632,16 @@
         <v>0.00437993565039048</v>
       </c>
       <c r="F56">
-        <v>-0.191202703645467</v>
+        <v>-0.191202703645509</v>
       </c>
       <c r="G56">
-        <v>-0.160447234722199</v>
+        <v>-0.160447234722255</v>
       </c>
       <c r="H56">
         <v>-0.114770488673096</v>
       </c>
       <c r="I56">
-        <v>-0.123467689408374</v>
+        <v>-0.12346768940843</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -19661,16 +19661,16 @@
         <v>-0.000361617579224448</v>
       </c>
       <c r="F57">
-        <v>-0.212568693970942</v>
+        <v>-0.212568693970956</v>
       </c>
       <c r="G57">
-        <v>-0.176549238677339</v>
+        <v>-0.176549238677352</v>
       </c>
       <c r="H57">
-        <v>0.0693533168719572</v>
+        <v>0.0693533168721211</v>
       </c>
       <c r="I57">
-        <v>-0.21638214804911</v>
+        <v>-0.216382148049124</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -19690,16 +19690,16 @@
         <v>0.00159992293930993</v>
       </c>
       <c r="F58">
-        <v>-0.161288437230361</v>
+        <v>-0.161288437230427</v>
       </c>
       <c r="G58">
-        <v>-0.119557757321984</v>
+        <v>-0.119557757322037</v>
       </c>
       <c r="H58">
-        <v>-0.484918274572947</v>
+        <v>-0.48491827457307</v>
       </c>
       <c r="I58">
-        <v>-0.107118925819797</v>
+        <v>-0.107118925819851</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -19719,16 +19719,16 @@
         <v>0.000207145183119652</v>
       </c>
       <c r="F59">
-        <v>-0.206564013128091</v>
+        <v>-0.20656401312813</v>
       </c>
       <c r="G59">
-        <v>-0.157805009099865</v>
+        <v>-0.157805009099891</v>
       </c>
       <c r="H59">
-        <v>0.571219734554073</v>
+        <v>0.571219734553947</v>
       </c>
       <c r="I59">
-        <v>-0.210959686756965</v>
+        <v>-0.210959686756991</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -19748,16 +19748,16 @@
         <v>-0.000109057657904892</v>
       </c>
       <c r="F60">
-        <v>-0.162721148022591</v>
+        <v>-0.162721148022667</v>
       </c>
       <c r="G60">
-        <v>-0.105677902953972</v>
+        <v>-0.10567790295406</v>
       </c>
       <c r="H60">
-        <v>0.122593519061737</v>
+        <v>0.122593519061687</v>
       </c>
       <c r="I60">
-        <v>-0.108288055415888</v>
+        <v>-0.108288055415964</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -19777,16 +19777,16 @@
         <v>0.00389904466737466</v>
       </c>
       <c r="F61">
-        <v>-0.195243821070023</v>
+        <v>-0.195243821070085</v>
       </c>
       <c r="G61">
-        <v>-0.127649662509679</v>
+        <v>-0.127649662509728</v>
       </c>
       <c r="H61">
-        <v>-0.340341205925734</v>
+        <v>-0.340341205925561</v>
       </c>
       <c r="I61">
-        <v>-0.198795516914568</v>
+        <v>-0.198795516914618</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -19806,16 +19806,16 @@
         <v>-0.00119699371033233</v>
       </c>
       <c r="F62">
-        <v>-0.127882557072988</v>
+        <v>-0.127882557073049</v>
       </c>
       <c r="G62">
-        <v>-0.156898595291525</v>
+        <v>-0.156898595291586</v>
       </c>
       <c r="H62">
-        <v>-0.159468888155571</v>
+        <v>-0.15946888815566</v>
       </c>
       <c r="I62">
-        <v>-0.193647775237414</v>
+        <v>-0.193647775237475</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -19835,16 +19835,16 @@
         <v>0.00232927855314522</v>
       </c>
       <c r="F63">
-        <v>-0.117955086626223</v>
+        <v>-0.117955086626295</v>
       </c>
       <c r="G63">
-        <v>-0.129083792806954</v>
+        <v>-0.129083792807014</v>
       </c>
       <c r="H63">
-        <v>0.268434872234965</v>
+        <v>0.268434872234801</v>
       </c>
       <c r="I63">
-        <v>-0.146035365661955</v>
+        <v>-0.146035365662027</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -19864,16 +19864,16 @@
         <v>0.00112213837783631</v>
       </c>
       <c r="F64">
-        <v>-0.0965006100460056</v>
+        <v>-0.0965006100460296</v>
       </c>
       <c r="G64">
-        <v>-0.193286938782905</v>
+        <v>-0.193286938782929</v>
       </c>
       <c r="H64">
-        <v>0.534988224057792</v>
+        <v>0.534988224057882</v>
       </c>
       <c r="I64">
-        <v>-0.101820863598323</v>
+        <v>-0.101820863598347</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -19899,7 +19899,7 @@
         <v>-0.167927241986425</v>
       </c>
       <c r="H65">
-        <v>0.0629287825136678</v>
+        <v>0.0629287825135801</v>
       </c>
       <c r="I65">
         <v>-0.099627783488241</v>
@@ -19922,16 +19922,16 @@
         <v>-0.00269911544819106</v>
       </c>
       <c r="F66">
-        <v>-0.153175774360096</v>
+        <v>-0.153175774360156</v>
       </c>
       <c r="G66">
-        <v>-0.187563804033669</v>
+        <v>-0.187563804033741</v>
       </c>
       <c r="H66">
-        <v>0.425313319337898</v>
+        <v>0.425313319337767</v>
       </c>
       <c r="I66">
-        <v>-0.170728405176882</v>
+        <v>-0.170728405176954</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -19951,16 +19951,16 @@
         <v>0.00114024119384004</v>
       </c>
       <c r="F67">
-        <v>-0.170891924272314</v>
+        <v>-0.17089192427235</v>
       </c>
       <c r="G67">
-        <v>-0.161759561079435</v>
+        <v>-0.161759561079459</v>
       </c>
       <c r="H67">
-        <v>0.185125976697821</v>
+        <v>0.185125976697731</v>
       </c>
       <c r="I67">
-        <v>-0.120746428861311</v>
+        <v>-0.120746428861335</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -19980,16 +19980,16 @@
         <v>0.00211870458624976</v>
       </c>
       <c r="F68">
-        <v>-0.159842405449964</v>
+        <v>-0.159842405450086</v>
       </c>
       <c r="G68">
-        <v>-0.0952858115449523</v>
+        <v>-0.0952858115450864</v>
       </c>
       <c r="H68">
-        <v>0.0206468848209304</v>
+        <v>0.0206468848208488</v>
       </c>
       <c r="I68">
-        <v>-0.176489131239608</v>
+        <v>-0.17648913123973</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -20009,16 +20009,16 @@
         <v>0.00128445072555148</v>
       </c>
       <c r="F69">
-        <v>-0.114569739132547</v>
+        <v>-0.114569739132647</v>
       </c>
       <c r="G69">
-        <v>-0.202143964747744</v>
+        <v>-0.202143964747844</v>
       </c>
       <c r="H69">
-        <v>0.271296550573649</v>
+        <v>0.271296550573588</v>
       </c>
       <c r="I69">
-        <v>-0.113670630713486</v>
+        <v>-0.113670630713586</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -20038,16 +20038,16 @@
         <v>0.00109400030850899</v>
       </c>
       <c r="F70">
-        <v>-0.129131596739616</v>
+        <v>-0.129131596739667</v>
       </c>
       <c r="G70">
-        <v>-0.128832854193905</v>
+        <v>-0.128832854193955</v>
       </c>
       <c r="H70">
-        <v>0.327264695016927</v>
+        <v>0.327264695016883</v>
       </c>
       <c r="I70">
-        <v>-0.134249790377701</v>
+        <v>-0.134249790377752</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -20067,16 +20067,16 @@
         <v>0.00125839902096023</v>
       </c>
       <c r="F71">
-        <v>-0.174003440542469</v>
+        <v>-0.174003440542548</v>
       </c>
       <c r="G71">
-        <v>-0.175915375772899</v>
+        <v>-0.175915375772977</v>
       </c>
       <c r="H71">
-        <v>-0.177321034432112</v>
+        <v>-0.177321034432092</v>
       </c>
       <c r="I71">
-        <v>-0.205705029382542</v>
+        <v>-0.205705029382621</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -20096,16 +20096,16 @@
         <v>-0.000533989970203695</v>
       </c>
       <c r="F72">
-        <v>-0.201003864703334</v>
+        <v>-0.201003864703266</v>
       </c>
       <c r="G72">
-        <v>-0.176694317473844</v>
+        <v>-0.176694317473776</v>
       </c>
       <c r="H72">
-        <v>-0.109462433842664</v>
+        <v>-0.109462433842645</v>
       </c>
       <c r="I72">
-        <v>-0.15030789080612</v>
+        <v>-0.150307890806051</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -20125,16 +20125,16 @@
         <v>-0.00116666034764331</v>
       </c>
       <c r="F73">
-        <v>-0.137894278442772</v>
+        <v>-0.1378942784429</v>
       </c>
       <c r="G73">
-        <v>-0.176577481583959</v>
+        <v>-0.176577481584071</v>
       </c>
       <c r="H73">
-        <v>0.13433504690555</v>
+        <v>0.134335046905567</v>
       </c>
       <c r="I73">
-        <v>-0.12750905208044</v>
+        <v>-0.127509052080555</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -20154,16 +20154,16 @@
         <v>-0.000988464144576694</v>
       </c>
       <c r="F74">
-        <v>-0.14903261025009</v>
+        <v>-0.149032610250179</v>
       </c>
       <c r="G74">
-        <v>-0.210458825644841</v>
+        <v>-0.210458825644914</v>
       </c>
       <c r="H74">
-        <v>-0.270339268930243</v>
+        <v>-0.270339268930259</v>
       </c>
       <c r="I74">
-        <v>-0.16918833060145</v>
+        <v>-0.169188330601525</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -20183,16 +20183,16 @@
         <v>-0.000858448298053822</v>
       </c>
       <c r="F75">
-        <v>-0.132511630359947</v>
+        <v>-0.132511630360057</v>
       </c>
       <c r="G75">
-        <v>-0.16489469024812</v>
+        <v>-0.164894690248213</v>
       </c>
       <c r="H75">
-        <v>0.280935597823611</v>
+        <v>0.280935597823565</v>
       </c>
       <c r="I75">
-        <v>-0.151620665884842</v>
+        <v>-0.151620665884937</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -20212,16 +20212,16 @@
         <v>-0.000418436422377719</v>
       </c>
       <c r="F76">
-        <v>-0.244702545089515</v>
+        <v>-0.244702545089565</v>
       </c>
       <c r="G76">
-        <v>-0.178618433714975</v>
+        <v>-0.178618433715008</v>
       </c>
       <c r="H76">
-        <v>-0.0457832621746875</v>
+        <v>-0.0457832621746432</v>
       </c>
       <c r="I76">
-        <v>-0.20520395172319</v>
+        <v>-0.205203951723223</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -20241,16 +20241,16 @@
         <v>-0.000463817869773275</v>
       </c>
       <c r="F77">
-        <v>-0.189027443606431</v>
+        <v>-0.189027443606378</v>
       </c>
       <c r="G77">
-        <v>-0.101958707949422</v>
+        <v>-0.101958707949371</v>
       </c>
       <c r="H77">
-        <v>-0.199571994842525</v>
+        <v>-0.199571994842583</v>
       </c>
       <c r="I77">
-        <v>-0.154839796214141</v>
+        <v>-0.154839796214069</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -20270,16 +20270,16 @@
         <v>0.000859305440252853</v>
       </c>
       <c r="F78">
-        <v>-0.246347019952256</v>
+        <v>-0.246347019952312</v>
       </c>
       <c r="G78">
-        <v>-0.228832346992038</v>
+        <v>-0.228832346992074</v>
       </c>
       <c r="H78">
-        <v>-0.236622074211652</v>
+        <v>-0.236622074211722</v>
       </c>
       <c r="I78">
-        <v>-0.109397371939183</v>
+        <v>-0.109397371939221</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -20299,16 +20299,16 @@
         <v>0.00139591478521935</v>
       </c>
       <c r="F79">
-        <v>-0.220160563069251</v>
+        <v>-0.220160563069212</v>
       </c>
       <c r="G79">
-        <v>-0.0717021978788079</v>
+        <v>-0.0717021978787703</v>
       </c>
       <c r="H79">
-        <v>-0.16829315072627</v>
+        <v>-0.168293150726312</v>
       </c>
       <c r="I79">
-        <v>-0.204203091571083</v>
+        <v>-0.204203091571043</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -20328,16 +20328,16 @@
         <v>0.000944137840873976</v>
       </c>
       <c r="F80">
-        <v>-0.226880322182783</v>
+        <v>-0.22688032218295</v>
       </c>
       <c r="G80">
-        <v>-0.120564480201876</v>
+        <v>-0.120564480202033</v>
       </c>
       <c r="H80">
-        <v>0.0312646014333217</v>
+        <v>0.0312646014333078</v>
       </c>
       <c r="I80">
-        <v>-0.239393707954705</v>
+        <v>-0.239393707954873</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -20357,16 +20357,16 @@
         <v>0.000159075497720177</v>
       </c>
       <c r="F81">
-        <v>-0.215496029971037</v>
+        <v>-0.215496029971168</v>
       </c>
       <c r="G81">
-        <v>-0.0682384556342608</v>
+        <v>-0.0682384556343834</v>
       </c>
       <c r="H81">
-        <v>-0.0809578321219584</v>
+        <v>-0.0809578321218885</v>
       </c>
       <c r="I81">
-        <v>-0.205540146216636</v>
+        <v>-0.20554014621679</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -20386,16 +20386,16 @@
         <v>-0.000789696550128357</v>
       </c>
       <c r="F82">
-        <v>-0.161075090118008</v>
+        <v>-0.161075090118098</v>
       </c>
       <c r="G82">
-        <v>0.0138217840091307</v>
+        <v>0.0138217840090465</v>
       </c>
       <c r="H82">
-        <v>0.078189678749121</v>
+        <v>0.0781896787490785</v>
       </c>
       <c r="I82">
-        <v>-0.160810874701424</v>
+        <v>-0.160810874701515</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -20415,16 +20415,16 @@
         <v>-0.000553910440392407</v>
       </c>
       <c r="F83">
-        <v>-0.131112867933983</v>
+        <v>-0.131112867934064</v>
       </c>
       <c r="G83">
-        <v>-0.022718345672198</v>
+        <v>-0.0227183456722626</v>
       </c>
       <c r="H83">
-        <v>0.10798579835434</v>
+        <v>0.10798579835421</v>
       </c>
       <c r="I83">
-        <v>-0.054455303296779</v>
+        <v>-0.0544553032968486</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -20444,16 +20444,16 @@
         <v>0.00165857987144914</v>
       </c>
       <c r="F84">
-        <v>0.0735236215011846</v>
+        <v>0.0735236215011378</v>
       </c>
       <c r="G84">
-        <v>-0.0140299589256082</v>
+        <v>-0.0140299589256518</v>
       </c>
       <c r="H84">
         <v>0.12709259101753</v>
       </c>
       <c r="I84">
-        <v>0.0651359151416007</v>
+        <v>0.0651359151415539</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -20473,16 +20473,16 @@
         <v>0.000568986237969674</v>
       </c>
       <c r="F85">
-        <v>0.0762581208573103</v>
+        <v>0.076258120857112</v>
       </c>
       <c r="G85">
-        <v>-0.0503054614457603</v>
+        <v>-0.0503054614459569</v>
       </c>
       <c r="H85">
-        <v>-0.271293276337609</v>
+        <v>-0.271293276337716</v>
       </c>
       <c r="I85">
-        <v>0.0554730099383859</v>
+        <v>0.0554730099381875</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -20502,16 +20502,16 @@
         <v>-0.000229920808143157</v>
       </c>
       <c r="F86">
-        <v>0.0309175728846177</v>
+        <v>0.03091757288456</v>
       </c>
       <c r="G86">
-        <v>0.11951064859163</v>
+        <v>0.119510648591587</v>
       </c>
       <c r="H86">
-        <v>0.169898438819503</v>
+        <v>0.169898438819487</v>
       </c>
       <c r="I86">
-        <v>0.133613428976002</v>
+        <v>0.133613428975945</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -20531,16 +20531,16 @@
         <v>-0.000246335734282466</v>
       </c>
       <c r="F87">
-        <v>0.0643002465508245</v>
+        <v>0.0643002465508924</v>
       </c>
       <c r="G87">
-        <v>0.130080972145934</v>
+        <v>0.130080972145998</v>
       </c>
       <c r="H87">
-        <v>-0.0593579956818972</v>
+        <v>-0.0593579956818808</v>
       </c>
       <c r="I87">
-        <v>0.0705213407059118</v>
+        <v>0.0705213407059798</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -20560,16 +20560,16 @@
         <v>-0.00093900885007274</v>
       </c>
       <c r="F88">
-        <v>0.119575407798769</v>
+        <v>0.119575407798725</v>
       </c>
       <c r="G88">
-        <v>0.199110518930058</v>
+        <v>0.199110518930016</v>
       </c>
       <c r="H88">
-        <v>-0.243536186130227</v>
+        <v>-0.243536186130176</v>
       </c>
       <c r="I88">
-        <v>0.0571155606535871</v>
+        <v>0.0571155606535206</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -20589,16 +20589,16 @@
         <v>-0.00038801832542844</v>
       </c>
       <c r="F89">
-        <v>0.190691567182815</v>
+        <v>0.190691567182793</v>
       </c>
       <c r="G89">
-        <v>0.170924056980212</v>
+        <v>0.170924056980191</v>
       </c>
       <c r="H89">
-        <v>-0.198376570187687</v>
+        <v>-0.198376570187669</v>
       </c>
       <c r="I89">
-        <v>0.097223325612598</v>
+        <v>0.0972233256125764</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -20618,16 +20618,16 @@
         <v>0.000876315401829945</v>
       </c>
       <c r="F90">
-        <v>0.130739253958676</v>
+        <v>0.130739253958634</v>
       </c>
       <c r="G90">
-        <v>0.107071669536828</v>
+        <v>0.107071669536788</v>
       </c>
       <c r="H90">
-        <v>0.269422185718573</v>
+        <v>0.2694221857185</v>
       </c>
       <c r="I90">
-        <v>0.227764963953807</v>
+        <v>0.227764963953765</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -20647,16 +20647,16 @@
         <v>0.0012235005540684</v>
       </c>
       <c r="F91">
-        <v>0.220251713974946</v>
+        <v>0.220251713974905</v>
       </c>
       <c r="G91">
-        <v>0.271458374173015</v>
+        <v>0.271458374172995</v>
       </c>
       <c r="H91">
-        <v>-0.0192723042995312</v>
+        <v>-0.0192723042995501</v>
       </c>
       <c r="I91">
-        <v>0.147320862969228</v>
+        <v>0.147320862969187</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -20676,16 +20676,16 @@
         <v>-0.000389228561116417</v>
       </c>
       <c r="F92">
-        <v>0.20613562657959</v>
+        <v>0.206135626579509</v>
       </c>
       <c r="G92">
-        <v>0.231830353466096</v>
+        <v>0.231830353466037</v>
       </c>
       <c r="H92">
-        <v>-0.32390493819428</v>
+        <v>-0.32390493819426</v>
       </c>
       <c r="I92">
-        <v>0.162425994879883</v>
+        <v>0.162425994879802</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -20705,16 +20705,16 @@
         <v>-0.00226465898342408</v>
       </c>
       <c r="F93">
-        <v>0.241541328023187</v>
+        <v>0.241541328023167</v>
       </c>
       <c r="G93">
-        <v>0.132236339062558</v>
+        <v>0.132236339062539</v>
       </c>
       <c r="H93">
-        <v>0.13000122586033</v>
+        <v>0.130001225860252</v>
       </c>
       <c r="I93">
-        <v>0.228253827958196</v>
+        <v>0.228253827958176</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -20737,13 +20737,13 @@
         <v>0.317045193571168</v>
       </c>
       <c r="G94">
-        <v>0.298816457628706</v>
+        <v>0.298816457628725</v>
       </c>
       <c r="H94">
-        <v>-0.0522940387149587</v>
+        <v>-0.0522940387148594</v>
       </c>
       <c r="I94">
-        <v>0.155599280303756</v>
+        <v>0.155599280303775</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -20763,16 +20763,16 @@
         <v>0.000706710182120038</v>
       </c>
       <c r="F95">
-        <v>0.271965954887278</v>
+        <v>0.271965954887202</v>
       </c>
       <c r="G95">
-        <v>0.220023184591939</v>
+        <v>0.220023184591884</v>
       </c>
       <c r="H95">
-        <v>-0.213767460506437</v>
+        <v>-0.213767460506456</v>
       </c>
       <c r="I95">
-        <v>0.305680226831502</v>
+        <v>0.305680226831445</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -20798,7 +20798,7 @@
         <v>0.254468107946321</v>
       </c>
       <c r="H96">
-        <v>0.271419654260311</v>
+        <v>0.27141965426037</v>
       </c>
       <c r="I96">
         <v>0.18696701963203</v>
@@ -20821,16 +20821,16 @@
         <v>-0.000277145040119933</v>
       </c>
       <c r="F97">
-        <v>0.297075837980407</v>
+        <v>0.297075837980481</v>
       </c>
       <c r="G97">
-        <v>0.263768698685266</v>
+        <v>0.263768698685302</v>
       </c>
       <c r="H97">
-        <v>-0.145409475802999</v>
+        <v>-0.145409475803156</v>
       </c>
       <c r="I97">
-        <v>0.183677472202263</v>
+        <v>0.183677472202318</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -20856,7 +20856,7 @@
         <v>0.284704599621309</v>
       </c>
       <c r="H98">
-        <v>-0.180544030979865</v>
+        <v>-0.180544030979769</v>
       </c>
       <c r="I98">
         <v>0.172321288586442</v>
@@ -20879,16 +20879,16 @@
         <v>-0.0015022306490667</v>
       </c>
       <c r="F99">
-        <v>0.156949046489687</v>
+        <v>0.156949046489615</v>
       </c>
       <c r="G99">
-        <v>0.197818697941961</v>
+        <v>0.197818697941909</v>
       </c>
       <c r="H99">
-        <v>0.00769778565954469</v>
+        <v>0.00769778565948767</v>
       </c>
       <c r="I99">
-        <v>0.202010603942349</v>
+        <v>0.202010603942295</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -20911,10 +20911,10 @@
         <v>0.286608035687626</v>
       </c>
       <c r="G100">
-        <v>0.200535593987575</v>
+        <v>0.200535593987558</v>
       </c>
       <c r="H100">
-        <v>0.268659605775882</v>
+        <v>0.268659605775733</v>
       </c>
       <c r="I100">
         <v>0.159012021825535</v>
@@ -20937,13 +20937,13 @@
         <v>-2.09502832249161e-05</v>
       </c>
       <c r="F101">
-        <v>0.233090503390501</v>
+        <v>0.233090503390518</v>
       </c>
       <c r="G101">
         <v>0.169229469731267</v>
       </c>
       <c r="H101">
-        <v>-0.194757084496571</v>
+        <v>-0.19475708449646</v>
       </c>
       <c r="I101">
         <v>0.245455418642761</v>
@@ -20966,16 +20966,16 @@
         <v>0.00165002450938491</v>
       </c>
       <c r="F102">
-        <v>0.191423947253328</v>
+        <v>0.19142394725326</v>
       </c>
       <c r="G102">
-        <v>0.130940790026027</v>
+        <v>0.130940790025944</v>
       </c>
       <c r="H102">
-        <v>-0.160645917994764</v>
+        <v>-0.160645917994746</v>
       </c>
       <c r="I102">
-        <v>0.180115415399476</v>
+        <v>0.180115415399391</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -20995,16 +20995,16 @@
         <v>0.000440640379137261</v>
       </c>
       <c r="F103">
-        <v>0.180758664284129</v>
+        <v>0.180758664284179</v>
       </c>
       <c r="G103">
-        <v>0.101280477547553</v>
+        <v>0.101280477547602</v>
       </c>
       <c r="H103">
-        <v>0.247726719282028</v>
+        <v>0.247726719282046</v>
       </c>
       <c r="I103">
-        <v>0.143460708274734</v>
+        <v>0.143460708274784</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -21024,16 +21024,16 @@
         <v>-0.000526009465431067</v>
       </c>
       <c r="F104">
-        <v>0.204255202036955</v>
+        <v>0.204255202036873</v>
       </c>
       <c r="G104">
-        <v>0.0830833513893437</v>
+        <v>0.0830833513892798</v>
       </c>
       <c r="H104">
-        <v>-0.353028471504597</v>
+        <v>-0.353028471504669</v>
       </c>
       <c r="I104">
-        <v>0.141526734347277</v>
+        <v>0.141526734347211</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -21053,16 +21053,16 @@
         <v>0.00136921931949893</v>
       </c>
       <c r="F105">
-        <v>0.104939995752067</v>
+        <v>0.104939995752051</v>
       </c>
       <c r="G105">
-        <v>0.207140674245478</v>
+        <v>0.207140674245447</v>
       </c>
       <c r="H105">
-        <v>-0.0984566718617084</v>
+        <v>-0.0984566718616906</v>
       </c>
       <c r="I105">
-        <v>0.164829938261319</v>
+        <v>0.164829938261303</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -21082,7 +21082,7 @@
         <v>0.00157019423242894</v>
       </c>
       <c r="F106">
-        <v>0.147236765047335</v>
+        <v>0.147236765047319</v>
       </c>
       <c r="G106">
         <v>0.166224203952738</v>
@@ -21111,16 +21111,16 @@
         <v>-0.00145500836412988</v>
       </c>
       <c r="F107">
-        <v>0.144906937508772</v>
+        <v>0.144906937508833</v>
       </c>
       <c r="G107">
-        <v>0.0717326495518247</v>
+        <v>0.0717326495519145</v>
       </c>
       <c r="H107">
-        <v>0.198354096992226</v>
+        <v>0.19835409699219</v>
       </c>
       <c r="I107">
-        <v>0.179154122466119</v>
+        <v>0.179154122466195</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -21140,16 +21140,16 @@
         <v>0.00221398502779132</v>
       </c>
       <c r="F108">
-        <v>0.0508197025603186</v>
+        <v>0.0508197025603782</v>
       </c>
       <c r="G108">
-        <v>0.146773374110619</v>
+        <v>0.146773374110678</v>
       </c>
       <c r="H108">
-        <v>0.201026937723983</v>
+        <v>0.201026937724019</v>
       </c>
       <c r="I108">
-        <v>0.0883109320127256</v>
+        <v>0.0883109320127853</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -21175,7 +21175,7 @@
         <v>0.0697865840208888</v>
       </c>
       <c r="H109">
-        <v>-0.320094309026604</v>
+        <v>-0.320094309026586</v>
       </c>
       <c r="I109">
         <v>0.127807665091468</v>
@@ -21227,16 +21227,16 @@
         <v>0.00188561029545033</v>
       </c>
       <c r="F111">
-        <v>0.0687613910988434</v>
+        <v>0.0687613910988853</v>
       </c>
       <c r="G111">
-        <v>0.00657019179612803</v>
+        <v>0.0065701917961694</v>
       </c>
       <c r="H111">
-        <v>0.04893617624836</v>
+        <v>0.0489361762484186</v>
       </c>
       <c r="I111">
-        <v>0.0527598986228974</v>
+        <v>0.0527598986229394</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -21256,16 +21256,16 @@
         <v>-0.00239991599748016</v>
       </c>
       <c r="F112">
-        <v>0.0313494633405502</v>
+        <v>0.0313494633405915</v>
       </c>
       <c r="G112">
-        <v>0.0155027850068178</v>
+        <v>0.0155027850068585</v>
       </c>
       <c r="H112">
-        <v>-0.123316510398242</v>
+        <v>-0.123316510398221</v>
       </c>
       <c r="I112">
-        <v>0.0537095705549105</v>
+        <v>0.0537095705549518</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -21285,16 +21285,16 @@
         <v>-0.000942177329774434</v>
       </c>
       <c r="F113">
-        <v>-0.0324468521488002</v>
+        <v>-0.0324468521487731</v>
       </c>
       <c r="G113">
-        <v>0.00843373453092997</v>
+        <v>0.00843373453094336</v>
       </c>
       <c r="H113">
-        <v>-0.243779163581194</v>
+        <v>-0.243779163581132</v>
       </c>
       <c r="I113">
-        <v>0.0272007233676466</v>
+        <v>0.0272007233676602</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -21314,16 +21314,16 @@
         <v>0.000426639396473764</v>
       </c>
       <c r="F114">
-        <v>0.0600824712574308</v>
+        <v>0.0600824712573369</v>
       </c>
       <c r="G114">
-        <v>0.0486582871150537</v>
+        <v>0.0486582871149742</v>
       </c>
       <c r="H114">
-        <v>0.0145741146196103</v>
+        <v>0.0145741146196316</v>
       </c>
       <c r="I114">
-        <v>0.0304965610656813</v>
+        <v>0.0304965610655874</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -21343,16 +21343,16 @@
         <v>0.00103787450285451</v>
       </c>
       <c r="F115">
-        <v>0.0126527373927787</v>
+        <v>0.0126527373928586</v>
       </c>
       <c r="G115">
-        <v>-0.0334603991226359</v>
+        <v>-0.0334603991225568</v>
       </c>
       <c r="H115">
-        <v>0.255539986880152</v>
+        <v>0.255539986880217</v>
       </c>
       <c r="I115">
-        <v>0.00525384583387308</v>
+        <v>0.00525384583395304</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -21372,16 +21372,16 @@
         <v>-0.00157398012542825</v>
       </c>
       <c r="F116">
-        <v>0.0238892943995044</v>
+        <v>0.0238892943995708</v>
       </c>
       <c r="G116">
-        <v>-0.0407939234832378</v>
+        <v>-0.040793923483172</v>
       </c>
       <c r="H116">
-        <v>0.0288516694869307</v>
+        <v>0.0288516694868646</v>
       </c>
       <c r="I116">
-        <v>0.023845583051763</v>
+        <v>0.0238455830518294</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -21401,16 +21401,16 @@
         <v>-0.000923334908122221</v>
       </c>
       <c r="F117">
-        <v>-0.0581058569838491</v>
+        <v>-0.0581058569836892</v>
       </c>
       <c r="G117">
-        <v>-0.00363186523254695</v>
+        <v>-0.0036318652323889</v>
       </c>
       <c r="H117">
         <v>0.388771380480025</v>
       </c>
       <c r="I117">
-        <v>-0.0689934008775709</v>
+        <v>-0.0689934008774243</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -21430,16 +21430,16 @@
         <v>-0.0010924546045192</v>
       </c>
       <c r="F118">
-        <v>-0.0117626014981177</v>
+        <v>-0.011762601498064</v>
       </c>
       <c r="G118">
-        <v>-0.0568722400713626</v>
+        <v>-0.0568722400713095</v>
       </c>
       <c r="H118">
         <v>-0.120522253363719</v>
       </c>
       <c r="I118">
-        <v>-0.0539424136901804</v>
+        <v>-0.0539424136901267</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -21459,16 +21459,16 @@
         <v>-0.00126343386066328</v>
       </c>
       <c r="F119">
-        <v>-0.0811633966455097</v>
+        <v>-0.0811633966454554</v>
       </c>
       <c r="G119">
-        <v>-0.0831315527786139</v>
+        <v>-0.0831315527785736</v>
       </c>
       <c r="H119">
-        <v>0.012392607269737</v>
+        <v>0.0123926072698622</v>
       </c>
       <c r="I119">
-        <v>-0.0536647723754795</v>
+        <v>-0.0536647723754388</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -21494,7 +21494,7 @@
         <v>-0.0654523142241642</v>
       </c>
       <c r="H120">
-        <v>-0.208014899743969</v>
+        <v>-0.208014899743949</v>
       </c>
       <c r="I120">
         <v>-0.051992382718096</v>
@@ -21523,7 +21523,7 @@
         <v>-0.0914357693852573</v>
       </c>
       <c r="H121">
-        <v>0.330807614281618</v>
+        <v>0.33080761428158</v>
       </c>
       <c r="I121">
         <v>-0.13772813036879</v>
@@ -21546,16 +21546,16 @@
         <v>0.00165296935129956</v>
       </c>
       <c r="F122">
-        <v>-0.0299648536253352</v>
+        <v>-0.0299648536253208</v>
       </c>
       <c r="G122">
-        <v>-0.108986316361481</v>
+        <v>-0.108986316361466</v>
       </c>
       <c r="H122">
-        <v>-0.127203436618634</v>
+        <v>-0.127203436618561</v>
       </c>
       <c r="I122">
-        <v>-0.125666561646797</v>
+        <v>-0.125666561646783</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -21581,7 +21581,7 @@
         <v>-0.0420126212114271</v>
       </c>
       <c r="H123">
-        <v>0.101085383869421</v>
+        <v>0.101085383869369</v>
       </c>
       <c r="I123">
         <v>-0.0562245827235493</v>
@@ -21604,7 +21604,7 @@
         <v>0.00165230538833169</v>
       </c>
       <c r="F124">
-        <v>-0.103242984007173</v>
+        <v>-0.103242984007142</v>
       </c>
       <c r="G124">
         <v>-0.0586239066427523</v>
@@ -21613,7 +21613,7 @@
         <v>0.0431204590730538</v>
       </c>
       <c r="I124">
-        <v>-0.0916114461448391</v>
+        <v>-0.0916114461448236</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -21633,16 +21633,16 @@
         <v>-0.000254174961962924</v>
       </c>
       <c r="F125">
-        <v>-0.0812066824573754</v>
+        <v>-0.0812066824573114</v>
       </c>
       <c r="G125">
-        <v>-0.19271327843576</v>
+        <v>-0.192713278435714</v>
       </c>
       <c r="H125">
         <v>0.0743886049020939</v>
       </c>
       <c r="I125">
-        <v>-0.109011319914071</v>
+        <v>-0.109011319914006</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -21662,16 +21662,16 @@
         <v>0.00022959333402965</v>
       </c>
       <c r="F126">
-        <v>-0.229407245285255</v>
+        <v>-0.229407245285155</v>
       </c>
       <c r="G126">
-        <v>-0.180651916975431</v>
+        <v>-0.18065191697535</v>
       </c>
       <c r="H126">
         <v>0.00405585134849641</v>
       </c>
       <c r="I126">
-        <v>-0.102040628044289</v>
+        <v>-0.102040628044189</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -21691,16 +21691,16 @@
         <v>0.00124899140592305</v>
       </c>
       <c r="F127">
-        <v>-0.249576336183168</v>
+        <v>-0.249576336182995</v>
       </c>
       <c r="G127">
-        <v>-0.16686758790965</v>
+        <v>-0.166867587909483</v>
       </c>
       <c r="H127">
-        <v>0.257543651553457</v>
+        <v>0.257543651553472</v>
       </c>
       <c r="I127">
-        <v>-0.211436203054516</v>
+        <v>-0.211436203054342</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -21720,16 +21720,16 @@
         <v>-0.00157022723640056</v>
       </c>
       <c r="F128">
-        <v>-0.27043931835887</v>
+        <v>-0.270439318358816</v>
       </c>
       <c r="G128">
-        <v>-0.16382357497981</v>
+        <v>-0.163823574979758</v>
       </c>
       <c r="H128">
-        <v>0.191715424454955</v>
+        <v>0.19171542445497</v>
       </c>
       <c r="I128">
-        <v>-0.276947971209022</v>
+        <v>-0.276947971208968</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -21749,16 +21749,16 @@
         <v>0.000915564897090447</v>
       </c>
       <c r="F129">
-        <v>-0.27628463098493</v>
+        <v>-0.2762846309848</v>
       </c>
       <c r="G129">
-        <v>-0.198969258177747</v>
+        <v>-0.198969258177605</v>
       </c>
       <c r="H129">
-        <v>-0.229573843906179</v>
+        <v>-0.229573843906164</v>
       </c>
       <c r="I129">
-        <v>-0.297410392350989</v>
+        <v>-0.29741039235084</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -21778,16 +21778,16 @@
         <v>0.00105875180067743</v>
       </c>
       <c r="F130">
-        <v>-0.270387108895134</v>
+        <v>-0.270387108895172</v>
       </c>
       <c r="G130">
-        <v>-0.164023490066526</v>
+        <v>-0.164023490066563</v>
       </c>
       <c r="H130">
-        <v>0.0748226079202595</v>
+        <v>0.0748226079203052</v>
       </c>
       <c r="I130">
-        <v>-0.305328434434709</v>
+        <v>-0.305328434434747</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -21807,16 +21807,16 @@
         <v>-0.000623620928765961</v>
       </c>
       <c r="F131">
-        <v>-0.303260414941326</v>
+        <v>-0.303260414941365</v>
       </c>
       <c r="G131">
-        <v>-0.311865406028576</v>
+        <v>-0.311865406028594</v>
       </c>
       <c r="H131">
         <v>0.0405909510505905</v>
       </c>
       <c r="I131">
-        <v>-0.211446222124249</v>
+        <v>-0.211446222124288</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -21836,16 +21836,16 @@
         <v>-0.000349822644293823</v>
       </c>
       <c r="F132">
-        <v>-0.323235868001127</v>
+        <v>-0.323235868001166</v>
       </c>
       <c r="G132">
-        <v>-0.281270211029401</v>
+        <v>-0.281270211029438</v>
       </c>
       <c r="H132">
-        <v>0.278864495672871</v>
+        <v>0.278864495672935</v>
       </c>
       <c r="I132">
-        <v>-0.335995677778383</v>
+        <v>-0.335995677778422</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -21871,7 +21871,7 @@
         <v>-0.25305686087371</v>
       </c>
       <c r="H133">
-        <v>0.307390519863456</v>
+        <v>0.30739051986344</v>
       </c>
       <c r="I133">
         <v>-0.185647273479679</v>
@@ -21894,16 +21894,16 @@
         <v>3.97502243806246e-05</v>
       </c>
       <c r="F134">
-        <v>-0.340765298155083</v>
+        <v>-0.340765298155025</v>
       </c>
       <c r="G134">
-        <v>-0.289045687557726</v>
+        <v>-0.289045687557669</v>
       </c>
       <c r="H134">
-        <v>0.210026539225963</v>
+        <v>0.21002653922598</v>
       </c>
       <c r="I134">
-        <v>-0.201484272040343</v>
+        <v>-0.201484272040284</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -21923,16 +21923,16 @@
         <v>1.77773478337743e-05</v>
       </c>
       <c r="F135">
-        <v>-0.246180999604679</v>
+        <v>-0.246180999604602</v>
       </c>
       <c r="G135">
-        <v>-0.315606581288384</v>
+        <v>-0.315606581288309</v>
       </c>
       <c r="H135">
-        <v>0.0939731771259817</v>
+        <v>0.0939731771260179</v>
       </c>
       <c r="I135">
-        <v>-0.333890819812021</v>
+        <v>-0.333890819811944</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -21952,16 +21952,16 @@
         <v>0.000965611430929945</v>
       </c>
       <c r="F136">
-        <v>-0.248556366008928</v>
+        <v>-0.248556366009005</v>
       </c>
       <c r="G136">
-        <v>-0.281883244321069</v>
+        <v>-0.281883244321162</v>
       </c>
       <c r="H136">
-        <v>0.0990036331014576</v>
+        <v>0.0990036331013999</v>
       </c>
       <c r="I136">
-        <v>-0.210229430067691</v>
+        <v>-0.210229430067767</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -21984,13 +21984,13 @@
         <v>-0.169435961797756</v>
       </c>
       <c r="G137">
-        <v>-0.148314217283493</v>
+        <v>-0.148314217283474</v>
       </c>
       <c r="H137">
-        <v>-0.332773543602858</v>
+        <v>-0.332773543602734</v>
       </c>
       <c r="I137">
-        <v>-0.160062961778276</v>
+        <v>-0.160062961778257</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -22010,16 +22010,16 @@
         <v>0.000966606406864046</v>
       </c>
       <c r="F138">
-        <v>-0.155425339291082</v>
+        <v>-0.155425339291046</v>
       </c>
       <c r="G138">
-        <v>-0.199516016605933</v>
+        <v>-0.199516016605915</v>
       </c>
       <c r="H138">
         <v>-0.328323832153348</v>
       </c>
       <c r="I138">
-        <v>-0.153151145376851</v>
+        <v>-0.153151145376833</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -22039,16 +22039,16 @@
         <v>-0.000760366959861571</v>
       </c>
       <c r="F139">
-        <v>-0.158552737136216</v>
+        <v>-0.158552737136162</v>
       </c>
       <c r="G139">
-        <v>-0.215276686240695</v>
+        <v>-0.215276686240659</v>
       </c>
       <c r="H139">
-        <v>0.413824010899366</v>
+        <v>0.413824010899427</v>
       </c>
       <c r="I139">
-        <v>-0.145025996891148</v>
+        <v>-0.145025996891112</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -22068,16 +22068,16 @@
         <v>0.00207227945656126</v>
       </c>
       <c r="F140">
-        <v>-0.270922738148136</v>
+        <v>-0.270922738148065</v>
       </c>
       <c r="G140">
-        <v>-0.130371642786604</v>
+        <v>-0.130371642786551</v>
       </c>
       <c r="H140">
         <v>0.391240149306531</v>
       </c>
       <c r="I140">
-        <v>-0.234320553757101</v>
+        <v>-0.234320553757048</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -22097,16 +22097,16 @@
         <v>0.000906126551277142</v>
       </c>
       <c r="F141">
-        <v>-0.244246925892114</v>
+        <v>-0.244246925892044</v>
       </c>
       <c r="G141">
-        <v>-0.177439863253217</v>
+        <v>-0.177439863253148</v>
       </c>
       <c r="H141">
-        <v>-0.429417459348685</v>
+        <v>-0.429417459348597</v>
       </c>
       <c r="I141">
-        <v>-0.179016165196415</v>
+        <v>-0.179016165196345</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -22129,13 +22129,13 @@
         <v>-0.135507084380209</v>
       </c>
       <c r="G142">
-        <v>-0.100433424732143</v>
+        <v>-0.100433424732109</v>
       </c>
       <c r="H142">
         <v>0.255383512273982</v>
       </c>
       <c r="I142">
-        <v>-0.19701485423056</v>
+        <v>-0.197014854230542</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -22155,16 +22155,16 @@
         <v>0.000602993208098076</v>
       </c>
       <c r="F143">
-        <v>-0.135425134798867</v>
+        <v>-0.135425134798816</v>
       </c>
       <c r="G143">
-        <v>-0.0959927756667491</v>
+        <v>-0.0959927756666982</v>
       </c>
       <c r="H143">
-        <v>0.597438262419107</v>
+        <v>0.59743826241936</v>
       </c>
       <c r="I143">
-        <v>-0.1708139262071</v>
+        <v>-0.170813926207066</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -22190,7 +22190,7 @@
         <v>-0.18925594389306</v>
       </c>
       <c r="H144">
-        <v>0.694977845649232</v>
+        <v>0.694977845649292</v>
       </c>
       <c r="I144">
         <v>-0.125180559624604</v>
@@ -22213,16 +22213,16 @@
         <v>-4.08786055385355e-05</v>
       </c>
       <c r="F145">
-        <v>-0.219612805524977</v>
+        <v>-0.219612805524994</v>
       </c>
       <c r="G145">
-        <v>-0.0911611963728274</v>
+        <v>-0.0911611963728611</v>
       </c>
       <c r="H145">
-        <v>0.691067753994137</v>
+        <v>0.69106775399444</v>
       </c>
       <c r="I145">
-        <v>-0.223639382556774</v>
+        <v>-0.223639382556791</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -22271,16 +22271,16 @@
         <v>0.00198821579771279</v>
       </c>
       <c r="F147">
-        <v>-0.082873107392324</v>
+        <v>-0.082873107392307</v>
       </c>
       <c r="G147">
-        <v>-0.0937828478687715</v>
+        <v>-0.0937828478687546</v>
       </c>
       <c r="H147">
-        <v>-0.827139366955964</v>
+        <v>-0.827139366955936</v>
       </c>
       <c r="I147">
-        <v>-0.0862594215855676</v>
+        <v>-0.0862594215855506</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -22300,16 +22300,16 @@
         <v>0.00131430356444275</v>
       </c>
       <c r="F148">
-        <v>-0.121983455985121</v>
+        <v>-0.121983455985087</v>
       </c>
       <c r="G148">
-        <v>-0.183151513849111</v>
+        <v>-0.183151513849094</v>
       </c>
       <c r="H148">
-        <v>-0.182021781526498</v>
+        <v>-0.182021781526216</v>
       </c>
       <c r="I148">
-        <v>-0.135380016515202</v>
+        <v>-0.135380016515185</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -22329,16 +22329,16 @@
         <v>-0.00232366547400315</v>
       </c>
       <c r="F149">
-        <v>-0.110533172502732</v>
+        <v>-0.110533172502698</v>
       </c>
       <c r="G149">
-        <v>-0.0590148769484789</v>
+        <v>-0.0590148769484618</v>
       </c>
       <c r="H149">
-        <v>0.871724843259718</v>
+        <v>0.871724843259331</v>
       </c>
       <c r="I149">
-        <v>-0.139597717291283</v>
+        <v>-0.139597717291248</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -22358,16 +22358,16 @@
         <v>-0.00402556671299552</v>
       </c>
       <c r="F150">
-        <v>-0.183548766130786</v>
+        <v>-0.183548766130716</v>
       </c>
       <c r="G150">
-        <v>-0.164913727337764</v>
+        <v>-0.164913727337695</v>
       </c>
       <c r="H150">
-        <v>-0.28968084760824</v>
+        <v>-0.289680847608094</v>
       </c>
       <c r="I150">
-        <v>-0.076830426033034</v>
+        <v>-0.0768304260329646</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -22387,16 +22387,16 @@
         <v>0.00243890410834516</v>
       </c>
       <c r="F151">
-        <v>-0.164081518585834</v>
+        <v>-0.164081518585799</v>
       </c>
       <c r="G151">
-        <v>-0.172885049573751</v>
+        <v>-0.172885049573716</v>
       </c>
       <c r="H151">
-        <v>0.459454674201122</v>
+        <v>0.459454674201024</v>
       </c>
       <c r="I151">
-        <v>-0.0793260797520834</v>
+        <v>-0.0793260797520482</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -22416,16 +22416,16 @@
         <v>0.0037245788703498</v>
       </c>
       <c r="F152">
-        <v>-0.185341323189117</v>
+        <v>-0.185341323189188</v>
       </c>
       <c r="G152">
-        <v>-0.0570568149830514</v>
+        <v>-0.0570568149831225</v>
       </c>
       <c r="H152">
-        <v>0.293252761529531</v>
+        <v>0.293252761529712</v>
       </c>
       <c r="I152">
-        <v>-0.124890307826967</v>
+        <v>-0.124890307827038</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -22448,13 +22448,13 @@
         <v>-0.0620293106077901</v>
       </c>
       <c r="G153">
-        <v>-0.113603219103767</v>
+        <v>-0.113603219103786</v>
       </c>
       <c r="H153">
-        <v>1.06731575832408</v>
+        <v>1.06731575832395</v>
       </c>
       <c r="I153">
-        <v>-0.190352614916643</v>
+        <v>-0.190352614916661</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -22474,16 +22474,16 @@
         <v>0.0028990825900192</v>
       </c>
       <c r="F154">
-        <v>-0.0937032708334318</v>
+        <v>-0.0937032708333764</v>
       </c>
       <c r="G154">
-        <v>-0.162210618133153</v>
+        <v>-0.162210618133098</v>
       </c>
       <c r="H154">
-        <v>0.00341441288417842</v>
+        <v>0.00341441288454954</v>
       </c>
       <c r="I154">
-        <v>-0.0853445759199383</v>
+        <v>-0.0853445759198828</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -22503,16 +22503,16 @@
         <v>0.00601249260401519</v>
       </c>
       <c r="F155">
-        <v>-0.0956791708349447</v>
+        <v>-0.0956791708349259</v>
       </c>
       <c r="G155">
         <v>-0.179098080535677</v>
       </c>
       <c r="H155">
-        <v>-0.852911621167206</v>
+        <v>-0.852911621167319</v>
       </c>
       <c r="I155">
-        <v>-0.113865138976623</v>
+        <v>-0.113865138976605</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -22532,16 +22532,16 @@
         <v>-0.00218230451474338</v>
       </c>
       <c r="F156">
-        <v>-0.0424716492926533</v>
+        <v>-0.0424716492925956</v>
       </c>
       <c r="G156">
-        <v>-0.139252650824716</v>
+        <v>-0.139252650824658</v>
       </c>
       <c r="H156">
-        <v>0.522796793889148</v>
+        <v>0.522796793889179</v>
       </c>
       <c r="I156">
-        <v>-0.0866353917526185</v>
+        <v>-0.0866353917525606</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -22561,16 +22561,16 @@
         <v>0.00829490347262485</v>
       </c>
       <c r="F157">
-        <v>-0.0845622591082136</v>
+        <v>-0.0845622591081742</v>
       </c>
       <c r="G157">
-        <v>-0.193405469841048</v>
+        <v>-0.193405469841009</v>
       </c>
       <c r="H157">
-        <v>-0.572402569956636</v>
+        <v>-0.572402569956776</v>
       </c>
       <c r="I157">
-        <v>-0.15401965462601</v>
+        <v>-0.154019654625971</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -22590,16 +22590,16 @@
         <v>0.00456619968831611</v>
       </c>
       <c r="F158">
-        <v>-0.0256758104158638</v>
+        <v>-0.0256758104158839</v>
       </c>
       <c r="G158">
-        <v>-0.145712715296803</v>
+        <v>-0.145712715296823</v>
       </c>
       <c r="H158">
-        <v>0.275534694842577</v>
+        <v>0.275534694842455</v>
       </c>
       <c r="I158">
-        <v>-0.118931386845632</v>
+        <v>-0.118931386845653</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -22619,16 +22619,16 @@
         <v>0.00362325368480246</v>
       </c>
       <c r="F159">
-        <v>-0.0237999763079936</v>
+        <v>-0.0237999763080143</v>
       </c>
       <c r="G159">
-        <v>-0.154286083573855</v>
+        <v>-0.154286083573876</v>
       </c>
       <c r="H159">
-        <v>0.772677930681499</v>
+        <v>0.772677930681256</v>
       </c>
       <c r="I159">
-        <v>-0.139475375487809</v>
+        <v>-0.139475375487829</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -22648,16 +22648,16 @@
         <v>0.00443151370793096</v>
       </c>
       <c r="F160">
-        <v>-0.0643850963282259</v>
+        <v>-0.0643850963281621</v>
       </c>
       <c r="G160">
-        <v>-0.204777921030963</v>
+        <v>-0.20477792103092</v>
       </c>
       <c r="H160">
-        <v>0.910980395471074</v>
+        <v>0.910980395471377</v>
       </c>
       <c r="I160">
-        <v>-0.200891151096044</v>
+        <v>-0.200891151096001</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -22677,16 +22677,16 @@
         <v>0.00349879480859034</v>
       </c>
       <c r="F161">
-        <v>-0.13332447912834</v>
+        <v>-0.133324479128318</v>
       </c>
       <c r="G161">
-        <v>-0.0866084977371694</v>
+        <v>-0.0866084977371476</v>
       </c>
       <c r="H161">
         <v>0.695762917216456</v>
       </c>
       <c r="I161">
-        <v>-0.0914825202972719</v>
+        <v>-0.09148252029725</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -22706,16 +22706,16 @@
         <v>-0.00226384402925073</v>
       </c>
       <c r="F162">
-        <v>-0.0144030065742774</v>
+        <v>-0.0144030065742549</v>
       </c>
       <c r="G162">
-        <v>-0.173680344757145</v>
+        <v>-0.173680344757111</v>
       </c>
       <c r="H162">
-        <v>0.138676313507457</v>
+        <v>0.138676313507441</v>
       </c>
       <c r="I162">
-        <v>-0.186395214911226</v>
+        <v>-0.186395214911192</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -22735,16 +22735,16 @@
         <v>-0.00829608940382737</v>
       </c>
       <c r="F163">
-        <v>-0.0929784788955616</v>
+        <v>-0.0929784788955384</v>
       </c>
       <c r="G163">
-        <v>-0.0529323182895814</v>
+        <v>-0.0529323182895583</v>
       </c>
       <c r="H163">
-        <v>-0.746353256596553</v>
+        <v>-0.746353256596647</v>
       </c>
       <c r="I163">
-        <v>-0.0707202370519122</v>
+        <v>-0.0707202370518889</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -22764,16 +22764,16 @@
         <v>0.00821688079957118</v>
       </c>
       <c r="F164">
-        <v>-0.159026290096405</v>
+        <v>-0.159026290096369</v>
       </c>
       <c r="G164">
-        <v>-0.121628014993677</v>
+        <v>-0.121628014993641</v>
       </c>
       <c r="H164">
-        <v>0.320098647729409</v>
+        <v>0.320098647729597</v>
       </c>
       <c r="I164">
-        <v>-0.143305207638482</v>
+        <v>-0.143305207638434</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -22793,16 +22793,16 @@
         <v>-0.00139984005672406</v>
       </c>
       <c r="F165">
-        <v>-0.199374207326972</v>
+        <v>-0.199374207326935</v>
       </c>
       <c r="G165">
-        <v>-0.164291856166837</v>
+        <v>-0.164291856166812</v>
       </c>
       <c r="H165">
-        <v>-1.14666836599844</v>
+        <v>-1.14666836599837</v>
       </c>
       <c r="I165">
-        <v>-0.18769057297857</v>
+        <v>-0.187690572978545</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -22822,16 +22822,16 @@
         <v>-0.000450496846569532</v>
       </c>
       <c r="F166">
-        <v>-0.200918883396857</v>
+        <v>-0.200918883396781</v>
       </c>
       <c r="G166">
-        <v>-0.167875976905195</v>
+        <v>-0.167875976905132</v>
       </c>
       <c r="H166">
-        <v>-0.558294133211492</v>
+        <v>-0.558294133211476</v>
       </c>
       <c r="I166">
-        <v>-0.190718530584277</v>
+        <v>-0.190718530584213</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -22851,16 +22851,16 @@
         <v>-0.00942930023579499</v>
       </c>
       <c r="F167">
-        <v>-0.150574724530153</v>
+        <v>-0.150574724530127</v>
       </c>
       <c r="G167">
-        <v>-0.119340530806272</v>
+        <v>-0.119340530806245</v>
       </c>
       <c r="H167">
-        <v>-0.152110079272713</v>
+        <v>-0.152110079272796</v>
       </c>
       <c r="I167">
-        <v>-0.139261341537214</v>
+        <v>-0.139261341537188</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -22880,16 +22880,16 @@
         <v>-0.00200760623033196</v>
       </c>
       <c r="F168">
-        <v>-0.0352287764306765</v>
+        <v>-0.0352287764306901</v>
       </c>
       <c r="G168">
-        <v>-0.00561052841162631</v>
+        <v>-0.00561052841163985</v>
       </c>
       <c r="H168">
-        <v>0.0975211997475351</v>
+        <v>0.0975211997475013</v>
       </c>
       <c r="I168">
-        <v>-0.0201739695999462</v>
+        <v>-0.0201739695999598</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -22909,16 +22909,16 @@
         <v>-0.00685585313312488</v>
       </c>
       <c r="F169">
-        <v>-0.0938264504190001</v>
+        <v>-0.0938264504190141</v>
       </c>
       <c r="G169">
-        <v>-0.0655919712942269</v>
+        <v>-0.0655919712942549</v>
       </c>
       <c r="H169">
-        <v>0.214042942091526</v>
+        <v>0.214042942091457</v>
       </c>
       <c r="I169">
-        <v>-0.0736033359560974</v>
+        <v>-0.0736033359561256</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -22938,16 +22938,16 @@
         <v>-0.0058892492917521</v>
       </c>
       <c r="F170">
-        <v>-0.0779482321459434</v>
+        <v>-0.0779482321459145</v>
       </c>
       <c r="G170">
-        <v>-0.0509648214023575</v>
+        <v>-0.0509648214023286</v>
       </c>
       <c r="H170">
-        <v>0.219015954046525</v>
+        <v>0.219015954046242</v>
       </c>
       <c r="I170">
-        <v>-0.0500193329198863</v>
+        <v>-0.0500193329198572</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -22967,16 +22967,16 @@
         <v>0.0119337716824812</v>
       </c>
       <c r="F171">
-        <v>-0.244737684588416</v>
+        <v>-0.244737684588356</v>
       </c>
       <c r="G171">
-        <v>-0.218824817491047</v>
+        <v>-0.218824817490987</v>
       </c>
       <c r="H171">
-        <v>0.132421874048678</v>
+        <v>0.132421874049005</v>
       </c>
       <c r="I171">
-        <v>-0.207909893012438</v>
+        <v>-0.207909893012378</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -22996,16 +22996,16 @@
         <v>-0.00381861411088467</v>
       </c>
       <c r="F172">
-        <v>-0.0519920282113097</v>
+        <v>-0.0519920282112477</v>
       </c>
       <c r="G172">
-        <v>-0.0271274812343205</v>
+        <v>-0.0271274812342586</v>
       </c>
       <c r="H172">
-        <v>-0.0270565450368903</v>
+        <v>-0.0270565450364962</v>
       </c>
       <c r="I172">
-        <v>-0.00241493095951014</v>
+        <v>-0.00241493095944794</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -23025,16 +23025,16 @@
         <v>-0.0128312393536618</v>
       </c>
       <c r="F173">
-        <v>-0.0359846533381341</v>
+        <v>-0.0359846533380701</v>
       </c>
       <c r="G173">
-        <v>-0.0120228239885767</v>
+        <v>-0.0120228239885287</v>
       </c>
       <c r="H173">
-        <v>-0.241783663889407</v>
+        <v>-0.241783663889272</v>
       </c>
       <c r="I173">
-        <v>0.0274184496116985</v>
+        <v>0.0274184496117468</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -23054,13 +23054,13 @@
         <v>0.00997340023137142</v>
       </c>
       <c r="F174">
-        <v>-0.213797392737975</v>
+        <v>-0.213797392737992</v>
       </c>
       <c r="G174">
-        <v>-0.190606524010091</v>
+        <v>-0.190606524010074</v>
       </c>
       <c r="H174">
-        <v>-0.494948463492194</v>
+        <v>-0.494948463491994</v>
       </c>
       <c r="I174">
         <v>-0.135683032542145</v>
@@ -23089,7 +23089,7 @@
         <v>0.0350166811235742</v>
       </c>
       <c r="H175">
-        <v>-0.770369725532559</v>
+        <v>-0.770369725532662</v>
       </c>
       <c r="I175">
         <v>-0.200852682570673</v>
@@ -23112,16 +23112,16 @@
         <v>0.00804672441812917</v>
       </c>
       <c r="F176">
-        <v>-0.271635622128768</v>
+        <v>-0.271635622128751</v>
       </c>
       <c r="G176">
-        <v>-0.249841646389258</v>
+        <v>-0.249841646389241</v>
       </c>
       <c r="H176">
-        <v>-1.05232623478582</v>
+        <v>-1.05232623478562</v>
       </c>
       <c r="I176">
-        <v>-0.157166592292705</v>
+        <v>-0.157166592292687</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -23141,16 +23141,16 @@
         <v>-0.00894650762366863</v>
       </c>
       <c r="F177">
-        <v>-0.129625277362882</v>
+        <v>-0.12962527736279</v>
       </c>
       <c r="G177">
-        <v>-0.108475181909638</v>
+        <v>-0.108475181909546</v>
       </c>
       <c r="H177">
-        <v>-1.32540902500848</v>
+        <v>-1.32540902500823</v>
       </c>
       <c r="I177">
-        <v>0.00648812737028639</v>
+        <v>0.00648812737036015</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -23170,16 +23170,16 @@
         <v>-0.00706674045604782</v>
       </c>
       <c r="F178">
-        <v>-0.200624957094466</v>
+        <v>-0.200624957094485</v>
       </c>
       <c r="G178">
-        <v>-0.180022240537556</v>
+        <v>-0.180022240537594</v>
       </c>
       <c r="H178">
-        <v>-1.57439273688643</v>
+        <v>-1.57439273688631</v>
       </c>
       <c r="I178">
-        <v>-0.0423634383277443</v>
+        <v>-0.0423634383277825</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -23205,7 +23205,7 @@
         <v>-0.134897062980914</v>
       </c>
       <c r="H179">
-        <v>1.60868073005097</v>
+        <v>1.60868073005118</v>
       </c>
       <c r="I179">
         <v>0.0276197883682248</v>
@@ -23228,16 +23228,16 @@
         <v>0.00409528458994378</v>
       </c>
       <c r="F180">
-        <v>0.0178520305024624</v>
+        <v>0.0178520305023811</v>
       </c>
       <c r="G180">
-        <v>0.0374170598150633</v>
+        <v>0.037417059814982</v>
       </c>
       <c r="H180">
-        <v>1.57573230756843</v>
+        <v>1.57573230756833</v>
       </c>
       <c r="I180">
-        <v>-0.14120706662493</v>
+        <v>-0.141207066625011</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -23260,13 +23260,13 @@
         <v>-0.050401120437464</v>
       </c>
       <c r="G181">
-        <v>-0.0312644267535503</v>
+        <v>-0.0312644267535082</v>
       </c>
       <c r="H181">
-        <v>1.6187607342562</v>
+        <v>1.61876073425636</v>
       </c>
       <c r="I181">
-        <v>-0.19556337508192</v>
+        <v>-0.195563375081899</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -23286,16 +23286,16 @@
         <v>0.011348433778497</v>
       </c>
       <c r="F182">
-        <v>0.00385767592377223</v>
+        <v>0.00385767592375046</v>
       </c>
       <c r="G182">
-        <v>0.0225737346479294</v>
+        <v>0.0225737346479076</v>
       </c>
       <c r="H182">
-        <v>1.75337034708912</v>
+        <v>1.75337034708921</v>
       </c>
       <c r="I182">
-        <v>-0.125769183366564</v>
+        <v>-0.125769183366586</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -23315,16 +23315,16 @@
         <v>0.012022868712371</v>
       </c>
       <c r="F183">
-        <v>-0.215222321041328</v>
+        <v>-0.215222321041317</v>
       </c>
       <c r="G183">
-        <v>-0.196848610165297</v>
+        <v>-0.196848610165286</v>
       </c>
       <c r="H183">
-        <v>-1.92475147309847</v>
+        <v>-1.92475147309851</v>
       </c>
       <c r="I183">
-        <v>0.0780482943740547</v>
+        <v>0.078048294374066</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -23344,16 +23344,16 @@
         <v>0.000223447067738231</v>
       </c>
       <c r="F184">
-        <v>-0.31987253870692</v>
+        <v>-0.319872538706967</v>
       </c>
       <c r="G184">
-        <v>-0.301838592011846</v>
+        <v>-0.301838592011892</v>
       </c>
       <c r="H184">
-        <v>-1.7071467162699</v>
+        <v>-1.70714671627035</v>
       </c>
       <c r="I184">
-        <v>0.00403543054240967</v>
+        <v>0.00403543054237454</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -23373,16 +23373,16 @@
         <v>0.00859355358315942</v>
       </c>
       <c r="F185">
-        <v>-0.301125352846732</v>
+        <v>-0.301125352846792</v>
       </c>
       <c r="G185">
-        <v>-0.283431518739488</v>
+        <v>-0.28343151873956</v>
       </c>
       <c r="H185">
-        <v>-1.35610219839009</v>
+        <v>-1.35610219839018</v>
       </c>
       <c r="I185">
-        <v>0.0553567762745934</v>
+        <v>0.0553567762745208</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -23402,16 +23402,16 @@
         <v>-0.011051895643029</v>
       </c>
       <c r="F186">
-        <v>-0.149832018336783</v>
+        <v>-0.149832018336733</v>
       </c>
       <c r="G186">
-        <v>-0.132481329213892</v>
+        <v>-0.132481329213829</v>
       </c>
       <c r="H186">
-        <v>-0.854767598501887</v>
+        <v>-0.854767598502087</v>
       </c>
       <c r="I186">
-        <v>-0.21023533393866</v>
+        <v>-0.210235333938597</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -23431,16 +23431,16 @@
         <v>0.00152729636836051</v>
       </c>
       <c r="F187">
-        <v>-0.321109396184875</v>
+        <v>-0.321109396184888</v>
       </c>
       <c r="G187">
-        <v>-0.304028271287086</v>
+        <v>-0.304028271287098</v>
       </c>
       <c r="H187">
-        <v>-0.185827531043216</v>
+        <v>-0.185827531043754</v>
       </c>
       <c r="I187">
-        <v>0.103981505262214</v>
+        <v>0.103981505262201</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -23460,16 +23460,16 @@
         <v>-0.00270150850100443</v>
       </c>
       <c r="F188">
-        <v>0.10765878252266</v>
+        <v>0.10765878252254</v>
       </c>
       <c r="G188">
-        <v>0.124384825927636</v>
+        <v>0.124384825927529</v>
       </c>
       <c r="H188">
-        <v>0.668539071771452</v>
+        <v>0.668539071771403</v>
       </c>
       <c r="I188">
-        <v>0.0884175305849231</v>
+        <v>0.0884175305848161</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -23489,16 +23489,16 @@
         <v>0.00943026509599335</v>
       </c>
       <c r="F189">
-        <v>-0.295957476115216</v>
+        <v>-0.295957476115258</v>
       </c>
       <c r="G189">
-        <v>-0.279432720792615</v>
+        <v>-0.279432720792643</v>
       </c>
       <c r="H189">
-        <v>1.72669629128209</v>
+        <v>1.7266962912819</v>
       </c>
       <c r="I189">
-        <v>-0.296188268423511</v>
+        <v>-0.296188268423539</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -23518,16 +23518,16 @@
         <v>-0.0131635412154617</v>
       </c>
       <c r="F190">
-        <v>-0.0827123000882438</v>
+        <v>-0.0827123000881868</v>
       </c>
       <c r="G190">
-        <v>-0.0664780706573935</v>
+        <v>-0.0664780706573508</v>
       </c>
       <c r="H190">
         <v>-2.09727817874642</v>
       </c>
       <c r="I190">
-        <v>-0.0601581645043004</v>
+        <v>-0.0601581645042574</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -23547,16 +23547,16 @@
         <v>-0.00905472823845506</v>
       </c>
       <c r="F191">
-        <v>-0.254646755603554</v>
+        <v>-0.25464675560354</v>
       </c>
       <c r="G191">
-        <v>-0.238628789872585</v>
+        <v>-0.23862878987257</v>
       </c>
       <c r="H191">
-        <v>-0.77308815748986</v>
+        <v>-0.773088157489749</v>
       </c>
       <c r="I191">
-        <v>-0.21053635240318</v>
+        <v>-0.210536352403165</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -23579,10 +23579,10 @@
         <v>-0.307850735423056</v>
       </c>
       <c r="G192">
-        <v>-0.292057978231644</v>
+        <v>-0.292057978231659</v>
       </c>
       <c r="H192">
-        <v>0.805605963292277</v>
+        <v>0.805605963291917</v>
       </c>
       <c r="I192">
         <v>-0.240943262677324</v>
@@ -23605,16 +23605,16 @@
         <v>0.0135507519937945</v>
       </c>
       <c r="F193">
-        <v>-0.234783543765011</v>
+        <v>-0.234783543764963</v>
       </c>
       <c r="G193">
-        <v>-0.219226249047355</v>
+        <v>-0.219226249047307</v>
       </c>
       <c r="H193">
-        <v>2.65947193592282</v>
+        <v>2.65947193592344</v>
       </c>
       <c r="I193">
-        <v>-0.143839982560454</v>
+        <v>-0.143839982560407</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -23640,7 +23640,7 @@
         <v>-0.0124480881923482</v>
       </c>
       <c r="H194">
-        <v>-1.13951607708006</v>
+        <v>-1.13951607707993</v>
       </c>
       <c r="I194">
         <v>0.0884585738552355</v>
@@ -23663,16 +23663,16 @@
         <v>-0.00528499463184594</v>
       </c>
       <c r="F195">
-        <v>-0.28305677835214</v>
+        <v>-0.28305677835209</v>
       </c>
       <c r="G195">
-        <v>-0.267914779275563</v>
+        <v>-0.267914779275479</v>
       </c>
       <c r="H195">
-        <v>1.09745529445185</v>
+        <v>1.09745529445178</v>
       </c>
       <c r="I195">
-        <v>-0.143143811001336</v>
+        <v>-0.143143811001269</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -23692,16 +23692,16 @@
         <v>-0.0024257498322801</v>
       </c>
       <c r="F196">
-        <v>0.195870724479401</v>
+        <v>0.195870724479384</v>
       </c>
       <c r="G196">
-        <v>-0.412941699728321</v>
+        <v>-0.412941699728339</v>
       </c>
       <c r="H196">
-        <v>-2.75511430420916</v>
+        <v>-2.75511430420958</v>
       </c>
       <c r="I196">
-        <v>-0.263173068292533</v>
+        <v>-0.263173068292551</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -23721,13 +23721,13 @@
         <v>-0.0070691600491366</v>
       </c>
       <c r="F197">
-        <v>0.188241774995223</v>
+        <v>0.188241774995205</v>
       </c>
       <c r="G197">
         <v>0.20292068043586</v>
       </c>
       <c r="H197">
-        <v>-0.079223372226582</v>
+        <v>-0.0792233722263504</v>
       </c>
       <c r="I197">
         <v>-0.26503106454582</v>
@@ -23750,16 +23750,16 @@
         <v>0.0150432732567664</v>
       </c>
       <c r="F198">
-        <v>-0.359735028173442</v>
+        <v>-0.35973502817346</v>
       </c>
       <c r="G198">
-        <v>-0.345163202979732</v>
+        <v>-0.345163202979751</v>
       </c>
       <c r="H198">
-        <v>2.9676530009308</v>
+        <v>2.96765300093106</v>
       </c>
       <c r="I198">
-        <v>-0.141996203497684</v>
+        <v>-0.141996203497703</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -23782,10 +23782,10 @@
         <v>-0.133149781898646</v>
       </c>
       <c r="G199">
-        <v>-0.118792545317512</v>
+        <v>-0.118792545317531</v>
       </c>
       <c r="H199">
-        <v>-0.788965277103718</v>
+        <v>-0.788965277104058</v>
       </c>
       <c r="I199">
         <v>0.11277679285317</v>
@@ -23808,16 +23808,16 @@
         <v>-0.00647105201010082</v>
       </c>
       <c r="F200">
-        <v>0.23101962988701</v>
+        <v>0.231019629887049</v>
       </c>
       <c r="G200">
-        <v>-0.46233249654603</v>
+        <v>-0.46233249654601</v>
       </c>
       <c r="H200">
-        <v>2.79694967106673</v>
+        <v>2.79694967106641</v>
       </c>
       <c r="I200">
-        <v>-0.20441256937029</v>
+        <v>-0.204412569370271</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -23837,16 +23837,16 @@
         <v>-0.0141235997672775</v>
       </c>
       <c r="F201">
-        <v>0.0100120069219137</v>
+        <v>0.010012006921934</v>
       </c>
       <c r="G201">
         <v>0.0240007829763371</v>
       </c>
       <c r="H201">
-        <v>-0.944262247278478</v>
+        <v>-0.94426224727879</v>
       </c>
       <c r="I201">
-        <v>-0.42045456299007</v>
+        <v>-0.420454562990049</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -23866,16 +23866,16 @@
         <v>-0.0166080325726875</v>
       </c>
       <c r="F202">
-        <v>-0.104728620406653</v>
+        <v>-0.104728620406611</v>
       </c>
       <c r="G202">
-        <v>-0.0908912365907465</v>
+        <v>-0.0908912365906838</v>
       </c>
       <c r="H202">
-        <v>3.24645244154509</v>
+        <v>3.24645244154575</v>
       </c>
       <c r="I202">
-        <v>0.226109407020974</v>
+        <v>0.226109407021037</v>
       </c>
     </row>
   </sheetData>
